--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL47"/>
+  <dimension ref="A2:ALL58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -505,23 +505,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="13" customWidth="1" min="14" max="14"/>
     <col width="13" customWidth="1" min="15" max="15"/>
     <col width="13" customWidth="1" min="16" max="16"/>
-    <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="13" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="13" customWidth="1" min="20" max="20"/>
-    <col width="13" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2550,74 +2544,39 @@
           <t>2023-02</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>2023-03</t>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 00</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 00</t>
+          <t>2023 - wk 01</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 01</t>
+          <t>2023 - wk 02</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 02</t>
+          <t>2023 - wk 03</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 03</t>
+          <t>2023 - wk 04</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 04</t>
+          <t>2023 - wk 05</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 05</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
           <t>2023 - wk 06</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 07</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 08</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 09</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 10</t>
-        </is>
-      </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 11</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 12</t>
         </is>
       </c>
     </row>
@@ -2631,55 +2590,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-32352.82554646117</v>
+        <v>-402201.4097288959</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-11842.14883972602</v>
+        <v>-304384.3887996575</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-10945.37152340182</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>-9565.305183333328</v>
+        <v>-97817.02092923844</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-10288.14585176088</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-330.2697081050227</v>
+        <v>-68192.73636715887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>-2696.621078767122</v>
+        <v>-68335.73950435339</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>-2751.487245433789</v>
+        <v>-68446.44744702868</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>-2493.402312100455</v>
+        <v>-67193.84851630284</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>-2794.076587100456</v>
+        <v>-67175.89449017886</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>-2844.510945433789</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>-2447.614445433789</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>-2653.383378767122</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>-3078.462062100456</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>-2561.778678767122</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>-2727.944128767122</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>-2698.302428767122</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>-2274.972546917807</v>
+        <v>-52568.59755211235</v>
       </c>
     </row>
     <row r="8">
@@ -2699,7 +2637,7 @@
       <c r="H8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="J8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="7" t="n">
@@ -2718,27 +2656,6 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2747,59 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>demand2_op_cost</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7" t="n">
-        <v>0</v>
+          <t>net1_buy_electric</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>-137686.0961319928</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>-103825.9073620558</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>-33860.18876993701</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>-3453.135274022441</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>-23518.09410689768</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>-23421.63034819992</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>-23328.3135659014</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>-22821.11090679469</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>-23066.68249149519</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>-18077.12943868149</v>
       </c>
     </row>
     <row r="10">
@@ -2807,59 +2703,38 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-1999</v>
+        <v>-47.98666672</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>-584</v>
+        <v>-47.98666672</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>-0</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>-168</v>
+        <v>-8.066666720000001</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>-0</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>-168</v>
+        <v>-20.68</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>-0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V10" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W10" s="8" t="n">
-        <v>-128</v>
+        <v>-19.24</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -2867,59 +2742,38 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-3998</v>
+        <v>-8816.587031770729</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-1486</v>
+        <v>-6487.653224423191</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>-1344</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>-1168</v>
+        <v>-2328.933807347538</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>-198.2684798975296</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-46</v>
+        <v>-1500.962038856154</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>-336</v>
+        <v>-1472.231001410906</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>-336</v>
+        <v>-1406.274838387983</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>-336</v>
+        <v>-1413.636171754234</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>-336</v>
+        <v>-1489.659366633213</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="Q11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="R11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="S11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="T11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="U11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="V11" s="8" t="n">
-        <v>-336</v>
-      </c>
-      <c r="W11" s="8" t="n">
-        <v>-256</v>
+        <v>-1335.55513483071</v>
       </c>
     </row>
     <row r="12">
@@ -2927,59 +2781,38 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E12" s="8" t="n">
-        <v>-1999</v>
+        <v>-28888.29727221243</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>-743</v>
+        <v>-22715.55274739878</v>
       </c>
       <c r="H12" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>-584</v>
+        <v>-6172.744524813646</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>-887.666076694909</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-23</v>
+        <v>-4981.195403513675</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>-168</v>
+        <v>-4951.573484973942</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>-168</v>
+        <v>-5000.166751633044</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>-168</v>
+        <v>-4949.873762010578</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>-168</v>
+        <v>-4633.731269369097</v>
       </c>
       <c r="P12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V12" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W12" s="8" t="n">
-        <v>-128</v>
+        <v>-3484.090524017182</v>
       </c>
     </row>
     <row r="13">
@@ -2987,59 +2820,38 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_cost</t>
+          <t>pv1_op_cost</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-1999</v>
+        <v>-41.05479452054793</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-743</v>
+        <v>-30.53424657534245</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>-584</v>
+        <v>-10.52054794520548</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>-0.9452054794520545</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-23</v>
+        <v>-6.904109589041093</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>-168</v>
+        <v>-6.904109589041093</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>-168</v>
+        <v>-6.904109589041093</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>-168</v>
+        <v>-6.904109589041093</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>-168</v>
+        <v>-6.904109589041093</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V13" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W13" s="8" t="n">
-        <v>-128</v>
+        <v>-5.589041095890408</v>
       </c>
     </row>
     <row r="14">
@@ -3047,59 +2859,38 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>pv2_op_cost</t>
         </is>
       </c>
       <c r="E14" s="8" t="n">
-        <v>-20989.5</v>
+        <v>-51.31849315068492</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>-7801.5</v>
+        <v>-38.16780821917808</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>-7056</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>-6132</v>
+        <v>-13.15068493150685</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>-1.181506849315068</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-241.5</v>
+        <v>-8.630136986301368</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>-1764</v>
+        <v>-8.630136986301368</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>-1764</v>
+        <v>-8.630136986301368</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>-1764</v>
+        <v>-8.630136986301368</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>-1764</v>
+        <v>-8.630136986301368</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="Q14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="R14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="S14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="T14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="U14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="V14" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="W14" s="8" t="n">
-        <v>-1344</v>
+        <v>-6.986301369863012</v>
       </c>
     </row>
     <row r="15">
@@ -3107,59 +2898,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>-20989.5</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>-7801.5</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>-7056</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>-6132</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-241.5</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="P15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="Q15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="R15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="S15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="T15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="U15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="V15" s="8" t="n">
-        <v>-1764</v>
-      </c>
-      <c r="W15" s="8" t="n">
-        <v>-1344</v>
+          <t>bat1_op_cost</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3167,59 +2937,38 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>-1999</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>-584</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V16" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W16" s="8" t="n">
-        <v>-128</v>
+          <t>bat2_op_cost</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3227,59 +2976,38 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_op_cost</t>
+          <t>CHP1_op_cost</t>
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>-1999</v>
+        <v>-9487.752750000001</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>-743</v>
+        <v>-7056.456750000001</v>
       </c>
       <c r="H17" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>-584</v>
+        <v>-2431.296</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>-218.43675</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-23</v>
+        <v>-1595.538</v>
       </c>
       <c r="L17" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V17" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W17" s="8" t="n">
-        <v>-128</v>
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="18">
@@ -3287,59 +3015,38 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>CHP2_op_cost</t>
         </is>
       </c>
       <c r="E18" s="8" t="n">
-        <v>-1999</v>
+        <v>-9487.752750000001</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>-743</v>
+        <v>-7056.456750000001</v>
       </c>
       <c r="H18" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>-584</v>
+        <v>-2431.296</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>-218.43675</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-23</v>
+        <v>-1595.538</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>-168</v>
+        <v>-1595.538</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V18" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W18" s="8" t="n">
-        <v>-128</v>
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="19">
@@ -3347,59 +3054,38 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>pvt2_op_cost</t>
+          <t>solar_th1_op_cost</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-1999</v>
+        <v>-59.87157534246575</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-743</v>
+        <v>-44.5291095890411</v>
       </c>
       <c r="H19" s="8" t="n">
-        <v>-672</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>-584</v>
+        <v>-15.34246575342466</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>-1.378424657534247</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>-23</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>-168</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>-168</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>-168</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>-168</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="Q19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="R19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="S19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="T19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="U19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="V19" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="W19" s="8" t="n">
-        <v>-128</v>
+        <v>-8.15068493150685</v>
       </c>
     </row>
     <row r="20">
@@ -3407,59 +3093,38 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>35897.60835833335</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>13513.21528333334</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>11880.701525</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>10503.69155</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>407.0325416666668</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>3137.275075000001</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>2964.844116666668</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>3132.113691666667</v>
-      </c>
-      <c r="O20" s="7" t="n">
-        <v>2978.102875</v>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>2988.472116666667</v>
-      </c>
-      <c r="Q20" s="7" t="n">
-        <v>3166.110016666667</v>
-      </c>
-      <c r="R20" s="7" t="n">
-        <v>2989.076016666667</v>
-      </c>
-      <c r="S20" s="7" t="n">
-        <v>2734.111600000001</v>
-      </c>
-      <c r="T20" s="7" t="n">
-        <v>3147.244650000001</v>
-      </c>
-      <c r="U20" s="7" t="n">
-        <v>3018.845591666668</v>
-      </c>
-      <c r="V20" s="7" t="n">
-        <v>3076.583125000001</v>
-      </c>
-      <c r="W20" s="7" t="n">
-        <v>2157.796941666667</v>
+          <t>solar_th2_op_cost</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>-359.2294520547945</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>-267.1746575342466</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>-92.05479452054794</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>-8.270547945205479</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-60.41095890410959</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>-60.41095890410959</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>-60.41095890410959</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>-60.41095890410959</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>-60.41095890410959</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>-48.9041095890411</v>
       </c>
     </row>
     <row r="21">
@@ -3467,59 +3132,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_op_cost</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>25949.01815000001</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>9657.238616666669</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>8840.776266666669</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>7451.003266666668</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>346.5333666666667</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>2082.816175</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>2200.380966666667</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>2291.196325000001</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>2144.532866666667</v>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>2083.729266666667</v>
-      </c>
-      <c r="Q21" s="7" t="n">
-        <v>2302.987866666667</v>
-      </c>
-      <c r="R21" s="7" t="n">
-        <v>2274.252933333334</v>
-      </c>
-      <c r="S21" s="7" t="n">
-        <v>2104.138666666667</v>
-      </c>
-      <c r="T21" s="7" t="n">
-        <v>2207.689000000001</v>
-      </c>
-      <c r="U21" s="7" t="n">
-        <v>2169.922608333334</v>
-      </c>
-      <c r="V21" s="7" t="n">
-        <v>2141.826775</v>
-      </c>
-      <c r="W21" s="7" t="n">
-        <v>1599.011333333334</v>
+          <t>pvt1_op_cost</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>-174.4828767123287</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>-129.7705479452054</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>-44.71232876712327</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>-4.017123287671232</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-29.34246575342465</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>-29.34246575342465</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v>-29.34246575342465</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>-29.34246575342465</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>-29.34246575342465</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>-23.75342465753424</v>
       </c>
     </row>
     <row r="22">
@@ -3527,59 +3171,38 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_op_cost</t>
+          <t>pvt2_op_cost</t>
         </is>
       </c>
       <c r="E22" s="8" t="n">
-        <v>-17114.72602739726</v>
+        <v>-218.103595890411</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>-6361.301369863014</v>
+        <v>-162.2131849315068</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>-5753.424657534247</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>-5000</v>
+        <v>-55.89041095890411</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>-5.021404109589041</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-196.9178082191781</v>
+        <v>-36.67808219178082</v>
       </c>
       <c r="L22" s="8" t="n">
-        <v>-1438.356164383562</v>
+        <v>-36.67808219178082</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>-1438.356164383562</v>
+        <v>-36.67808219178082</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>-1438.356164383562</v>
+        <v>-36.67808219178082</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>-1438.356164383562</v>
+        <v>-36.67808219178082</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="Q22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="R22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="S22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="T22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="U22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="V22" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="W22" s="8" t="n">
-        <v>-1095.890410958904</v>
+        <v>-29.69178082191781</v>
       </c>
     </row>
     <row r="23">
@@ -3587,119 +3210,116 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_op_cost</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>-17114.72602739726</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>-6361.301369863014</v>
-      </c>
-      <c r="H23" s="8" t="n">
-        <v>-5753.424657534247</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>-5000</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-196.9178082191781</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="M23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="O23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="P23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="Q23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="R23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="S23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="T23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="U23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="V23" s="8" t="n">
-        <v>-1438.356164383562</v>
-      </c>
-      <c r="W23" s="8" t="n">
-        <v>-1095.890410958904</v>
+          <t>charging_station1_op_cost</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>19213.8661</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>14282.4078</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>4931.4583</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>403.8179</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>3448.2389</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>3067.9937</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>3158.4619</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>3246.359100000001</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>3270.6263</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>2618.3683</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_op_cost</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>14755.1236</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>10923.1408</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>3831.982800000001</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>349.8663</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>2719.138800000001</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>2630.6141</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>2249.4386</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>2272.5117</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>2315.5831</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>2217.971</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>-809000</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>-809000</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>-809000</v>
-      </c>
-      <c r="L25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9" t="n">
-        <v>0</v>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_op_cost</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>-77.54794520547944</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>-19.87214611872146</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M25" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N25" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O25" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P25" s="8" t="n">
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="26">
@@ -3707,59 +3327,38 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="7" t="n">
-        <v>0</v>
+          <t>heat_pump2_op_cost</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>-77.54794520547944</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>-19.87214611872146</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N26" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P26" s="8" t="n">
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="27">
@@ -3767,59 +3366,38 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>demand2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="7" t="n">
-        <v>0</v>
+          <t>bat_with_aging1_op_cost</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>-999</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>-743</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N27" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P27" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="28">
@@ -3827,59 +3405,38 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="7" t="n">
-        <v>0</v>
+          <t>bat_with_aging2_op_cost</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>-999</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>-743</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P28" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="29">
@@ -3887,59 +3444,38 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>net2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="7" t="n">
-        <v>0</v>
+          <t>gas_boiler1_op_cost</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>-10543.3005075703</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>-7841.513790915646</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>-2701.786716654651</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="N29" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="P29" s="8" t="n">
+        <v>-1435.324193222783</v>
       </c>
     </row>
     <row r="30">
@@ -3947,59 +3483,38 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
+          <t>gas_boiler2_op_cost</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-12000</v>
+        <v>-52716.50253785147</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>0</v>
+        <v>-39207.56895457822</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>-13508.93358327325</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>-1213.693251622206</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="7" t="n">
-        <v>0</v>
+        <v>-8865.237664023069</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>-8865.237664023069</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v>-8865.237664023069</v>
+      </c>
+      <c r="N30" s="8" t="n">
+        <v>-8865.237664023069</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>-8865.237664023069</v>
+      </c>
+      <c r="P30" s="8" t="n">
+        <v>-7176.620966113914</v>
       </c>
     </row>
     <row r="31">
@@ -4007,59 +3522,38 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>pv2_inv_cost</t>
+          <t>total_sell</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-24000</v>
+        <v>-8864.573698490729</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="n">
-        <v>0</v>
+        <v>-6535.639891143192</v>
+      </c>
+      <c r="H31" s="8" t="n">
+        <v>-2328.933807347538</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>-198.2684798975296</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="L31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="7" t="n">
-        <v>0</v>
+        <v>-1509.028705576154</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>-1472.231001410906</v>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v>-1426.954838387983</v>
+      </c>
+      <c r="N31" s="8" t="n">
+        <v>-1413.636171754234</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>-1508.899366633213</v>
+      </c>
+      <c r="P31" s="8" t="n">
+        <v>-1335.55513483071</v>
       </c>
     </row>
     <row r="32">
@@ -4067,178 +3561,76 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_cost</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-65000</v>
+        <v>-166574.3934042052</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>0</v>
+        <v>-126541.4601094546</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v>-40032.93329475065</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>-4340.80135071735</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="L32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>bat2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="L33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="7" t="n">
-        <v>0</v>
+        <v>-28499.28951041136</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>-28373.20383317386</v>
+      </c>
+      <c r="M32" s="8" t="n">
+        <v>-28328.48031753444</v>
+      </c>
+      <c r="N32" s="8" t="n">
+        <v>-27770.98466880526</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>-27700.41376086429</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>-21561.21996269867</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="7" t="n">
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1885820</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>-1885820</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>-1885820</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4247,23 +3639,23 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>CHP2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>-34000</v>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>-34000</v>
+      <c r="J35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L35" s="7" t="n">
         <v>0</v>
@@ -4278,27 +3670,6 @@
         <v>0</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4307,23 +3678,23 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>-35000</v>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>-35000</v>
+      <c r="J36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L36" s="7" t="n">
         <v>0</v>
@@ -4338,27 +3709,6 @@
         <v>0</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4367,23 +3717,23 @@
       <c r="B37" s="6" t="n"/>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_inv_cost</t>
+          <t>pv1_inv_cost</t>
         </is>
       </c>
       <c r="E37" s="8" t="n">
-        <v>-35000</v>
+        <v>-24000</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>-35000</v>
+        <v>-24000</v>
       </c>
       <c r="H37" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>-35000</v>
+      <c r="J37" s="8" t="n">
+        <v>-24000</v>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L37" s="7" t="n">
         <v>0</v>
@@ -4398,27 +3748,6 @@
         <v>0</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4427,23 +3756,23 @@
       <c r="B38" s="6" t="n"/>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>pvt1_inv_cost</t>
+          <t>pv2_inv_cost</t>
         </is>
       </c>
       <c r="E38" s="8" t="n">
-        <v>-42500</v>
+        <v>-30000</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>-42500</v>
+        <v>-30000</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>-42500</v>
+      <c r="J38" s="8" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L38" s="7" t="n">
         <v>0</v>
@@ -4458,27 +3787,6 @@
         <v>0</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4487,23 +3795,23 @@
       <c r="B39" s="6" t="n"/>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>pvt2_inv_cost</t>
+          <t>bat1_inv_cost</t>
         </is>
       </c>
       <c r="E39" s="8" t="n">
-        <v>-42500</v>
+        <v>-650000</v>
       </c>
       <c r="G39" s="8" t="n">
-        <v>-42500</v>
+        <v>-650000</v>
       </c>
       <c r="H39" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>-42500</v>
+      <c r="J39" s="8" t="n">
+        <v>-650000</v>
+      </c>
+      <c r="K39" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L39" s="7" t="n">
         <v>0</v>
@@ -4518,27 +3826,6 @@
         <v>0</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4547,23 +3834,23 @@
       <c r="B40" s="6" t="n"/>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_inv_cost</t>
+          <t>bat2_inv_cost</t>
         </is>
       </c>
       <c r="E40" s="8" t="n">
-        <v>-200000</v>
+        <v>-65000</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>-200000</v>
+        <v>-65000</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>-200000</v>
+      <c r="J40" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K40" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L40" s="7" t="n">
         <v>0</v>
@@ -4578,27 +3865,6 @@
         <v>0</v>
       </c>
       <c r="P40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4607,23 +3873,23 @@
       <c r="B41" s="6" t="n"/>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_inv_cost</t>
+          <t>CHP1_inv_cost</t>
         </is>
       </c>
       <c r="E41" s="8" t="n">
-        <v>-200000</v>
+        <v>-34000</v>
       </c>
       <c r="G41" s="8" t="n">
-        <v>-200000</v>
+        <v>-34000</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-200000</v>
+      <c r="J41" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K41" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L41" s="7" t="n">
         <v>0</v>
@@ -4638,27 +3904,6 @@
         <v>0</v>
       </c>
       <c r="P41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4667,23 +3912,23 @@
       <c r="B42" s="6" t="n"/>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_inv_cost</t>
+          <t>CHP2_inv_cost</t>
         </is>
       </c>
       <c r="E42" s="8" t="n">
-        <v>-10000</v>
+        <v>-34000</v>
       </c>
       <c r="G42" s="8" t="n">
-        <v>-10000</v>
+        <v>-34000</v>
       </c>
       <c r="H42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-10000</v>
+      <c r="J42" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L42" s="7" t="n">
         <v>0</v>
@@ -4698,27 +3943,6 @@
         <v>0</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,179 +3951,545 @@
       <c r="B43" s="6" t="n"/>
       <c r="C43" s="6" t="inlineStr">
         <is>
+          <t>solar_th1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>-210000</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>-210000</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>-210000</v>
+      </c>
+      <c r="K44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>-102000</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>-102000</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>-102000</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>-127500</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>-127500</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>-127500</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
           <t>heat_pump2_inv_cost</t>
         </is>
       </c>
-      <c r="E43" s="8" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="G43" s="8" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="4" t="n"/>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="E50" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>-12500</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>-12500</v>
+      </c>
+      <c r="H54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>-12500</v>
+      </c>
+      <c r="K54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E45" s="5" t="n">
-        <v>-841352.8255464612</v>
-      </c>
-      <c r="G45" s="5" t="n">
-        <v>-820842.148839726</v>
-      </c>
-      <c r="H45" s="5" t="n">
-        <v>-10945.37152340182</v>
-      </c>
-      <c r="I45" s="5" t="n">
-        <v>-9565.305183333328</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>-809330.269708105</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>-2696.621078767122</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>-2751.487245433789</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>-2493.402312100455</v>
-      </c>
-      <c r="O45" s="5" t="n">
-        <v>-2794.076587100456</v>
-      </c>
-      <c r="P45" s="5" t="n">
-        <v>-2844.510945433789</v>
-      </c>
-      <c r="Q45" s="5" t="n">
-        <v>-2447.614445433789</v>
-      </c>
-      <c r="R45" s="5" t="n">
-        <v>-2653.383378767122</v>
-      </c>
-      <c r="S45" s="5" t="n">
-        <v>-3078.462062100456</v>
-      </c>
-      <c r="T45" s="5" t="n">
-        <v>-2561.778678767122</v>
-      </c>
-      <c r="U45" s="5" t="n">
-        <v>-2727.944128767122</v>
-      </c>
-      <c r="V45" s="5" t="n">
-        <v>-2698.302428767122</v>
-      </c>
-      <c r="W45" s="5" t="n">
-        <v>-2274.972546917807</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n"/>
-      <c r="B47" s="4" t="n"/>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>4 - Result cumulated</t>
-        </is>
-      </c>
-      <c r="E47" s="5" t="n">
-        <v>-841352.8255464612</v>
-      </c>
-      <c r="G47" s="5" t="n">
-        <v>-820842.148839726</v>
-      </c>
-      <c r="H47" s="5" t="n">
-        <v>-831787.5203631278</v>
-      </c>
-      <c r="I47" s="5" t="n">
-        <v>-841352.8255464612</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>-809330.269708105</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>-812026.8907868721</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>-814778.3780323059</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>-817271.7803444063</v>
-      </c>
-      <c r="O47" s="5" t="n">
-        <v>-820065.8569315068</v>
-      </c>
-      <c r="P47" s="5" t="n">
-        <v>-822910.3678769405</v>
-      </c>
-      <c r="Q47" s="5" t="n">
-        <v>-825357.9823223744</v>
-      </c>
-      <c r="R47" s="5" t="n">
-        <v>-828011.3657011415</v>
-      </c>
-      <c r="S47" s="5" t="n">
-        <v>-831089.8277632419</v>
-      </c>
-      <c r="T47" s="5" t="n">
-        <v>-833651.6064420091</v>
-      </c>
-      <c r="U47" s="5" t="n">
-        <v>-836379.5505707762</v>
-      </c>
-      <c r="V47" s="5" t="n">
-        <v>-839077.8529995433</v>
-      </c>
-      <c r="W47" s="5" t="n">
-        <v>-841352.8255464612</v>
+      <c r="E56" s="5" t="n">
+        <v>-2288021.409728896</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>-2190204.388799658</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>-97817.02092923844</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>-1896108.145851761</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>-68192.73636715887</v>
+      </c>
+      <c r="L56" s="5" t="n">
+        <v>-68335.73950435339</v>
+      </c>
+      <c r="M56" s="5" t="n">
+        <v>-68446.44744702868</v>
+      </c>
+      <c r="N56" s="5" t="n">
+        <v>-67193.84851630284</v>
+      </c>
+      <c r="O56" s="5" t="n">
+        <v>-67175.89449017886</v>
+      </c>
+      <c r="P56" s="5" t="n">
+        <v>-52568.59755211235</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>4 - Result accumulated</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>-2288021.409728896</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>-2190204.388799658</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>-2288021.409728896</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <v>-1896108.145851761</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>-1964300.88221892</v>
+      </c>
+      <c r="L58" s="5" t="n">
+        <v>-2032636.621723273</v>
+      </c>
+      <c r="M58" s="5" t="n">
+        <v>-2101083.069170302</v>
+      </c>
+      <c r="N58" s="5" t="n">
+        <v>-2168276.917686604</v>
+      </c>
+      <c r="O58" s="5" t="n">
+        <v>-2235452.812176783</v>
+      </c>
+      <c r="P58" s="5" t="n">
+        <v>-2288021.409728895</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL58"/>
+  <dimension ref="A2:ALL42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -508,14 +508,9 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2539,44 +2534,14 @@
           <t>2023-01</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>2023-02</t>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 00</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 00</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
           <t>2023 - wk 01</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 02</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 03</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 04</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 05</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 06</t>
         </is>
       </c>
     </row>
@@ -2590,34 +2555,16 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-402201.4097288959</v>
+        <v>-23242.08523038238</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-304384.3887996575</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>-97817.02092923844</v>
+        <v>-23242.08523038238</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-10767.72872059083</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-10288.14585176088</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>-68192.73636715887</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>-68335.73950435339</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>-68446.44744702868</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>-67193.84851630284</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>-67175.89449017886</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>-52568.59755211235</v>
+        <v>-12474.35650979155</v>
       </c>
     </row>
     <row r="8">
@@ -2634,28 +2581,10 @@
       <c r="G8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="I8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,38 +2593,20 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>-137686.0961319928</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>-103825.9073620558</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>-33860.18876993701</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>-3453.135274022441</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>-23518.09410689768</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>-23421.63034819992</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>-23328.3135659014</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>-22821.11090679469</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>-23066.68249149519</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>-18077.12943868149</v>
+          <t>net1_sell_thermal</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2.66869859544272e-14</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>2.66869859544272e-14</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>1.228905865957586e-14</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>1.439792729485134e-14</v>
       </c>
     </row>
     <row r="10">
@@ -2703,38 +2614,20 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-47.98666672</v>
+        <v>-6157.88015995671</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-47.98666672</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>-8.066666720000001</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>-20.68</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>-19.24</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>-0</v>
+        <v>-6157.88015995671</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>-2864.60600756555</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>-3293.27415239116</v>
       </c>
     </row>
     <row r="11">
@@ -2742,38 +2635,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-8816.587031770729</v>
+        <v>-4917.253862979011</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-6487.653224423191</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>-2328.933807347538</v>
+        <v>-4917.253862979011</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>-2263.015544120154</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-198.2684798975296</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>-1500.962038856154</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>-1472.231001410906</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>-1406.274838387983</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>-1413.636171754234</v>
-      </c>
-      <c r="O11" s="8" t="n">
-        <v>-1489.659366633213</v>
-      </c>
-      <c r="P11" s="8" t="n">
-        <v>-1335.55513483071</v>
+        <v>-2654.238318858856</v>
       </c>
     </row>
     <row r="12">
@@ -2781,38 +2656,20 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>-28888.29727221243</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>-22715.55274739878</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>-6172.744524813646</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>-887.666076694909</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>-4981.195403513675</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>-4951.573484973942</v>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v>-5000.166751633044</v>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>-4949.873762010578</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>-4633.731269369097</v>
-      </c>
-      <c r="P12" s="8" t="n">
-        <v>-3484.090524017182</v>
+          <t>net1_sell_electric</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2824,34 +2681,16 @@
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-41.05479452054793</v>
+        <v>-1.006849315068493</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-30.53424657534245</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>-10.52054794520548</v>
+        <v>-1.006849315068493</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>-0.4726027397260274</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-0.9452054794520545</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-6.904109589041093</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>-6.904109589041093</v>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v>-6.904109589041093</v>
-      </c>
-      <c r="N13" s="8" t="n">
-        <v>-6.904109589041093</v>
-      </c>
-      <c r="O13" s="8" t="n">
-        <v>-6.904109589041093</v>
-      </c>
-      <c r="P13" s="8" t="n">
-        <v>-5.589041095890408</v>
+        <v>-0.5342465753424657</v>
       </c>
     </row>
     <row r="14">
@@ -2859,38 +2698,20 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>-51.31849315068492</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>-38.16780821917808</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>-13.15068493150685</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>-1.181506849315068</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>-8.630136986301368</v>
-      </c>
-      <c r="L14" s="8" t="n">
-        <v>-8.630136986301368</v>
-      </c>
-      <c r="M14" s="8" t="n">
-        <v>-8.630136986301368</v>
-      </c>
-      <c r="N14" s="8" t="n">
-        <v>-8.630136986301368</v>
-      </c>
-      <c r="O14" s="8" t="n">
-        <v>-8.630136986301368</v>
-      </c>
-      <c r="P14" s="8" t="n">
-        <v>-6.986301369863012</v>
+          <t>bat1_op_cost</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2898,7 +2719,7 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
+          <t>bat2_op_cost</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
@@ -2907,28 +2728,10 @@
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="I15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2937,38 +2740,20 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_cost</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>0</v>
+          <t>CHP1_op_cost</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>-465.3652500000001</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>-465.3652500000001</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>-218.43675</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>-246.9285</v>
       </c>
     </row>
     <row r="17">
@@ -2976,38 +2761,20 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>solar_th1_op_cost</t>
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>-9487.752750000001</v>
+        <v>-2.936643835616438</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>-7056.456750000001</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>-2431.296</v>
+        <v>-2.936643835616438</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>-1.378424657534247</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>-218.43675</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="O17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="P17" s="8" t="n">
-        <v>-1291.626</v>
+        <v>-1.558219178082192</v>
       </c>
     </row>
     <row r="18">
@@ -3015,38 +2782,20 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
+          <t>pvt1_op_cost</t>
         </is>
       </c>
       <c r="E18" s="8" t="n">
-        <v>-9487.752750000001</v>
+        <v>-3.565924657534246</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>-7056.456750000001</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>-2431.296</v>
+        <v>-3.565924657534246</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>-1.673801369863013</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>-218.43675</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="N18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="O18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="P18" s="8" t="n">
-        <v>-1291.626</v>
+        <v>-1.892123287671232</v>
       </c>
     </row>
     <row r="19">
@@ -3054,38 +2803,20 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
+          <t>heat_pump1_op_cost</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-59.87157534246575</v>
+        <v>-3.803652968036529</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-44.5291095890411</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>-15.34246575342466</v>
+        <v>-3.803652968036529</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>-1.785388127853881</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="L19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="M19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="N19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="O19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="P19" s="8" t="n">
-        <v>-8.15068493150685</v>
+        <v>-2.018264840182648</v>
       </c>
     </row>
     <row r="20">
@@ -3093,38 +2824,20 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_op_cost</t>
+          <t>bat_with_aging1_op_cost</t>
         </is>
       </c>
       <c r="E20" s="8" t="n">
-        <v>-359.2294520547945</v>
+        <v>-49</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>-267.1746575342466</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>-92.05479452054794</v>
+        <v>-49</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>-23</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>-8.270547945205479</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-60.41095890410959</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>-60.41095890410959</v>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v>-60.41095890410959</v>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>-60.41095890410959</v>
-      </c>
-      <c r="O20" s="8" t="n">
-        <v>-60.41095890410959</v>
-      </c>
-      <c r="P20" s="8" t="n">
-        <v>-48.9041095890411</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="21">
@@ -3132,38 +2845,20 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>bat_with_aging2_op_cost</t>
         </is>
       </c>
       <c r="E21" s="8" t="n">
-        <v>-174.4828767123287</v>
+        <v>-49</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>-129.7705479452054</v>
-      </c>
-      <c r="H21" s="8" t="n">
-        <v>-44.71232876712327</v>
+        <v>-49</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>-23</v>
       </c>
       <c r="J21" s="8" t="n">
-        <v>-4.017123287671232</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>-29.34246575342465</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>-29.34246575342465</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v>-29.34246575342465</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>-29.34246575342465</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v>-29.34246575342465</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>-23.75342465753424</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="22">
@@ -3171,38 +2866,20 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>pvt2_op_cost</t>
+          <t>gas_boiler1_op_cost</t>
         </is>
       </c>
       <c r="E22" s="8" t="n">
-        <v>-218.103595890411</v>
+        <v>-517.1388637346793</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>-162.2131849315068</v>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v>-55.89041095890411</v>
+        <v>-517.1388637346793</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>-242.7386503244413</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>-5.021404109589041</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>-36.67808219178082</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>-36.67808219178082</v>
-      </c>
-      <c r="M22" s="8" t="n">
-        <v>-36.67808219178082</v>
-      </c>
-      <c r="N22" s="8" t="n">
-        <v>-36.67808219178082</v>
-      </c>
-      <c r="O22" s="8" t="n">
-        <v>-36.67808219178082</v>
-      </c>
-      <c r="P22" s="8" t="n">
-        <v>-29.69178082191781</v>
+        <v>-274.4002134102379</v>
       </c>
     </row>
     <row r="23">
@@ -3210,38 +2887,20 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>19213.8661</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>14282.4078</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>4931.4583</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>403.8179</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>3448.2389</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>3067.9937</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>3158.4619</v>
-      </c>
-      <c r="N23" s="7" t="n">
-        <v>3246.359100000001</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>3270.6263</v>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>2618.3683</v>
+          <t>total_buy</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>-11075.13402293572</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>-11075.13402293572</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>-5127.621551685705</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>-5947.512471250016</v>
       </c>
     </row>
     <row r="24">
@@ -3249,116 +2908,41 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_op_cost</t>
+          <t>total_sell</t>
         </is>
       </c>
       <c r="E24" s="7" t="n">
-        <v>14755.1236</v>
+        <v>2.66869859544272e-14</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>10923.1408</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>3831.982800000001</v>
+        <v>2.66869859544272e-14</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1.228905865957586e-14</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>349.8663</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>2719.138800000001</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>2630.6141</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>2249.4386</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>2272.5117</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>2315.5831</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>2217.971</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_cost</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>-77.54794520547944</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>-57.67579908675798</v>
-      </c>
-      <c r="H25" s="8" t="n">
-        <v>-19.87214611872146</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="M25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="P25" s="8" t="n">
-        <v>-10.55707762557077</v>
+        <v>1.439792729485134e-14</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_op_cost</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>-77.54794520547944</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>-57.67579908675798</v>
-      </c>
-      <c r="H26" s="8" t="n">
-        <v>-19.87214611872146</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="L26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="M26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="N26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="O26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="P26" s="8" t="n">
-        <v>-10.55707762557077</v>
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>-400660</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>-400660</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>-400660</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3366,38 +2950,20 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H27" s="8" t="n">
-        <v>-256</v>
-      </c>
-      <c r="J27" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P27" s="8" t="n">
-        <v>-136</v>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3405,38 +2971,20 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_op_cost</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H28" s="8" t="n">
-        <v>-256</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P28" s="8" t="n">
-        <v>-136</v>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3444,38 +2992,20 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_cost</t>
+          <t>pv1_inv_cost</t>
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>-10543.3005075703</v>
+        <v>-12000</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>-7841.513790915646</v>
-      </c>
-      <c r="H29" s="8" t="n">
-        <v>-2701.786716654651</v>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="L29" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="M29" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="N29" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="O29" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="P29" s="8" t="n">
-        <v>-1435.324193222783</v>
+        <v>-12000</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3483,38 +3013,20 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler2_op_cost</t>
+          <t>bat1_inv_cost</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-52716.50253785147</v>
+        <v>-65000</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-39207.56895457822</v>
-      </c>
-      <c r="H30" s="8" t="n">
-        <v>-13508.93358327325</v>
-      </c>
-      <c r="J30" s="8" t="n">
-        <v>-1213.693251622206</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-8865.237664023069</v>
-      </c>
-      <c r="L30" s="8" t="n">
-        <v>-8865.237664023069</v>
-      </c>
-      <c r="M30" s="8" t="n">
-        <v>-8865.237664023069</v>
-      </c>
-      <c r="N30" s="8" t="n">
-        <v>-8865.237664023069</v>
-      </c>
-      <c r="O30" s="8" t="n">
-        <v>-8865.237664023069</v>
-      </c>
-      <c r="P30" s="8" t="n">
-        <v>-7176.620966113914</v>
+        <v>-65000</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3522,38 +3034,20 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
+          <t>bat2_inv_cost</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-8864.573698490729</v>
+        <v>-65000</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-6535.639891143192</v>
-      </c>
-      <c r="H31" s="8" t="n">
-        <v>-2328.933807347538</v>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>-198.2684798975296</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-1509.028705576154</v>
-      </c>
-      <c r="L31" s="8" t="n">
-        <v>-1472.231001410906</v>
-      </c>
-      <c r="M31" s="8" t="n">
-        <v>-1426.954838387983</v>
-      </c>
-      <c r="N31" s="8" t="n">
-        <v>-1413.636171754234</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>-1508.899366633213</v>
-      </c>
-      <c r="P31" s="8" t="n">
-        <v>-1335.55513483071</v>
+        <v>-65000</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3561,76 +3055,61 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>CHP1_inv_cost</t>
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-166574.3934042052</v>
+        <v>-34000</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>-126541.4601094546</v>
-      </c>
-      <c r="H32" s="8" t="n">
-        <v>-40032.93329475065</v>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>-4340.80135071735</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-28499.28951041136</v>
-      </c>
-      <c r="L32" s="8" t="n">
-        <v>-28373.20383317386</v>
-      </c>
-      <c r="M32" s="8" t="n">
-        <v>-28328.48031753444</v>
-      </c>
-      <c r="N32" s="8" t="n">
-        <v>-27770.98466880526</v>
-      </c>
-      <c r="O32" s="8" t="n">
-        <v>-27700.41376086429</v>
-      </c>
-      <c r="P32" s="8" t="n">
-        <v>-21561.21996269867</v>
+        <v>-34000</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>-1885820</v>
-      </c>
-      <c r="G34" s="5" t="n">
-        <v>-1885820</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <v>-1885820</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9" t="n">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="J34" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3639,37 +3118,19 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
+          <t>heat_pump1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>-14660</v>
       </c>
       <c r="J35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3678,37 +3139,19 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <v>0</v>
+          <t>bat_with_aging1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>-65000</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3717,37 +3160,19 @@
       <c r="B37" s="6" t="n"/>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
+          <t>bat_with_aging2_inv_cost</t>
         </is>
       </c>
       <c r="E37" s="8" t="n">
-        <v>-24000</v>
+        <v>-65000</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J37" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3756,740 +3181,62 @@
       <c r="B38" s="6" t="n"/>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>pv2_inv_cost</t>
+          <t>gas_boiler1_inv_cost</t>
         </is>
       </c>
       <c r="E38" s="8" t="n">
-        <v>-30000</v>
+        <v>-2500</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="6" t="inlineStr">
-        <is>
-          <t>bat1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="n">
-        <v>-650000</v>
-      </c>
-      <c r="G39" s="8" t="n">
-        <v>-650000</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8" t="n">
-        <v>-650000</v>
-      </c>
-      <c r="K39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="J38" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>bat2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E40" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E41" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G41" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7" t="n">
-        <v>0</v>
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>3 - Result</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-423902.0852303824</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>-423902.0852303824</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>-411427.7287205908</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>-12474.35650979155</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>CHP2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E42" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G42" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="K42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E43" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G43" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="K43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>solar_th2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="n">
-        <v>-210000</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>-210000</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v>-210000</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="6" t="n"/>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>-102000</v>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v>-102000</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8" t="n">
-        <v>-102000</v>
-      </c>
-      <c r="K45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="6" t="n"/>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>pvt2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>-127500</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>-127500</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v>-127500</v>
-      </c>
-      <c r="K46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="6" t="n"/>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E48" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G48" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G49" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E50" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G50" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E51" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G51" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G52" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="H53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="K53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v>-12500</v>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v>-12500</v>
-      </c>
-      <c r="H54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8" t="n">
-        <v>-12500</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="4" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>3 - Result</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>-2288021.409728896</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>-2190204.388799658</v>
-      </c>
-      <c r="H56" s="5" t="n">
-        <v>-97817.02092923844</v>
-      </c>
-      <c r="J56" s="5" t="n">
-        <v>-1896108.145851761</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>-68192.73636715887</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>-68335.73950435339</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>-68446.44744702868</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>-67193.84851630284</v>
-      </c>
-      <c r="O56" s="5" t="n">
-        <v>-67175.89449017886</v>
-      </c>
-      <c r="P56" s="5" t="n">
-        <v>-52568.59755211235</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E58" s="5" t="n">
-        <v>-2288021.409728896</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <v>-2190204.388799658</v>
-      </c>
-      <c r="H58" s="5" t="n">
-        <v>-2288021.409728896</v>
-      </c>
-      <c r="J58" s="5" t="n">
-        <v>-1896108.145851761</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>-1964300.88221892</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>-2032636.621723273</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>-2101083.069170302</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>-2168276.917686604</v>
-      </c>
-      <c r="O58" s="5" t="n">
-        <v>-2235452.812176783</v>
-      </c>
-      <c r="P58" s="5" t="n">
-        <v>-2288021.409728895</v>
+      <c r="E42" s="5" t="n">
+        <v>-423902.0852303824</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>-423902.0852303824</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>-411427.7287205908</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>-423902.0852303824</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL42"/>
+  <dimension ref="A2:ALL30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -508,9 +508,14 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2534,14 +2539,44 @@
           <t>2023-01</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 00</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 01</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 02</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 03</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 04</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 05</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 06</t>
         </is>
       </c>
     </row>
@@ -2555,16 +2590,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-23242.08523038238</v>
+        <v>-397579.9500133515</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-23242.08523038238</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>-10767.72872059083</v>
+        <v>-298992.5487836245</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-98587.40122972691</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-12474.35650979155</v>
+        <v>-9553.501991280082</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-67118.23603961361</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-67038.84763610031</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-67231.28061755383</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-67218.83076293449</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-66667.09595814577</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-52752.15700772339</v>
       </c>
     </row>
     <row r="8">
@@ -2581,10 +2634,28 @@
       <c r="G8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="H8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2593,20 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>2.66869859544272e-14</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>2.66869859544272e-14</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>1.228905865957586e-14</v>
+      <c r="E9" s="8" t="n">
+        <v>-12.00000000000001</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>-12.00000000000001</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>-0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>1.439792729485134e-14</v>
+        <v>-0</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>-12.00000000000001</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -2618,16 +2707,34 @@
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-6157.88015995671</v>
+        <v>-128953.1595099562</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-6157.88015995671</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>-2864.60600756555</v>
+        <v>-96752.95576789016</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>-32200.20374206606</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>-3293.27415239116</v>
+        <v>-3011.580789329904</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-21861.25402955753</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>-21745.87647080026</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>-21763.14896471002</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>-21852.80218149629</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>-21568.13841570766</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>-17150.35865835456</v>
       </c>
     </row>
     <row r="11">
@@ -2639,16 +2746,34 @@
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-4917.253862979011</v>
+        <v>-59197.43962951865</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-4917.253862979011</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>-2263.015544120154</v>
+        <v>-44833.129751897</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>-14364.30987762165</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-2654.238318858856</v>
+        <v>-1531.25934105937</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-9906.4590452952</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>-9971.424635806346</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>-10087.31237558466</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>-9980.450001256924</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>-10001.64573353828</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>-7718.888496977872</v>
       </c>
     </row>
     <row r="12">
@@ -2656,20 +2781,38 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0</v>
+      <c r="E12" s="8" t="n">
+        <v>-3404.362674563852</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>-2526.117999022814</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>-878.2446755410379</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>-67.61526622108582</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>-576.7240476937943</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>-587.4418141832684</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>-538.4980712219613</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>-561.4823014537553</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>-549.0829325666649</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>-523.5182412233218</v>
       </c>
     </row>
     <row r="13">
@@ -2681,16 +2824,34 @@
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-1.006849315068493</v>
+        <v>-20.52739726027397</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-1.006849315068493</v>
-      </c>
-      <c r="I13" s="8" t="n">
+        <v>-15.26712328767123</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>-5.260273972602739</v>
+      </c>
+      <c r="J13" s="8" t="n">
         <v>-0.4726027397260274</v>
       </c>
-      <c r="J13" s="8" t="n">
-        <v>-0.5342465753424657</v>
+      <c r="K13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>-2.794520547945205</v>
       </c>
     </row>
     <row r="14">
@@ -2707,10 +2868,28 @@
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2719,20 +2898,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_cost</t>
+          <t>CHP1_op_cost</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>0</v>
+      <c r="E15" s="8" t="n">
+        <v>-14231.62912500001</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>-10584.68512500001</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>-3646.944000000003</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>-327.6551250000002</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-2393.307000000002</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>-2393.307000000002</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>-2393.307000000002</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>-2393.307000000002</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>-2393.307000000002</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>-1937.439000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2740,20 +2937,38 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>heat_pump1_op_cost</t>
         </is>
       </c>
       <c r="E16" s="8" t="n">
-        <v>-465.3652500000001</v>
+        <v>-193.8698630136986</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>-465.3652500000001</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>-218.43675</v>
+        <v>-144.189497716895</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>-49.68036529680366</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>-246.9285</v>
+        <v>-4.463470319634704</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-32.6027397260274</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>-32.6027397260274</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <v>-32.6027397260274</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <v>-32.6027397260274</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>-32.6027397260274</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <v>-26.39269406392694</v>
       </c>
     </row>
     <row r="17">
@@ -2761,20 +2976,38 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
+          <t>total_sell</t>
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>-2.936643835616438</v>
+        <v>-3416.362674563852</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>-2.936643835616438</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>-1.378424657534247</v>
+        <v>-2538.117999022814</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>-878.2446755410379</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>-1.558219178082192</v>
+        <v>-67.61526622108582</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-576.7240476937943</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>-587.4418141832684</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>-550.4980712219613</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>-561.4823014537553</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>-549.0829325666649</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>-523.5182412233218</v>
       </c>
     </row>
     <row r="18">
@@ -2782,62 +3015,77 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E18" s="8" t="n">
-        <v>-3.565924657534246</v>
+        <v>-188150.5991394749</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>-3.565924657534246</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>-1.673801369863013</v>
+        <v>-141586.0855197872</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>-46564.51361968771</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>-1.892123287671232</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_cost</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>-3.803652968036529</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>-3.803652968036529</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>-2.018264840182648</v>
+        <v>-4542.840130389274</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-31767.71307485273</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>-31717.30110660661</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>-31850.46134029467</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <v>-31833.25218275322</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>-31569.78414924594</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>-24869.24715533243</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
+          <t>2 - Investment Costs</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n">
-        <v>-49</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>-49</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>-26</v>
+      <c r="E20" s="5" t="n">
+        <v>-164650</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-164650</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-164650</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2845,20 +3093,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_op_cost</t>
+          <t>demand1_inv_cost</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>-49</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>-49</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>-26</v>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2866,20 +3132,38 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_cost</t>
+          <t>net1_inv_cost</t>
         </is>
       </c>
-      <c r="E22" s="8" t="n">
-        <v>-517.1388637346793</v>
-      </c>
-      <c r="G22" s="8" t="n">
-        <v>-517.1388637346793</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>-274.4002134102379</v>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2887,20 +3171,38 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>pv1_inv_cost</t>
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>-11075.13402293572</v>
+        <v>-12000</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>-11075.13402293572</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>-5127.621551685705</v>
+        <v>-12000</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>-5947.512471250016</v>
+        <v>-12000</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2908,335 +3210,194 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>2.66869859544272e-14</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>2.66869859544272e-14</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>1.228905865957586e-14</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>1.439792729485134e-14</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>-400660</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>-400660</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>-400660</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="n"/>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>pv1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="I29" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
           <t>bat1_inv_cost</t>
         </is>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E24" s="8" t="n">
         <v>-65000</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G24" s="8" t="n">
         <v>-65000</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="n">
         <v>-65000</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="K24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6" t="n"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>bat2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I31" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J31" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>CHP1_inv_cost</t>
         </is>
       </c>
-      <c r="E32" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="I32" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="J32" s="7" t="n">
+      <c r="E25" s="8" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="J33" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="I34" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>heat_pump1_inv_cost</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="I35" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="J35" s="7" t="n">
+      <c r="E26" s="8" t="n">
+        <v>-36650</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>-36650</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>-36650</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I36" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J36" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J37" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E38" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="I38" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="J38" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E40" s="5" t="n">
-        <v>-423902.0852303824</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>-423902.0852303824</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>-411427.7287205908</v>
-      </c>
-      <c r="J40" s="5" t="n">
-        <v>-12474.35650979155</v>
+      <c r="E28" s="5" t="n">
+        <v>-562229.9500133515</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>-463642.5487836245</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>-98587.40122972691</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>-174203.5019912801</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>-67118.23603961361</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>-67038.84763610031</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>-67231.28061755383</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>-67218.83076293449</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>-66667.09595814577</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>-52752.15700772339</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="n"/>
-      <c r="B42" s="4" t="n"/>
-      <c r="C42" s="4" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E42" s="5" t="n">
-        <v>-423902.0852303824</v>
-      </c>
-      <c r="G42" s="5" t="n">
-        <v>-423902.0852303824</v>
-      </c>
-      <c r="I42" s="5" t="n">
-        <v>-411427.7287205908</v>
-      </c>
-      <c r="J42" s="5" t="n">
-        <v>-423902.0852303824</v>
+      <c r="E30" s="5" t="n">
+        <v>-562229.9500133515</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>-463642.5487836245</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>-562229.9500133514</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>-174203.5019912801</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>-241321.7380308937</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>-308360.585666994</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>-375591.8662845478</v>
+      </c>
+      <c r="N30" s="5" t="n">
+        <v>-442810.6970474824</v>
+      </c>
+      <c r="O30" s="5" t="n">
+        <v>-509477.7930056282</v>
+      </c>
+      <c r="P30" s="5" t="n">
+        <v>-562229.9500133515</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL30"/>
+  <dimension ref="A2:ALL26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -508,14 +508,10 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2536,47 +2532,22 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-10</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023 - wk 39</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 00</t>
+          <t>2023 - wk 40</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 01</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 02</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 03</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 04</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 05</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 06</t>
+          <t>2023 - wk 41</t>
         </is>
       </c>
     </row>
@@ -2590,34 +2561,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-397579.9500133515</v>
+        <v>-102703.4886102929</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-298992.5487836245</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>-98587.40122972691</v>
+        <v>-102703.4886102929</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-12472.03307852333</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-9553.501991280082</v>
+        <v>-88195.45705735218</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-67118.23603961361</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>-67038.84763610031</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>-67231.28061755383</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>-67218.83076293449</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>-66667.09595814577</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>-52752.15700772339</v>
+        <v>-2035.9984744174</v>
       </c>
     </row>
     <row r="8">
@@ -2634,28 +2590,13 @@
       <c r="G8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="I8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,38 +2605,23 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E9" s="8" t="n">
-        <v>-12.00000000000001</v>
+        <v>-23748.69111160338</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>-12.00000000000001</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>-12.00000000000001</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>-0</v>
+        <v>-23748.69111160338</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>-2824.688618613715</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>-20481.46884477213</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>-442.5336482175389</v>
       </c>
     </row>
     <row r="10">
@@ -2703,38 +2629,23 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-128953.1595099562</v>
+        <v>-27599.98641272115</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-96752.95576789016</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>-32200.20374206606</v>
+        <v>-27599.98641272115</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>-3410.973468593154</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>-3011.580789329904</v>
+        <v>-23613.67064280807</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-21861.25402955753</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>-21745.87647080026</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>-21763.14896471002</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>-21852.80218149629</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>-21568.13841570766</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>-17150.35865835456</v>
+        <v>-575.3423013199283</v>
       </c>
     </row>
     <row r="11">
@@ -2742,38 +2653,23 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n">
-        <v>-59197.43962951865</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>-44833.129751897</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>-14364.30987762165</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>-1531.25934105937</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>-9906.4590452952</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>-9971.424635806346</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>-10087.31237558466</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>-9980.450001256924</v>
-      </c>
-      <c r="O11" s="8" t="n">
-        <v>-10001.64573353828</v>
-      </c>
-      <c r="P11" s="8" t="n">
-        <v>-7718.888496977872</v>
+      <c r="E11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2781,38 +2677,23 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
-        <v>-3404.362674563852</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>-2526.117999022814</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>-878.2446755410379</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>-67.61526622108582</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>-576.7240476937943</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>-587.4418141832684</v>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v>-538.4980712219613</v>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>-561.4823014537553</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>-549.0829325666649</v>
-      </c>
-      <c r="P12" s="8" t="n">
-        <v>-523.5182412233218</v>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2824,34 +2705,19 @@
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-20.52739726027397</v>
+        <v>-6.133561643835617</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-15.26712328767123</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>-5.260273972602739</v>
+        <v>-6.133561643835617</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>-0.7089041095890412</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-5.178082191780822</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="N13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="O13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="P13" s="8" t="n">
-        <v>-2.794520547945205</v>
+        <v>-0.2465753424657534</v>
       </c>
     </row>
     <row r="14">
@@ -2868,28 +2734,13 @@
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="I14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2898,38 +2749,23 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>total_sell</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>-14231.62912500001</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>-10584.68512500001</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>-3646.944000000003</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>-327.6551250000002</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-2393.307000000002</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>-2393.307000000002</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v>-2393.307000000002</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>-2393.307000000002</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v>-2393.307000000002</v>
-      </c>
-      <c r="P15" s="8" t="n">
-        <v>-1937.439000000001</v>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2937,154 +2773,94 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_op_cost</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E16" s="8" t="n">
-        <v>-193.8698630136986</v>
+        <v>-51348.67752432454</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>-144.189497716895</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>-49.68036529680366</v>
+        <v>-51348.67752432454</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>-6235.66208720687</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>-4.463470319634704</v>
+        <v>-44095.1394875802</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-32.6027397260274</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>-32.6027397260274</v>
-      </c>
-      <c r="M16" s="8" t="n">
-        <v>-32.6027397260274</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>-32.6027397260274</v>
-      </c>
-      <c r="O16" s="8" t="n">
-        <v>-32.6027397260274</v>
-      </c>
-      <c r="P16" s="8" t="n">
-        <v>-26.39269406392694</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>-3416.362674563852</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>-2538.117999022814</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>-878.2446755410379</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>-67.61526622108582</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-576.7240476937943</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>-587.4418141832684</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>-550.4980712219613</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>-561.4823014537553</v>
-      </c>
-      <c r="O17" s="8" t="n">
-        <v>-549.0829325666649</v>
-      </c>
-      <c r="P17" s="8" t="n">
-        <v>-523.5182412233218</v>
+        <v>-1017.875949537467</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>total_buy</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>-188150.5991394749</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>-141586.0855197872</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>-46564.51361968771</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>-4542.840130389274</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-31767.71307485273</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>-31717.30110660661</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>-31850.46134029467</v>
-      </c>
-      <c r="N18" s="8" t="n">
-        <v>-31833.25218275322</v>
-      </c>
-      <c r="O18" s="8" t="n">
-        <v>-31569.78414924594</v>
-      </c>
-      <c r="P18" s="8" t="n">
-        <v>-24869.24715533243</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>2 - Investment Costs</t>
         </is>
       </c>
-      <c r="E20" s="5" t="n">
-        <v>-164650</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>-164650</v>
-      </c>
-      <c r="H20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>-164650</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9" t="n">
+      <c r="E18" s="5" t="n">
+        <v>-83000</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-83000</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>-83000</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3093,37 +2869,22 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
+          <t>pv1_inv_cost</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
+      <c r="E21" s="8" t="n">
+        <v>-18000</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>-18000</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>-18000</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3132,272 +2893,71 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
+          <t>bat1_inv_cost</t>
         </is>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
+      <c r="E22" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>-65000</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>pv1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>bat1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>-51000</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>-51000</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>-51000</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>-36650</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>-36650</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>-36650</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>-562229.9500133515</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>-463642.5487836245</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>-98587.40122972691</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>-174203.5019912801</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>-67118.23603961361</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>-67038.84763610031</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>-67231.28061755383</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>-67218.83076293449</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>-66667.09595814577</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>-52752.15700772339</v>
+      <c r="E24" s="5" t="n">
+        <v>-185703.4886102929</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-185703.4886102929</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>-95472.03307852332</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>-88195.45705735218</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-2035.9984744174</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E30" s="5" t="n">
-        <v>-562229.9500133515</v>
-      </c>
-      <c r="G30" s="5" t="n">
-        <v>-463642.5487836245</v>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>-562229.9500133514</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>-174203.5019912801</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>-241321.7380308937</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>-308360.585666994</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>-375591.8662845478</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>-442810.6970474824</v>
-      </c>
-      <c r="O30" s="5" t="n">
-        <v>-509477.7930056282</v>
-      </c>
-      <c r="P30" s="5" t="n">
-        <v>-562229.9500133515</v>
+      <c r="E26" s="5" t="n">
+        <v>-185703.4886102929</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>-185703.4886102929</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>-95472.03307852332</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>-183667.4901358755</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>-185703.4886102929</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL26"/>
+  <dimension ref="A2:ALL40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -508,10 +508,14 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2535,19 +2539,44 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 39</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 40</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 41</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 42</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 43</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 44</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 45</t>
         </is>
       </c>
     </row>
@@ -2561,19 +2590,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-102703.4886102929</v>
+        <v>-452956.7378296865</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-102703.4886102929</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>-12472.03307852333</v>
+        <v>-340767.2171145669</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-112189.5207151195</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-88195.45705735218</v>
+        <v>-10802.64105383216</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-2035.9984744174</v>
+        <v>-76729.56404999923</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-76442.59607959422</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-76645.92202497114</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-76774.07376751286</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-75849.67516002817</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-59712.2656937487</v>
       </c>
     </row>
     <row r="8">
@@ -2590,13 +2634,28 @@
       <c r="G8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="H8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2605,23 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E9" s="8" t="n">
-        <v>-23748.69111160338</v>
+        <v>-91547.7431653174</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>-23748.69111160338</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>-2824.688618613715</v>
+        <v>-69138.45084458655</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>-22409.29232073085</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>-20481.46884477213</v>
+        <v>-2263.015544120154</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-442.5336482175389</v>
+        <v>-15399.29781193207</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>-15482.95865481555</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>-15583.48829354226</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>-15509.58301800893</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>-15369.63195052135</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>-11939.76789237708</v>
       </c>
     </row>
     <row r="10">
@@ -2629,23 +2703,38 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-27599.98641272115</v>
+        <v>-132224.0710625215</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-27599.98641272115</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>-3410.973468593154</v>
+        <v>-99190.25424543547</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>-33033.81681708605</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>-23613.67064280807</v>
+        <v>-3045.288874186215</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-575.3423013199283</v>
+        <v>-22582.9888610488</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>-22249.15548296281</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>-22263.94706692457</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>-22358.64261372875</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>-22153.591827474</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>-17570.45633619638</v>
       </c>
     </row>
     <row r="11">
@@ -2656,20 +2745,35 @@
           <t>net1_sell_thermal</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n">
-        <v>0</v>
+      <c r="E11" s="8" t="n">
+        <v>-6.927791673660977e-16</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0</v>
+        <v>6.311617894994014e-16</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>-1.323940956865499e-15</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0</v>
+        <v>7.66053886991358e-17</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0</v>
+        <v>2.087219286295294e-16</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>4.163336342344343e-17</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>3.902433931557425e-16</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>-7.93809462606987e-17</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>-2.00450767096072e-15</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>6.739053759474701e-16</v>
       </c>
     </row>
     <row r="12">
@@ -2686,13 +2790,28 @@
       <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2705,19 +2824,34 @@
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-6.133561643835617</v>
+        <v>-20.52739726027397</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-6.133561643835617</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>-0.7089041095890412</v>
+        <v>-15.26712328767123</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>-5.260273972602739</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-5.178082191780822</v>
+        <v>-0.4726027397260274</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-0.2465753424657534</v>
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>-2.794520547945205</v>
       </c>
     </row>
     <row r="14">
@@ -2734,13 +2868,28 @@
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2749,23 +2898,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
+          <t>CHP1_op_cost</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>-9487.752750000003</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>-7056.456750000003</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>-2431.296000000001</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-1595.538000000001</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>-1595.538000000001</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>-1595.538000000001</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>-1595.538000000001</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>-1595.538000000001</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="16">
@@ -2773,47 +2937,116 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>solar_th1_op_cost</t>
         </is>
       </c>
       <c r="E16" s="8" t="n">
-        <v>-51348.67752432454</v>
+        <v>-59.87157534246575</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>-51348.67752432454</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>-6235.66208720687</v>
+        <v>-44.5291095890411</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>-15.34246575342466</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>-44095.1394875802</v>
+        <v>-1.378424657534247</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-1017.875949537467</v>
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <v>-8.15068493150685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_op_cost</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>-72.70119863013697</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>-54.07106164383561</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>-18.63013698630137</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>-9.8972602739726</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>-83000</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>-83000</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>-83000</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0</v>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_op_cost</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>15847.592</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>11702.7067</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>4144.885300000001</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>303.4534</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>2810.382500000001</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>2597.0054</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>2624.3219</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>2537.750700000001</v>
+      </c>
+      <c r="O18" s="7" t="n">
+        <v>2772.1456</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>2202.5325</v>
       </c>
     </row>
     <row r="19">
@@ -2821,23 +3054,38 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>0</v>
+          <t>heat_pump1_op_cost</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>-77.54794520547944</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>-19.87214611872146</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="20">
@@ -2845,23 +3093,38 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0</v>
+          <t>bat_with_aging1_op_cost</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>-999</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>-743</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="21">
@@ -2869,23 +3132,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
+          <t>gas_boiler1_op_cost</t>
         </is>
       </c>
       <c r="E21" s="8" t="n">
-        <v>-18000</v>
+        <v>-10543.3005075703</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>-18000</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>-18000</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0</v>
+        <v>-7841.513790915646</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>-2701.786716654651</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>-1435.324193222783</v>
       </c>
     </row>
     <row r="22">
@@ -2893,71 +3171,623 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_cost</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E22" s="8" t="n">
-        <v>-65000</v>
+        <v>-223771.8142278389</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>0</v>
+        <v>-168328.705090022</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>-55443.10913781691</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>-5308.304418306369</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-37982.28667298087</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>-37732.11413777836</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>-37847.43536046683</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>-37868.22563173768</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>-37523.22377799534</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>-29510.22422857346</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>3 - Result</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>-185703.4886102929</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>-185703.4886102929</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>-95472.03307852332</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>-88195.45705735218</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>-2035.9984744174</v>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>total_sell</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>-6.927791673660977e-16</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>6.311617894994014e-16</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>-1.323940956865499e-15</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>7.66053886991358e-17</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>2.087219286295294e-16</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>4.163336342344343e-17</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>3.902433931557425e-16</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>-7.93809462606987e-17</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>-2.00450767096072e-15</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>6.739053759474701e-16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>-470660</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>-470660</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>-470660</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>pv1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>bat1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="K36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>3 - Result</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>-923616.7378296865</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>-811427.2171145669</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>-112189.5207151195</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>-481462.6410538321</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>-76729.56404999923</v>
+      </c>
+      <c r="L38" s="5" t="n">
+        <v>-76442.59607959422</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>-76645.92202497114</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <v>-76774.07376751286</v>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>-75849.67516002817</v>
+      </c>
+      <c r="P38" s="5" t="n">
+        <v>-59712.2656937487</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E26" s="5" t="n">
-        <v>-185703.4886102929</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>-185703.4886102929</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>-95472.03307852332</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>-183667.4901358755</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>-185703.4886102929</v>
+      <c r="E40" s="5" t="n">
+        <v>-923616.7378296865</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>-811427.2171145669</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>-923616.7378296865</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>-481462.6410538321</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>-558192.2051038314</v>
+      </c>
+      <c r="L40" s="5" t="n">
+        <v>-634634.8011834256</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>-711280.7232083967</v>
+      </c>
+      <c r="N40" s="5" t="n">
+        <v>-788054.7969759095</v>
+      </c>
+      <c r="O40" s="5" t="n">
+        <v>-863904.4721359377</v>
+      </c>
+      <c r="P40" s="5" t="n">
+        <v>-923616.7378296864</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -2590,34 +2590,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-452956.7378296865</v>
+        <v>-452777.4279615105</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-340767.2171145669</v>
+        <v>-340691.9505497243</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-112189.5207151195</v>
+        <v>-112085.4774117862</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-10802.64105383216</v>
+        <v>-10849.88645049882</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-76729.56404999923</v>
+        <v>-76638.09831999923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>-76442.59607959422</v>
+        <v>-76351.61116626087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>-76645.92202497114</v>
+        <v>-76684.78435830449</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>-76774.07376751286</v>
+        <v>-76801.16451600351</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>-75849.67516002817</v>
+        <v>-75805.70550002817</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>-59712.2656937487</v>
+        <v>-59646.17765041537</v>
       </c>
     </row>
     <row r="8">
@@ -2664,38 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E9" s="8" t="n">
-        <v>-91547.7431653174</v>
+        <v>-132006.7574284335</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>-69138.45084458655</v>
+        <v>-99173.02331301413</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>-22409.29232073085</v>
+        <v>-32833.73411541939</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>-2263.015544120154</v>
+        <v>-3123.632072519548</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-15399.29781193207</v>
+        <v>-22469.2392960488</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>-15482.95865481555</v>
+        <v>-22131.21202629615</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>-15583.48829354226</v>
+        <v>-22304.89003359123</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>-15509.58301800893</v>
+        <v>-22445.05103797408</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>-15369.63195052135</v>
+        <v>-22114.36024747399</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>-11939.76789237708</v>
+        <v>-17418.37271452972</v>
       </c>
     </row>
     <row r="10">
@@ -2703,38 +2703,38 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>-132224.0710625215</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>-99190.25424543547</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>-33033.81681708605</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>-3045.288874186215</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>-22582.9888610488</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>-22249.15548296281</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>-22263.94706692457</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>-22358.64261372875</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>-22153.591827474</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>-17570.45633619638</v>
+          <t>net1_sell_electric</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2742,38 +2742,38 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-6.927791673660977e-16</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>6.311617894994014e-16</v>
+        <v>-91547.7431653174</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>-69138.45084458655</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>-1.323940956865499e-15</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <v>7.66053886991358e-17</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>2.087219286295294e-16</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>4.163336342344343e-17</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>3.902433931557425e-16</v>
+        <v>-22409.29232073085</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>-2263.015544120154</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-15399.29781193207</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>-15482.95865481555</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>-15583.48829354226</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>-7.93809462606987e-17</v>
+        <v>-15509.58301800893</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>-2.00450767096072e-15</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>6.739053759474701e-16</v>
+        <v>-15369.63195052135</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>-11939.76789237708</v>
       </c>
     </row>
     <row r="12">
@@ -2781,38 +2781,38 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0</v>
+        <v>7.482903185973555e-16</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
+        <v>1.17128529097954e-15</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>-4.229949723821846e-16</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>0</v>
+        <v>2.4757973449141e-16</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>0</v>
+        <v>1.165734175856414e-16</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>0</v>
+        <v>4.529709940470639e-16</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>-2.109423746787793e-17</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>-2.76445533131664e-16</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>0</v>
+        <v>1.620925615952729e-16</v>
       </c>
     </row>
     <row r="13">
@@ -2926,7 +2926,7 @@
         <v>-1595.538000000001</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>-1595.538000000001</v>
+        <v>-1595.538</v>
       </c>
       <c r="P15" s="8" t="n">
         <v>-1291.626</v>
@@ -3019,34 +3019,34 @@
         </is>
       </c>
       <c r="E18" s="7" t="n">
-        <v>15847.592</v>
+        <v>15592.2746</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>11702.7067</v>
+        <v>11743.5114</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>4144.885300000001</v>
+        <v>3848.763200000001</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>303.4534</v>
+        <v>412.8944000000001</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>2810.382500000001</v>
+        <v>2674.3491</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>2597.0054</v>
+        <v>2452.1034</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>2624.3219</v>
+        <v>2667.3455</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2537.750700000001</v>
+        <v>2683.4768</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>2772.1456</v>
+        <v>2737.6521</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>2202.5325</v>
+        <v>1964.4533</v>
       </c>
     </row>
     <row r="19">
@@ -3171,38 +3171,38 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>-223771.8142278389</v>
-      </c>
-      <c r="G22" s="8" t="n">
-        <v>-168328.705090022</v>
+          <t>total_sell</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>7.482903185973555e-16</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>1.17128529097954e-15</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>-55443.10913781691</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>-5308.304418306369</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>-37982.28667298087</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>-37732.11413777836</v>
-      </c>
-      <c r="M22" s="8" t="n">
-        <v>-37847.43536046683</v>
+        <v>-4.229949723821846e-16</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>6.661338147750939e-17</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>2.4757973449141e-16</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>1.165734175856414e-16</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>4.529709940470639e-16</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>-37868.22563173768</v>
+        <v>-2.109423746787793e-17</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>-37523.22377799534</v>
-      </c>
-      <c r="P22" s="8" t="n">
-        <v>-29510.22422857346</v>
+        <v>-2.76445533131664e-16</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>1.620925615952729e-16</v>
       </c>
     </row>
     <row r="23">
@@ -3210,38 +3210,38 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>-6.927791673660977e-16</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>6.311617894994014e-16</v>
+        <v>-223554.5005937509</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>-168311.4741576007</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>-1.323940956865499e-15</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>7.66053886991358e-17</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>2.087219286295294e-16</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>4.163336342344343e-17</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>3.902433931557425e-16</v>
+        <v>-55243.02643615024</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>-5386.647616639702</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-37868.53710798087</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>-37614.1706811117</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>-37888.3783271335</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>-7.93809462606987e-17</v>
+        <v>-37954.63405598301</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>-2.00450767096072e-15</v>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>6.739053759474701e-16</v>
+        <v>-37483.99219799534</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>-29358.1406069068</v>
       </c>
     </row>
     <row r="25">
@@ -3721,34 +3721,34 @@
         </is>
       </c>
       <c r="E38" s="5" t="n">
-        <v>-923616.7378296865</v>
+        <v>-923437.4279615105</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>-811427.2171145669</v>
+        <v>-811351.9505497243</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>-112189.5207151195</v>
+        <v>-112085.4774117862</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>-481462.6410538321</v>
+        <v>-481509.8864504988</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>-76729.56404999923</v>
+        <v>-76638.09831999923</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>-76442.59607959422</v>
+        <v>-76351.61116626087</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>-76645.92202497114</v>
+        <v>-76684.78435830449</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>-76774.07376751286</v>
+        <v>-76801.16451600351</v>
       </c>
       <c r="O38" s="5" t="n">
-        <v>-75849.67516002817</v>
+        <v>-75805.70550002817</v>
       </c>
       <c r="P38" s="5" t="n">
-        <v>-59712.2656937487</v>
+        <v>-59646.17765041537</v>
       </c>
     </row>
     <row r="40">
@@ -3760,34 +3760,34 @@
         </is>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-923616.7378296865</v>
+        <v>-923437.4279615105</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>-811427.2171145669</v>
+        <v>-811351.9505497243</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-923616.7378296865</v>
+        <v>-923437.4279615105</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>-481462.6410538321</v>
+        <v>-481509.8864504988</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-558192.2051038314</v>
+        <v>-558147.984770498</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>-634634.8011834256</v>
+        <v>-634499.5959367589</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>-711280.7232083967</v>
+        <v>-711184.3802950634</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>-788054.7969759095</v>
+        <v>-787985.5448110669</v>
       </c>
       <c r="O40" s="5" t="n">
-        <v>-863904.4721359377</v>
+        <v>-863791.2503110952</v>
       </c>
       <c r="P40" s="5" t="n">
-        <v>-923616.7378296864</v>
+        <v>-923437.4279615105</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL40"/>
+  <dimension ref="A2:ALL65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2590,34 +2590,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-452777.4279615105</v>
+        <v>-1316353.707357273</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-340691.9505497243</v>
+        <v>-981984.5624368386</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-112085.4774117862</v>
+        <v>-334369.1449204349</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-10849.88645049882</v>
+        <v>-30631.21733775555</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-76638.09831999923</v>
+        <v>-221462.1138077701</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>-76351.61116626087</v>
+        <v>-221675.6853162202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>-76684.78435830449</v>
+        <v>-221693.1807627046</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>-76801.16451600351</v>
+        <v>-222014.5039133175</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>-75805.70550002817</v>
+        <v>-221114.5292807558</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>-59646.17765041537</v>
+        <v>-177762.4769387498</v>
       </c>
     </row>
     <row r="8">
@@ -2664,38 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>-132006.7574284335</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>-99173.02331301413</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>-32833.73411541939</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>-3123.632072519548</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>-22469.2392960488</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>-22131.21202629615</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>-22304.89003359123</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>-22445.05103797408</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>-22114.36024747399</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>-17418.37271452972</v>
+          <t>demand2_op_cost</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2703,7 +2703,7 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
@@ -2746,34 +2746,34 @@
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-91547.7431653174</v>
+        <v>-195132.3665826587</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-69138.45084458655</v>
+        <v>-145592.1594222933</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>-22409.29232073085</v>
+        <v>-49540.20716036543</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-2263.015544120154</v>
+        <v>-4610.334772060078</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-15399.29781193207</v>
+        <v>-32603.42890596604</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>-15482.95865481555</v>
+        <v>-32799.30332740778</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>-15583.48829354226</v>
+        <v>-32969.38014677113</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>-15509.58301800893</v>
+        <v>-32940.98550900447</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>-15369.63195052135</v>
+        <v>-32883.84697526068</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>-11939.76789237708</v>
+        <v>-26325.08694618854</v>
       </c>
     </row>
     <row r="12">
@@ -2781,38 +2781,38 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>7.482903185973555e-16</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>1.17128529097954e-15</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>-4.229949723821846e-16</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>2.4757973449141e-16</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>1.165734175856414e-16</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>4.529709940470639e-16</v>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>-2.109423746787793e-17</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>-2.76445533131664e-16</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>1.620925615952729e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2820,38 +2820,38 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-20.52739726027397</v>
+        <v>-181963.2313890063</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-15.26712328767123</v>
+        <v>-135900.3165397488</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>-5.260273972602739</v>
+        <v>-46062.91484925749</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-4065.466749961623</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-30906.15803841183</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-31100.16595579237</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-30578.56597582466</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-30308.16551464935</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-30567.19004029945</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>-2.794520547945205</v>
+        <v>-24437.51911406705</v>
       </c>
     </row>
     <row r="14">
@@ -2859,7 +2859,7 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
+          <t>net2_sell_electric</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
@@ -2898,38 +2898,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>net2_buy_thermal</t>
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>-9487.752750000003</v>
+        <v>-111695.6867609739</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>-7056.456750000003</v>
+        <v>-83407.25030459232</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>-2431.296000000001</v>
+        <v>-28288.43645638153</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>-218.4367500000001</v>
+        <v>-2603.270269699128</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-1595.538000000001</v>
+        <v>-18809.73280577987</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>-1595.538000000001</v>
+        <v>-18839.88543584926</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>-1595.538000000001</v>
+        <v>-18840.36173914532</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>-1595.538000000001</v>
+        <v>-18825.55625508133</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-18732.38034468219</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>-1291.626</v>
+        <v>-15044.49991073676</v>
       </c>
     </row>
     <row r="16">
@@ -2937,38 +2937,38 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
+          <t>net2_buy_electric</t>
         </is>
       </c>
       <c r="E16" s="8" t="n">
-        <v>-59.87157534246575</v>
+        <v>-160897.7325219892</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>-44.5291095890411</v>
+        <v>-119534.9267172619</v>
       </c>
       <c r="H16" s="8" t="n">
-        <v>-15.34246575342466</v>
+        <v>-41362.8058047273</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>-1.378424657534247</v>
+        <v>-3905.55855993753</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-26891.1023996898</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-26630.4070850232</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-26965.80941557372</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-27474.58097388612</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-26970.21057609808</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>-8.15068493150685</v>
+        <v>-22060.06351178076</v>
       </c>
     </row>
     <row r="17">
@@ -2976,38 +2976,38 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>-72.70119863013697</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>-54.07106164383561</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>-18.63013698630137</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="O17" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="P17" s="8" t="n">
-        <v>-9.8972602739726</v>
+          <t>net2_sell_thermal</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3015,38 +3015,38 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>15592.2746</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>11743.5114</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>3848.763200000001</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>412.8944000000001</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>2674.3491</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>2452.1034</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>2667.3455</v>
-      </c>
-      <c r="N18" s="7" t="n">
-        <v>2683.4768</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>2737.6521</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>1964.4533</v>
+          <t>pv1_op_cost</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>-20.52739726027397</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>-15.26712328767123</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>-5.260273972602739</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>-2.794520547945205</v>
       </c>
     </row>
     <row r="19">
@@ -3054,38 +3054,38 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_op_cost</t>
+          <t>pv2_op_cost</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-77.54794520547944</v>
+        <v>-20.52739726027397</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-57.67579908675798</v>
+        <v>-15.26712328767123</v>
       </c>
       <c r="H19" s="8" t="n">
-        <v>-19.87214611872146</v>
+        <v>-5.260273972602739</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>-1.785388127853881</v>
+        <v>-0.4726027397260274</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>-10.55707762557077</v>
+        <v>-2.794520547945205</v>
       </c>
     </row>
     <row r="20">
@@ -3093,38 +3093,38 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>-256</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O20" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P20" s="8" t="n">
-        <v>-136</v>
+          <t>bat1_op_cost</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3132,38 +3132,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_cost</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>-10543.3005075703</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>-7841.513790915646</v>
-      </c>
-      <c r="H21" s="8" t="n">
-        <v>-2701.786716654651</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>-1435.324193222783</v>
+          <t>bat2_op_cost</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3171,38 +3171,38 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>7.482903185973555e-16</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>1.17128529097954e-15</v>
+          <t>CHP1_op_cost</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>-9487.752750000003</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>-7056.456750000002</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>-4.229949723821846e-16</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>6.661338147750939e-17</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>2.4757973449141e-16</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>1.165734175856414e-16</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>4.529709940470639e-16</v>
+        <v>-2431.296000000001</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>-1595.538</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>-2.109423746787793e-17</v>
+        <v>-1595.538</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>-2.76445533131664e-16</v>
-      </c>
-      <c r="P22" s="7" t="n">
-        <v>1.620925615952729e-16</v>
+        <v>-1595.538</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="23">
@@ -3210,77 +3210,116 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>CHP2_op_cost</t>
         </is>
       </c>
       <c r="E23" s="8" t="n">
-        <v>-223554.5005937509</v>
+        <v>-9487.752750000003</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>-168311.4741576007</v>
+        <v>-7056.456750000002</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>-55243.02643615024</v>
+        <v>-2431.296000000001</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>-5386.647616639702</v>
+        <v>-218.4367500000001</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-37868.53710798087</v>
+        <v>-1595.538</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>-37614.1706811117</v>
+        <v>-1595.538</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>-37888.3783271335</v>
+        <v>-1595.538</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>-37954.63405598301</v>
+        <v>-1595.538</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>-37483.99219799534</v>
+        <v>-1595.538</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>-29358.1406069068</v>
+        <v>-1291.626</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_op_cost</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>-59.87157534246575</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>-44.5291095890411</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>-15.34246575342466</v>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>-8.15068493150685</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>-470660</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>-470660</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>-470660</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9" t="n">
-        <v>0</v>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_op_cost</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>-59.87157534246575</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-44.5291095890411</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>-15.34246575342466</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="M25" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="N25" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="O25" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="P25" s="8" t="n">
+        <v>-8.15068493150685</v>
       </c>
     </row>
     <row r="26">
@@ -3288,38 +3327,38 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7" t="n">
-        <v>0</v>
+          <t>pvt1_op_cost</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>-72.70119863013697</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>-54.07106164383561</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>-18.63013698630137</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="N26" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="P26" s="8" t="n">
+        <v>-9.8972602739726</v>
       </c>
     </row>
     <row r="27">
@@ -3327,38 +3366,38 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7" t="n">
-        <v>0</v>
+          <t>pvt2_op_cost</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>-72.70119863013697</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>-54.07106164383561</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>-18.63013698630137</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="N27" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="P27" s="8" t="n">
+        <v>-9.8972602739726</v>
       </c>
     </row>
     <row r="28">
@@ -3366,38 +3405,38 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>-12000</v>
+          <t>charging_station1_op_cost</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>15668.8664</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>11469.3891</v>
       </c>
       <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>-12000</v>
+        <v>4199.4773</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>466.5414</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>0</v>
+        <v>2552.641500000001</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>0</v>
+        <v>2571.836600000001</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>0</v>
+        <v>2562.5563</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>0</v>
+        <v>2644.5027</v>
       </c>
       <c r="O28" s="7" t="n">
-        <v>0</v>
+        <v>2572.878200000001</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>0</v>
+        <v>2297.909700000001</v>
       </c>
     </row>
     <row r="29">
@@ -3405,38 +3444,38 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>-65000</v>
+          <t>charging_station2_op_cost</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>9876.863500000001</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>7040.381700000002</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>-65000</v>
+        <v>2836.4818</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>250.4732</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>0</v>
+        <v>1556.8354</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>0</v>
+        <v>1642.7481</v>
       </c>
       <c r="M29" s="7" t="n">
-        <v>0</v>
+        <v>1603.2439</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>0</v>
+        <v>1590.3163</v>
       </c>
       <c r="O29" s="7" t="n">
-        <v>0</v>
+        <v>1770.5948</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>0</v>
+        <v>1462.6518</v>
       </c>
     </row>
     <row r="30">
@@ -3444,38 +3483,38 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>CHP1_inv_cost</t>
+          <t>heat_pump1_op_cost</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-34000</v>
+        <v>-77.54794520547944</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>-19.87214611872146</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="K30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7" t="n">
-        <v>0</v>
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N30" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P30" s="8" t="n">
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="31">
@@ -3483,38 +3522,38 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_inv_cost</t>
+          <t>heat_pump2_op_cost</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-35000</v>
+        <v>-77.54794520547944</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H31" s="8" t="n">
+        <v>-19.87214611872146</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="K31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7" t="n">
-        <v>0</v>
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N31" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P31" s="8" t="n">
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="32">
@@ -3522,38 +3561,38 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>pvt1_inv_cost</t>
+          <t>bat_with_aging1_op_cost</t>
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-42500</v>
+        <v>-999</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
+        <v>-743</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v>-256</v>
       </c>
       <c r="J32" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7" t="n">
-        <v>0</v>
+        <v>-23</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M32" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N32" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="33">
@@ -3561,38 +3600,38 @@
       <c r="B33" s="6" t="n"/>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_inv_cost</t>
+          <t>bat_with_aging2_op_cost</t>
         </is>
       </c>
       <c r="E33" s="8" t="n">
-        <v>-200000</v>
+        <v>-999</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
+        <v>-743</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <v>-256</v>
       </c>
       <c r="J33" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="K33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7" t="n">
-        <v>0</v>
+        <v>-23</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L33" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M33" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N33" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O33" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P33" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="34">
@@ -3600,38 +3639,38 @@
       <c r="B34" s="6" t="n"/>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_inv_cost</t>
+          <t>gas_boiler1_op_cost</t>
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>-14660</v>
+        <v>-10543.3005075703</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
+        <v>-7841.513790915646</v>
+      </c>
+      <c r="H34" s="8" t="n">
+        <v>-2701.786716654651</v>
       </c>
       <c r="J34" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7" t="n">
-        <v>0</v>
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="M34" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="N34" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="O34" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="P34" s="8" t="n">
+        <v>-1435.324193222783</v>
       </c>
     </row>
     <row r="35">
@@ -3639,38 +3678,38 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_inv_cost</t>
+          <t>gas_boiler2_op_cost</t>
         </is>
       </c>
       <c r="E35" s="8" t="n">
-        <v>-65000</v>
+        <v>-10543.3005075703</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
+        <v>-7841.513790915646</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <v>-2701.786716654651</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="n">
-        <v>0</v>
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="M35" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="N35" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="O35" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="P35" s="8" t="n">
+        <v>-1435.324193222783</v>
       </c>
     </row>
     <row r="36">
@@ -3678,116 +3717,1052 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
+          <t>total_sell</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>total_buy</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>-649689.0172546281</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>-484434.6529838964</v>
+      </c>
+      <c r="H37" s="8" t="n">
+        <v>-165254.3642707317</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>-15184.63035165836</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-109210.4221498475</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <v>-109369.7618040726</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v>-109354.1172773148</v>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>-109549.2882526213</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>-109153.6279363404</v>
+      </c>
+      <c r="P37" s="8" t="n">
+        <v>-87867.16948277311</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>demand2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>net2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>pv1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="K44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>pv2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>bat1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>bat2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>CHP2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
           <t>gas_boiler1_inv_cost</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n">
+      <c r="E60" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G60" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="H36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8" t="n">
+      <c r="H60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="K36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="K60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="H61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="K61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E38" s="5" t="n">
-        <v>-923437.4279615105</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>-811351.9505497243</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>-112085.4774117862</v>
-      </c>
-      <c r="J38" s="5" t="n">
-        <v>-481509.8864504988</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>-76638.09831999923</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>-76351.61116626087</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>-76684.78435830449</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>-76801.16451600351</v>
-      </c>
-      <c r="O38" s="5" t="n">
-        <v>-75805.70550002817</v>
-      </c>
-      <c r="P38" s="5" t="n">
-        <v>-59646.17765041537</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="E63" s="5" t="n">
+        <v>-2257673.707357273</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>-1923304.562436839</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>-334369.1449204349</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>-971951.2173377556</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>-221462.1138077701</v>
+      </c>
+      <c r="L63" s="5" t="n">
+        <v>-221675.6853162202</v>
+      </c>
+      <c r="M63" s="5" t="n">
+        <v>-221693.1807627046</v>
+      </c>
+      <c r="N63" s="5" t="n">
+        <v>-222014.5039133175</v>
+      </c>
+      <c r="O63" s="5" t="n">
+        <v>-221114.5292807558</v>
+      </c>
+      <c r="P63" s="5" t="n">
+        <v>-177762.4769387498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E40" s="5" t="n">
-        <v>-923437.4279615105</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>-811351.9505497243</v>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>-923437.4279615105</v>
-      </c>
-      <c r="J40" s="5" t="n">
-        <v>-481509.8864504988</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>-558147.984770498</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>-634499.5959367589</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>-711184.3802950634</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>-787985.5448110669</v>
-      </c>
-      <c r="O40" s="5" t="n">
-        <v>-863791.2503110952</v>
-      </c>
-      <c r="P40" s="5" t="n">
-        <v>-923437.4279615105</v>
+      <c r="E65" s="5" t="n">
+        <v>-2257673.707357273</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>-1923304.562436839</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>-2257673.707357273</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>-971951.2173377556</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>-1193413.331145526</v>
+      </c>
+      <c r="L65" s="5" t="n">
+        <v>-1415089.016461746</v>
+      </c>
+      <c r="M65" s="5" t="n">
+        <v>-1636782.197224451</v>
+      </c>
+      <c r="N65" s="5" t="n">
+        <v>-1858796.701137768</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>-2079911.230418524</v>
+      </c>
+      <c r="P65" s="5" t="n">
+        <v>-2257673.707357273</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL65"/>
+  <dimension ref="A2:ALL58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2590,34 +2590,34 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-1316353.707357273</v>
+        <v>-391738.7974713324</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-981984.5624368386</v>
+        <v>-295212.6292877371</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-334369.1449204349</v>
+        <v>-96526.16818359532</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-30631.21733775555</v>
+        <v>-9405.105170829145</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-221462.1138077701</v>
+        <v>-66411.29678975639</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>-221675.6853162202</v>
+        <v>-66164.73119121032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>-221693.1807627046</v>
+        <v>-66275.44720763927</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>-222014.5039133175</v>
+        <v>-66492.97502697771</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>-221114.5292807558</v>
+        <v>-65460.02888349108</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>-177762.4769387498</v>
+        <v>-51529.21320142846</v>
       </c>
     </row>
     <row r="8">
@@ -2664,38 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>demand2_op_cost</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>0</v>
+          <t>net1_buy_thermal</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>-52187.43130013112</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>-39840.62033435771</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>-12346.8109657734</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>-1383.80341658637</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>-8811.427049302212</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>-8839.851582974909</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>-8932.588083246232</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>-8851.254161191133</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>-8699.609185821799</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>-6668.897821008459</v>
       </c>
     </row>
     <row r="10">
@@ -2703,7 +2703,7 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
@@ -2742,38 +2742,38 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>-195132.3665826587</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>-145592.1594222933</v>
+          <t>net1_sell_thermal</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1.232347557333929e-16</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>2.017275235743909e-15</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>-49540.20716036543</v>
+        <v>-1.894040480010517e-15</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-4610.334772060078</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>-32603.42890596604</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>-32799.30332740778</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>-32969.38014677113</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>-32940.98550900447</v>
-      </c>
-      <c r="O11" s="8" t="n">
-        <v>-32883.84697526068</v>
+        <v>-3.441691376337988e-17</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>8.842926391139374e-16</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>1.120770143359096e-15</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>4.996003610813197e-17</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>1.676436767183984e-16</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>9.503509090791344e-16</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>-26325.08694618854</v>
+        <v>-3.015365734881925e-15</v>
       </c>
     </row>
     <row r="12">
@@ -2781,38 +2781,38 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0</v>
+          <t>net1_buy_electric</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>-135682.3207347737</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>-101799.7081079793</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>-33882.61262679446</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>-3148.564775292994</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>-23030.37623364377</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>-22882.45996624984</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>-22788.09257201804</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>-23074.31094410212</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>-22740.26647589655</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>-18018.24976757041</v>
       </c>
     </row>
     <row r="13">
@@ -2820,38 +2820,38 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
+          <t>pv1_op_cost</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-181963.2313890063</v>
+        <v>-20.52739726027397</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-135900.3165397488</v>
+        <v>-15.26712328767123</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>-46062.91484925749</v>
+        <v>-5.260273972602739</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-4065.466749961623</v>
+        <v>-0.4726027397260274</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-30906.15803841183</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>-31100.16595579237</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>-30578.56597582466</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>-30308.16551464935</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>-30567.19004029945</v>
+        <v>-3.452054794520548</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>-24437.51911406705</v>
+        <v>-2.794520547945205</v>
       </c>
     </row>
     <row r="14">
@@ -2859,38 +2859,38 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_electric</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>0</v>
+          <t>pv2_op_cost</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>-20.52739726027397</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>-15.26712328767123</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>-5.260273972602739</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>-2.794520547945205</v>
       </c>
     </row>
     <row r="15">
@@ -2898,38 +2898,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_thermal</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>-111695.6867609739</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>-83407.25030459232</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>-28288.43645638153</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>-2603.270269699128</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-18809.73280577987</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>-18839.88543584926</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v>-18840.36173914532</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>-18825.55625508133</v>
-      </c>
-      <c r="O15" s="8" t="n">
-        <v>-18732.38034468219</v>
-      </c>
-      <c r="P15" s="8" t="n">
-        <v>-15044.49991073676</v>
+          <t>bat1_op_cost</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2937,38 +2937,38 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_electric</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>-160897.7325219892</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>-119534.9267172619</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>-41362.8058047273</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>-3905.55855993753</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-26891.1023996898</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>-26630.4070850232</v>
-      </c>
-      <c r="M16" s="8" t="n">
-        <v>-26965.80941557372</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>-27474.58097388612</v>
-      </c>
-      <c r="O16" s="8" t="n">
-        <v>-26970.21057609808</v>
-      </c>
-      <c r="P16" s="8" t="n">
-        <v>-22060.06351178076</v>
+          <t>bat2_op_cost</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2976,38 +2976,38 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_thermal</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>0</v>
+          <t>CHP1_op_cost</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>-9487.752750000003</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>-7056.456750000002</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>-2431.296000000001</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="18">
@@ -3015,38 +3015,38 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>CHP2_op_cost</t>
         </is>
       </c>
       <c r="E18" s="8" t="n">
-        <v>-20.52739726027397</v>
+        <v>-9487.752750000003</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>-15.26712328767123</v>
+        <v>-7056.456750000002</v>
       </c>
       <c r="H18" s="8" t="n">
-        <v>-5.260273972602739</v>
+        <v>-2431.296000000001</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-218.4367500000001</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-1595.538</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-1595.538</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-1595.538</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-1595.538</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-1595.538</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>-2.794520547945205</v>
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="19">
@@ -3054,38 +3054,38 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
+          <t>solar_th1_op_cost</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-20.52739726027397</v>
+        <v>-59.87157534246575</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-15.26712328767123</v>
+        <v>-44.5291095890411</v>
       </c>
       <c r="H19" s="8" t="n">
-        <v>-5.260273972602739</v>
+        <v>-15.34246575342466</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-1.378424657534247</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-10.06849315068493</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>-2.794520547945205</v>
+        <v>-8.15068493150685</v>
       </c>
     </row>
     <row r="20">
@@ -3093,38 +3093,38 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>0</v>
+          <t>solar_th2_op_cost</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>-59.87157534246575</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>-44.5291095890411</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>-15.34246575342466</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>-8.15068493150685</v>
       </c>
     </row>
     <row r="21">
@@ -3132,38 +3132,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_cost</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>0</v>
+          <t>pvt1_op_cost</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>-72.70119863013697</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>-54.07106164383561</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>-18.63013698630137</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>-9.8972602739726</v>
       </c>
     </row>
     <row r="22">
@@ -3171,38 +3171,38 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>pvt2_op_cost</t>
         </is>
       </c>
       <c r="E22" s="8" t="n">
-        <v>-9487.752750000003</v>
+        <v>-72.70119863013697</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>-7056.456750000002</v>
+        <v>-54.07106164383561</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>-2431.296000000001</v>
+        <v>-18.63013698630137</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>-218.4367500000001</v>
+        <v>-1.673801369863013</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-12.22602739726027</v>
       </c>
       <c r="L22" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-12.22602739726027</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-12.22602739726027</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-12.22602739726027</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-12.22602739726027</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>-1291.626</v>
+        <v>-9.8972602739726</v>
       </c>
     </row>
     <row r="23">
@@ -3210,38 +3210,38 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>-9487.752750000003</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>-7056.456750000002</v>
-      </c>
-      <c r="H23" s="8" t="n">
-        <v>-2431.296000000001</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="M23" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="O23" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="P23" s="8" t="n">
-        <v>-1291.626</v>
+          <t>charging_station1_op_cost</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>15657.7066</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>11512.5474</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>4145.159200000001</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>321.8542</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>2647.838700000001</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>2639.658100000001</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>2543.625</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>2614.845400000001</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>2667.907400000001</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>2221.977800000001</v>
       </c>
     </row>
     <row r="24">
@@ -3249,38 +3249,38 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>-59.87157534246575</v>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>-44.5291095890411</v>
-      </c>
-      <c r="H24" s="8" t="n">
-        <v>-15.34246575342466</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="M24" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="N24" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="O24" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="P24" s="8" t="n">
-        <v>-8.15068493150685</v>
+          <t>charging_station2_op_cost</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>9811.298500000003</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>7398.128700000001</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>2413.169800000001</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>288.8573000000001</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>1600.3014</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>1616.2056</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>1598.3288</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>1719.3111</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>1727.6835</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>1260.6108</v>
       </c>
     </row>
     <row r="25">
@@ -3288,38 +3288,38 @@
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_op_cost</t>
+          <t>heat_pump1_op_cost</t>
         </is>
       </c>
       <c r="E25" s="8" t="n">
-        <v>-59.87157534246575</v>
+        <v>-77.54794520547944</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>-44.5291095890411</v>
+        <v>-57.67579908675798</v>
       </c>
       <c r="H25" s="8" t="n">
-        <v>-15.34246575342466</v>
+        <v>-19.87214611872146</v>
       </c>
       <c r="J25" s="8" t="n">
-        <v>-1.378424657534247</v>
+        <v>-1.785388127853881</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="L25" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="M25" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="N25" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="O25" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="P25" s="8" t="n">
-        <v>-8.15068493150685</v>
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="26">
@@ -3327,38 +3327,38 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>heat_pump2_op_cost</t>
         </is>
       </c>
       <c r="E26" s="8" t="n">
-        <v>-72.70119863013697</v>
+        <v>-77.54794520547944</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>-54.07106164383561</v>
+        <v>-57.67579908675798</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>-18.63013698630137</v>
+        <v>-19.87214611872146</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>-1.673801369863013</v>
+        <v>-1.785388127853881</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="L26" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="M26" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="N26" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="O26" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-13.04109589041096</v>
       </c>
       <c r="P26" s="8" t="n">
-        <v>-9.8972602739726</v>
+        <v>-10.55707762557077</v>
       </c>
     </row>
     <row r="27">
@@ -3366,38 +3366,38 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>pvt2_op_cost</t>
+          <t>bat_with_aging1_op_cost</t>
         </is>
       </c>
       <c r="E27" s="8" t="n">
-        <v>-72.70119863013697</v>
+        <v>-999</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>-54.07106164383561</v>
+        <v>-743</v>
       </c>
       <c r="H27" s="8" t="n">
-        <v>-18.63013698630137</v>
+        <v>-256</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>-1.673801369863013</v>
+        <v>-23</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-168</v>
       </c>
       <c r="L27" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-168</v>
       </c>
       <c r="M27" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-168</v>
       </c>
       <c r="N27" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-168</v>
       </c>
       <c r="O27" s="8" t="n">
-        <v>-12.22602739726027</v>
+        <v>-168</v>
       </c>
       <c r="P27" s="8" t="n">
-        <v>-9.8972602739726</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="28">
@@ -3405,38 +3405,38 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>15668.8664</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>11469.3891</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>4199.4773</v>
-      </c>
-      <c r="J28" s="7" t="n">
-        <v>466.5414</v>
-      </c>
-      <c r="K28" s="7" t="n">
-        <v>2552.641500000001</v>
-      </c>
-      <c r="L28" s="7" t="n">
-        <v>2571.836600000001</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>2562.5563</v>
-      </c>
-      <c r="N28" s="7" t="n">
-        <v>2644.5027</v>
-      </c>
-      <c r="O28" s="7" t="n">
-        <v>2572.878200000001</v>
-      </c>
-      <c r="P28" s="7" t="n">
-        <v>2297.909700000001</v>
+          <t>bat_with_aging2_op_cost</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>-999</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>-743</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P28" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="29">
@@ -3444,38 +3444,38 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_op_cost</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="n">
-        <v>9876.863500000001</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <v>7040.381700000002</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <v>2836.4818</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <v>250.4732</v>
-      </c>
-      <c r="K29" s="7" t="n">
-        <v>1556.8354</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <v>1642.7481</v>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v>1603.2439</v>
-      </c>
-      <c r="N29" s="7" t="n">
-        <v>1590.3163</v>
-      </c>
-      <c r="O29" s="7" t="n">
-        <v>1770.5948</v>
-      </c>
-      <c r="P29" s="7" t="n">
-        <v>1462.6518</v>
+          <t>gas_boiler1_op_cost</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>-10017.09780909636</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>-7450.566257164021</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>-2566.531551932336</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>-228.7931766402295</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-1685.589490699344</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>-1685.730959595717</v>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v>-1685.798863945651</v>
+      </c>
+      <c r="N29" s="8" t="n">
+        <v>-1685.760483226124</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <v>-1685.589490699344</v>
+      </c>
+      <c r="P29" s="8" t="n">
+        <v>-1359.835344289947</v>
       </c>
     </row>
     <row r="30">
@@ -3483,38 +3483,38 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_op_cost</t>
+          <t>gas_boiler2_op_cost</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-77.54794520547944</v>
+        <v>-10016.39895954968</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-57.67579908675798</v>
+        <v>-7450.082558684515</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>-19.87214611872146</v>
+        <v>-2566.316400865168</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>-1.785388127853881</v>
+        <v>-228.7931766402298</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-1685.589490699344</v>
       </c>
       <c r="L30" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-1685.589490699344</v>
       </c>
       <c r="M30" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-1685.589490699344</v>
       </c>
       <c r="N30" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-1685.589490699344</v>
       </c>
       <c r="O30" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-1685.627626889297</v>
       </c>
       <c r="P30" s="8" t="n">
-        <v>-10.55707762557077</v>
+        <v>-1359.620193222778</v>
       </c>
     </row>
     <row r="31">
@@ -3522,38 +3522,38 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_op_cost</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-77.54794520547944</v>
+        <v>-187869.7520349048</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-57.67579908675798</v>
+        <v>-141640.328442337</v>
       </c>
       <c r="H31" s="8" t="n">
-        <v>-19.87214611872146</v>
+        <v>-46229.42359256785</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>-1.785388127853881</v>
+        <v>-4532.368191879365</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-31841.80328294598</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-31722.31154922476</v>
       </c>
       <c r="M31" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-31720.68065526427</v>
       </c>
       <c r="N31" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-31925.56510529326</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>-13.04109589041096</v>
+        <v>-31439.87566171834</v>
       </c>
       <c r="P31" s="8" t="n">
-        <v>-10.55707762557077</v>
+        <v>-24687.14758857887</v>
       </c>
     </row>
     <row r="32">
@@ -3561,116 +3561,77 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>-743</v>
+          <t>total_sell</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>1.232347557333929e-16</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>2.017275235743909e-15</v>
       </c>
       <c r="H32" s="8" t="n">
-        <v>-256</v>
+        <v>-1.894040480010517e-15</v>
       </c>
       <c r="J32" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L32" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M32" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N32" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O32" s="8" t="n">
-        <v>-168</v>
+        <v>-3.441691376337988e-17</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <v>8.842926391139374e-16</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <v>1.120770143359096e-15</v>
+      </c>
+      <c r="M32" s="7" t="n">
+        <v>4.996003610813197e-17</v>
+      </c>
+      <c r="N32" s="7" t="n">
+        <v>1.676436767183984e-16</v>
+      </c>
+      <c r="O32" s="7" t="n">
+        <v>9.503509090791344e-16</v>
       </c>
       <c r="P32" s="8" t="n">
-        <v>-136</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_op_cost</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H33" s="8" t="n">
-        <v>-256</v>
-      </c>
-      <c r="J33" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L33" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M33" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N33" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O33" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P33" s="8" t="n">
-        <v>-136</v>
+        <v>-3.015365734881925e-15</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_op_cost</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="n">
-        <v>-10543.3005075703</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>-7841.513790915646</v>
-      </c>
-      <c r="H34" s="8" t="n">
-        <v>-2701.786716654651</v>
-      </c>
-      <c r="J34" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="L34" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="M34" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="N34" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="O34" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="P34" s="8" t="n">
-        <v>-1435.324193222783</v>
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3678,38 +3639,38 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler2_op_cost</t>
-        </is>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>-10543.3005075703</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>-7841.513790915646</v>
-      </c>
-      <c r="H35" s="8" t="n">
-        <v>-2701.786716654651</v>
-      </c>
-      <c r="J35" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="L35" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="M35" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="N35" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="O35" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="P35" s="8" t="n">
-        <v>-1435.324193222783</v>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3717,7 +3678,7 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
+          <t>net1_inv_cost</t>
         </is>
       </c>
       <c r="E36" s="7" t="n">
@@ -3756,76 +3717,115 @@
       <c r="B37" s="6" t="n"/>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>pv1_inv_cost</t>
         </is>
       </c>
       <c r="E37" s="8" t="n">
-        <v>-649689.0172546281</v>
+        <v>-12000</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>-484434.6529838964</v>
-      </c>
-      <c r="H37" s="8" t="n">
-        <v>-165254.3642707317</v>
+        <v>-12000</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J37" s="8" t="n">
-        <v>-15184.63035165836</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>-109210.4221498475</v>
-      </c>
-      <c r="L37" s="8" t="n">
-        <v>-109369.7618040726</v>
-      </c>
-      <c r="M37" s="8" t="n">
-        <v>-109354.1172773148</v>
-      </c>
-      <c r="N37" s="8" t="n">
-        <v>-109549.2882526213</v>
-      </c>
-      <c r="O37" s="8" t="n">
-        <v>-109153.6279363404</v>
-      </c>
-      <c r="P37" s="8" t="n">
-        <v>-87867.16948277311</v>
+        <v>-12000</v>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>pv2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="9" t="n">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>bat1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3834,20 +3834,20 @@
       <c r="B40" s="6" t="n"/>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7" t="n">
-        <v>0</v>
+          <t>bat2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>-65000</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="7" t="n">
-        <v>0</v>
+      <c r="J40" s="8" t="n">
+        <v>-65000</v>
       </c>
       <c r="K40" s="7" t="n">
         <v>0</v>
@@ -3873,20 +3873,20 @@
       <c r="B41" s="6" t="n"/>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>demand2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>0</v>
+          <t>CHP1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>-34000</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="7" t="n">
-        <v>0</v>
+      <c r="J41" s="8" t="n">
+        <v>-34000</v>
       </c>
       <c r="K41" s="7" t="n">
         <v>0</v>
@@ -3912,20 +3912,20 @@
       <c r="B42" s="6" t="n"/>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7" t="n">
-        <v>0</v>
+          <t>CHP2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>-34000</v>
       </c>
       <c r="H42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="7" t="n">
-        <v>0</v>
+      <c r="J42" s="8" t="n">
+        <v>-34000</v>
       </c>
       <c r="K42" s="7" t="n">
         <v>0</v>
@@ -3951,20 +3951,20 @@
       <c r="B43" s="6" t="n"/>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>net2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7" t="n">
-        <v>0</v>
+          <t>solar_th1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>-35000</v>
       </c>
       <c r="H43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="7" t="n">
-        <v>0</v>
+      <c r="J43" s="8" t="n">
+        <v>-35000</v>
       </c>
       <c r="K43" s="7" t="n">
         <v>0</v>
@@ -3990,20 +3990,20 @@
       <c r="B44" s="6" t="n"/>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
+          <t>solar_th2_inv_cost</t>
         </is>
       </c>
       <c r="E44" s="8" t="n">
-        <v>-12000</v>
+        <v>-35000</v>
       </c>
       <c r="G44" s="8" t="n">
-        <v>-12000</v>
+        <v>-35000</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J44" s="8" t="n">
-        <v>-12000</v>
+        <v>-35000</v>
       </c>
       <c r="K44" s="7" t="n">
         <v>0</v>
@@ -4029,20 +4029,20 @@
       <c r="B45" s="6" t="n"/>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>pv2_inv_cost</t>
+          <t>pvt1_inv_cost</t>
         </is>
       </c>
       <c r="E45" s="8" t="n">
-        <v>-12000</v>
+        <v>-42500</v>
       </c>
       <c r="G45" s="8" t="n">
-        <v>-12000</v>
+        <v>-42500</v>
       </c>
       <c r="H45" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J45" s="8" t="n">
-        <v>-12000</v>
+        <v>-42500</v>
       </c>
       <c r="K45" s="7" t="n">
         <v>0</v>
@@ -4068,20 +4068,20 @@
       <c r="B46" s="6" t="n"/>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_cost</t>
+          <t>pvt2_inv_cost</t>
         </is>
       </c>
       <c r="E46" s="8" t="n">
-        <v>-65000</v>
+        <v>-42500</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>-65000</v>
+        <v>-42500</v>
       </c>
       <c r="H46" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="8" t="n">
-        <v>-65000</v>
+        <v>-42500</v>
       </c>
       <c r="K46" s="7" t="n">
         <v>0</v>
@@ -4107,20 +4107,20 @@
       <c r="B47" s="6" t="n"/>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>bat2_inv_cost</t>
+          <t>charging_station1_inv_cost</t>
         </is>
       </c>
       <c r="E47" s="8" t="n">
-        <v>-65000</v>
+        <v>-200000</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>-65000</v>
+        <v>-200000</v>
       </c>
       <c r="H47" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="8" t="n">
-        <v>-65000</v>
+        <v>-200000</v>
       </c>
       <c r="K47" s="7" t="n">
         <v>0</v>
@@ -4146,20 +4146,20 @@
       <c r="B48" s="6" t="n"/>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>CHP1_inv_cost</t>
+          <t>charging_station2_inv_cost</t>
         </is>
       </c>
       <c r="E48" s="8" t="n">
-        <v>-34000</v>
+        <v>-200000</v>
       </c>
       <c r="G48" s="8" t="n">
-        <v>-34000</v>
+        <v>-200000</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="8" t="n">
-        <v>-34000</v>
+        <v>-200000</v>
       </c>
       <c r="K48" s="7" t="n">
         <v>0</v>
@@ -4185,20 +4185,20 @@
       <c r="B49" s="6" t="n"/>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>CHP2_inv_cost</t>
+          <t>heat_pump1_inv_cost</t>
         </is>
       </c>
       <c r="E49" s="8" t="n">
-        <v>-34000</v>
+        <v>-14660</v>
       </c>
       <c r="G49" s="8" t="n">
-        <v>-34000</v>
+        <v>-14660</v>
       </c>
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="8" t="n">
-        <v>-34000</v>
+        <v>-14660</v>
       </c>
       <c r="K49" s="7" t="n">
         <v>0</v>
@@ -4224,20 +4224,20 @@
       <c r="B50" s="6" t="n"/>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_inv_cost</t>
+          <t>heat_pump2_inv_cost</t>
         </is>
       </c>
       <c r="E50" s="8" t="n">
-        <v>-35000</v>
+        <v>-14660</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>-35000</v>
+        <v>-14660</v>
       </c>
       <c r="H50" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J50" s="8" t="n">
-        <v>-35000</v>
+        <v>-14660</v>
       </c>
       <c r="K50" s="7" t="n">
         <v>0</v>
@@ -4263,20 +4263,20 @@
       <c r="B51" s="6" t="n"/>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_inv_cost</t>
+          <t>bat_with_aging1_inv_cost</t>
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>-35000</v>
+        <v>-65000</v>
       </c>
       <c r="G51" s="8" t="n">
-        <v>-35000</v>
+        <v>-65000</v>
       </c>
       <c r="H51" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>-35000</v>
+        <v>-65000</v>
       </c>
       <c r="K51" s="7" t="n">
         <v>0</v>
@@ -4302,20 +4302,20 @@
       <c r="B52" s="6" t="n"/>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>pvt1_inv_cost</t>
+          <t>bat_with_aging2_inv_cost</t>
         </is>
       </c>
       <c r="E52" s="8" t="n">
-        <v>-42500</v>
+        <v>-65000</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>-42500</v>
+        <v>-65000</v>
       </c>
       <c r="H52" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J52" s="8" t="n">
-        <v>-42500</v>
+        <v>-65000</v>
       </c>
       <c r="K52" s="7" t="n">
         <v>0</v>
@@ -4341,20 +4341,20 @@
       <c r="B53" s="6" t="n"/>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>pvt2_inv_cost</t>
+          <t>gas_boiler1_inv_cost</t>
         </is>
       </c>
       <c r="E53" s="8" t="n">
-        <v>-42500</v>
+        <v>-2500</v>
       </c>
       <c r="G53" s="8" t="n">
-        <v>-42500</v>
+        <v>-2500</v>
       </c>
       <c r="H53" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J53" s="8" t="n">
-        <v>-42500</v>
+        <v>-2500</v>
       </c>
       <c r="K53" s="7" t="n">
         <v>0</v>
@@ -4380,20 +4380,20 @@
       <c r="B54" s="6" t="n"/>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_inv_cost</t>
+          <t>gas_boiler2_inv_cost</t>
         </is>
       </c>
       <c r="E54" s="8" t="n">
-        <v>-200000</v>
+        <v>-2500</v>
       </c>
       <c r="G54" s="8" t="n">
-        <v>-200000</v>
+        <v>-2500</v>
       </c>
       <c r="H54" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J54" s="8" t="n">
-        <v>-200000</v>
+        <v>-2500</v>
       </c>
       <c r="K54" s="7" t="n">
         <v>0</v>
@@ -4414,355 +4414,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="H55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="K55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E56" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G56" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E57" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G57" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="7" t="n">
-        <v>0</v>
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>3 - Result</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>-1333058.797471332</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>-1236532.629287737</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>-96526.16818359532</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>-950725.1051708291</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>-66411.29678975639</v>
+      </c>
+      <c r="L56" s="5" t="n">
+        <v>-66164.73119121032</v>
+      </c>
+      <c r="M56" s="5" t="n">
+        <v>-66275.44720763927</v>
+      </c>
+      <c r="N56" s="5" t="n">
+        <v>-66492.97502697771</v>
+      </c>
+      <c r="O56" s="5" t="n">
+        <v>-65460.02888349108</v>
+      </c>
+      <c r="P56" s="5" t="n">
+        <v>-51529.21320142846</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
-      <c r="C58" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E58" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G58" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G59" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G60" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="H60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="K60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G61" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="H61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="K61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="n"/>
-      <c r="B63" s="4" t="n"/>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>3 - Result</t>
-        </is>
-      </c>
-      <c r="E63" s="5" t="n">
-        <v>-2257673.707357273</v>
-      </c>
-      <c r="G63" s="5" t="n">
-        <v>-1923304.562436839</v>
-      </c>
-      <c r="H63" s="5" t="n">
-        <v>-334369.1449204349</v>
-      </c>
-      <c r="J63" s="5" t="n">
-        <v>-971951.2173377556</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>-221462.1138077701</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>-221675.6853162202</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>-221693.1807627046</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>-222014.5039133175</v>
-      </c>
-      <c r="O63" s="5" t="n">
-        <v>-221114.5292807558</v>
-      </c>
-      <c r="P63" s="5" t="n">
-        <v>-177762.4769387498</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="n"/>
-      <c r="B65" s="4" t="n"/>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E65" s="5" t="n">
-        <v>-2257673.707357273</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <v>-1923304.562436839</v>
-      </c>
-      <c r="H65" s="5" t="n">
-        <v>-2257673.707357273</v>
-      </c>
-      <c r="J65" s="5" t="n">
-        <v>-971951.2173377556</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>-1193413.331145526</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>-1415089.016461746</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>-1636782.197224451</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>-1858796.701137768</v>
-      </c>
-      <c r="O65" s="5" t="n">
-        <v>-2079911.230418524</v>
-      </c>
-      <c r="P65" s="5" t="n">
-        <v>-2257673.707357273</v>
+      <c r="E58" s="5" t="n">
+        <v>-1333058.797471332</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>-1236532.629287737</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>-1333058.797471332</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <v>-950725.1051708291</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>-1017136.401960585</v>
+      </c>
+      <c r="L58" s="5" t="n">
+        <v>-1083301.133151796</v>
+      </c>
+      <c r="M58" s="5" t="n">
+        <v>-1149576.580359435</v>
+      </c>
+      <c r="N58" s="5" t="n">
+        <v>-1216069.555386413</v>
+      </c>
+      <c r="O58" s="5" t="n">
+        <v>-1281529.584269904</v>
+      </c>
+      <c r="P58" s="5" t="n">
+        <v>-1333058.797471332</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL58"/>
+  <dimension ref="A2:ALL40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -508,14 +508,9 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2539,44 +2534,14 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>2023-11</t>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 39</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>2023 - wk 39</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
           <t>2023 - wk 40</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 41</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 42</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 43</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 44</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>2023 - wk 45</t>
         </is>
       </c>
     </row>
@@ -2590,34 +2555,16 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-391738.7974713324</v>
+        <v>-46099.04662815423</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-295212.6292877371</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>-96526.16818359532</v>
+        <v>-46099.04662815423</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-10839.57198383216</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-9405.105170829145</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>-66411.29678975639</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>-66164.73119121032</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>-66275.44720763927</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>-66492.97502697771</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>-65460.02888349108</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>-51529.21320142846</v>
+        <v>-35259.47464432208</v>
       </c>
     </row>
     <row r="8">
@@ -2634,28 +2581,10 @@
       <c r="G8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="I8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,38 +2593,20 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E9" s="8" t="n">
-        <v>-52187.43130013112</v>
+        <v>-13323.41384049809</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>-39840.62033435771</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>-12346.8109657734</v>
+        <v>-13323.41384049809</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>-3120.443189186215</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>-1383.80341658637</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>-8811.427049302212</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>-8839.851582974909</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>-8932.588083246232</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>-8851.254161191133</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>-8699.609185821799</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>-6668.897821008459</v>
+        <v>-10202.97065131188</v>
       </c>
     </row>
     <row r="10">
@@ -2703,38 +2614,20 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0</v>
+        <v>2.481348460037224e-16</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
+        <v>2.481348460037224e-16</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>7.66053886991358e-17</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>0</v>
+        <v>1.715294573045867e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2742,38 +2635,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>1.232347557333929e-16</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>2.017275235743909e-15</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>-1.894040480010517e-15</v>
+          <t>net1_buy_thermal</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>-9431.460347389404</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>-9431.460347389404</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>-2263.015544120154</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-3.441691376337988e-17</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>8.842926391139374e-16</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>1.120770143359096e-15</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>4.996003610813197e-17</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>1.676436767183984e-16</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>9.503509090791344e-16</v>
-      </c>
-      <c r="P11" s="8" t="n">
-        <v>-3.015365734881925e-15</v>
+        <v>-7168.44480326925</v>
       </c>
     </row>
     <row r="12">
@@ -2781,38 +2656,20 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>-135682.3207347737</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>-101799.7081079793</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>-33882.61262679446</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>-3148.564775292994</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>-23030.37623364377</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>-22882.45996624984</v>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v>-22788.09257201804</v>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>-23074.31094410212</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>-22740.26647589655</v>
-      </c>
-      <c r="P12" s="8" t="n">
-        <v>-18018.24976757041</v>
+          <t>net1_sell_electric</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2824,34 +2681,16 @@
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-20.52739726027397</v>
+        <v>-2.034246575342466</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-15.26712328767123</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>-5.260273972602739</v>
+        <v>-2.034246575342466</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>-0.4726027397260274</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-0.4726027397260274</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="M13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="N13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="O13" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="P13" s="8" t="n">
-        <v>-2.794520547945205</v>
+        <v>-1.561643835616438</v>
       </c>
     </row>
     <row r="14">
@@ -2859,38 +2698,20 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>-20.52739726027397</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>-15.26712328767123</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>-5.260273972602739</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>-0.4726027397260274</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="L14" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="M14" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="N14" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="O14" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="P14" s="8" t="n">
-        <v>-2.794520547945205</v>
+          <t>bat1_op_cost</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2898,38 +2719,20 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="n">
-        <v>0</v>
+          <t>CHP1_op_cost</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>-940.2277500000004</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>-940.2277500000004</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>-721.7910000000003</v>
       </c>
     </row>
     <row r="16">
@@ -2937,38 +2740,20 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_cost</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>0</v>
+          <t>solar_th1_op_cost</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>-5.933219178082192</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>-5.933219178082192</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>-4.554794520547945</v>
       </c>
     </row>
     <row r="17">
@@ -2976,38 +2761,20 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
+          <t>pvt1_op_cost</t>
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>-9487.752750000003</v>
+        <v>-7.204623287671232</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>-7056.456750000002</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>-2431.296000000001</v>
+        <v>-7.204623287671232</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>-1.673801369863013</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="O17" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="P17" s="8" t="n">
-        <v>-1291.626</v>
+        <v>-5.530821917808218</v>
       </c>
     </row>
     <row r="18">
@@ -3015,38 +2782,20 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>-9487.752750000003</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>-7056.456750000002</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>-2431.296000000001</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="N18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="O18" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="P18" s="8" t="n">
-        <v>-1291.626</v>
+          <t>charging_station1_op_cost</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>1517.6181</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>1517.6181</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>416.8311</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>1100.787</v>
       </c>
     </row>
     <row r="19">
@@ -3054,38 +2803,20 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
+          <t>heat_pump1_op_cost</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-59.87157534246575</v>
+        <v>-7.684931506849313</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-44.5291095890411</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>-15.34246575342466</v>
+        <v>-7.684931506849313</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>-1.785388127853881</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="L19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="M19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="N19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="O19" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="P19" s="8" t="n">
-        <v>-8.15068493150685</v>
+        <v>-5.899543378995433</v>
       </c>
     </row>
     <row r="20">
@@ -3093,38 +2824,20 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_op_cost</t>
+          <t>bat_with_aging1_op_cost</t>
         </is>
       </c>
       <c r="E20" s="8" t="n">
-        <v>-59.87157534246575</v>
+        <v>-99</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>-44.5291095890411</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>-15.34246575342466</v>
+        <v>-99</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>-23</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="O20" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="P20" s="8" t="n">
-        <v>-8.15068493150685</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="21">
@@ -3132,38 +2845,20 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>gas_boiler1_op_cost</t>
         </is>
       </c>
       <c r="E21" s="8" t="n">
-        <v>-72.70119863013697</v>
+        <v>-1044.831581831291</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>-54.07106164383561</v>
-      </c>
-      <c r="H21" s="8" t="n">
-        <v>-18.63013698630137</v>
+        <v>-1044.831581831291</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>-242.7386503244413</v>
       </c>
       <c r="J21" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>-9.8972602739726</v>
+        <v>-802.0929315068495</v>
       </c>
     </row>
     <row r="22">
@@ -3171,38 +2866,20 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>pvt2_op_cost</t>
+          <t>total_buy</t>
         </is>
       </c>
       <c r="E22" s="8" t="n">
-        <v>-72.70119863013697</v>
+        <v>-22754.8741878875</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>-54.07106164383561</v>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v>-18.63013698630137</v>
+        <v>-22754.8741878875</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>-5383.458733306369</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="M22" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="N22" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="O22" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="P22" s="8" t="n">
-        <v>-9.8972602739726</v>
+        <v>-17371.41545458113</v>
       </c>
     </row>
     <row r="23">
@@ -3210,116 +2887,41 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
+          <t>total_sell</t>
         </is>
       </c>
       <c r="E23" s="7" t="n">
-        <v>15657.7066</v>
+        <v>2.481348460037224e-16</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>11512.5474</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>4145.159200000001</v>
+        <v>2.481348460037224e-16</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>7.66053886991358e-17</v>
       </c>
       <c r="J23" s="7" t="n">
-        <v>321.8542</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>2647.838700000001</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>2639.658100000001</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>2543.625</v>
-      </c>
-      <c r="N23" s="7" t="n">
-        <v>2614.845400000001</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>2667.907400000001</v>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>2221.977800000001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_op_cost</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>9811.298500000003</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>7398.128700000001</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>2413.169800000001</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v>288.8573000000001</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>1600.3014</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>1616.2056</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <v>1598.3288</v>
-      </c>
-      <c r="N24" s="7" t="n">
-        <v>1719.3111</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>1727.6835</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>1260.6108</v>
+        <v>1.715294573045867e-16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_cost</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>-77.54794520547944</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>-57.67579908675798</v>
-      </c>
-      <c r="H25" s="8" t="n">
-        <v>-19.87214611872146</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="M25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="P25" s="8" t="n">
-        <v>-10.55707762557077</v>
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>-470660</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>-470660</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>-470660</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3327,38 +2929,20 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_op_cost</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>-77.54794520547944</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>-57.67579908675798</v>
-      </c>
-      <c r="H26" s="8" t="n">
-        <v>-19.87214611872146</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="L26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="M26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="N26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="O26" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="P26" s="8" t="n">
-        <v>-10.55707762557077</v>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3366,38 +2950,20 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>-999</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H27" s="8" t="n">
-        <v>-256</v>
-      </c>
-      <c r="J27" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P27" s="8" t="n">
-        <v>-136</v>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3405,38 +2971,20 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_op_cost</t>
+          <t>pv1_inv_cost</t>
         </is>
       </c>
       <c r="E28" s="8" t="n">
-        <v>-999</v>
+        <v>-12000</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>-743</v>
-      </c>
-      <c r="H28" s="8" t="n">
-        <v>-256</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="L28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="M28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="N28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="O28" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="P28" s="8" t="n">
-        <v>-136</v>
+        <v>-12000</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3444,38 +2992,20 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_cost</t>
+          <t>bat1_inv_cost</t>
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>-10017.09780909636</v>
+        <v>-65000</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>-7450.566257164021</v>
-      </c>
-      <c r="H29" s="8" t="n">
-        <v>-2566.531551932336</v>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>-228.7931766402295</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>-1685.589490699344</v>
-      </c>
-      <c r="L29" s="8" t="n">
-        <v>-1685.730959595717</v>
-      </c>
-      <c r="M29" s="8" t="n">
-        <v>-1685.798863945651</v>
-      </c>
-      <c r="N29" s="8" t="n">
-        <v>-1685.760483226124</v>
-      </c>
-      <c r="O29" s="8" t="n">
-        <v>-1685.589490699344</v>
-      </c>
-      <c r="P29" s="8" t="n">
-        <v>-1359.835344289947</v>
+        <v>-65000</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3483,38 +3013,20 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler2_op_cost</t>
+          <t>CHP1_inv_cost</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-10016.39895954968</v>
+        <v>-34000</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-7450.082558684515</v>
-      </c>
-      <c r="H30" s="8" t="n">
-        <v>-2566.316400865168</v>
-      </c>
-      <c r="J30" s="8" t="n">
-        <v>-228.7931766402298</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-1685.589490699344</v>
-      </c>
-      <c r="L30" s="8" t="n">
-        <v>-1685.589490699344</v>
-      </c>
-      <c r="M30" s="8" t="n">
-        <v>-1685.589490699344</v>
-      </c>
-      <c r="N30" s="8" t="n">
-        <v>-1685.589490699344</v>
-      </c>
-      <c r="O30" s="8" t="n">
-        <v>-1685.627626889297</v>
-      </c>
-      <c r="P30" s="8" t="n">
-        <v>-1359.620193222778</v>
+        <v>-34000</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3522,38 +3034,20 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>solar_th1_inv_cost</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-187869.7520349048</v>
+        <v>-35000</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-141640.328442337</v>
-      </c>
-      <c r="H31" s="8" t="n">
-        <v>-46229.42359256785</v>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>-4532.368191879365</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-31841.80328294598</v>
-      </c>
-      <c r="L31" s="8" t="n">
-        <v>-31722.31154922476</v>
-      </c>
-      <c r="M31" s="8" t="n">
-        <v>-31720.68065526427</v>
-      </c>
-      <c r="N31" s="8" t="n">
-        <v>-31925.56510529326</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>-31439.87566171834</v>
-      </c>
-      <c r="P31" s="8" t="n">
-        <v>-24687.14758857887</v>
+        <v>-35000</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3561,76 +3055,61 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v>1.232347557333929e-16</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v>2.017275235743909e-15</v>
-      </c>
-      <c r="H32" s="8" t="n">
-        <v>-1.894040480010517e-15</v>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>-3.441691376337988e-17</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <v>8.842926391139374e-16</v>
-      </c>
-      <c r="L32" s="7" t="n">
-        <v>1.120770143359096e-15</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <v>4.996003610813197e-17</v>
-      </c>
-      <c r="N32" s="7" t="n">
-        <v>1.676436767183984e-16</v>
-      </c>
-      <c r="O32" s="7" t="n">
-        <v>9.503509090791344e-16</v>
-      </c>
-      <c r="P32" s="8" t="n">
-        <v>-3.015365734881925e-15</v>
+          <t>pvt1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="G34" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9" t="n">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="J34" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3639,37 +3118,19 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
+          <t>bat_with_aging1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>-65000</v>
       </c>
       <c r="J35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3678,818 +3139,62 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <v>0</v>
+          <t>gas_boiler1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>-2500</v>
       </c>
       <c r="J36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>pv1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>pv2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E38" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="6" t="inlineStr">
-        <is>
-          <t>bat1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G39" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7" t="n">
-        <v>0</v>
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>3 - Result</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>-516759.0466281542</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>-516759.0466281542</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>-481499.5719838322</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>-35259.47464432208</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>bat2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E40" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E41" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G41" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>CHP2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E42" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G42" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="K42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E43" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G43" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="K43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>solar_th2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="6" t="n"/>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="K45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="6" t="n"/>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>pvt2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="K46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="6" t="n"/>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E48" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G48" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G49" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E50" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G50" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="K50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E51" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G51" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G52" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="H52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="K52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="H53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="K53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="H54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="4" t="n"/>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>3 - Result</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>-1333058.797471332</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>-1236532.629287737</v>
-      </c>
-      <c r="H56" s="5" t="n">
-        <v>-96526.16818359532</v>
-      </c>
-      <c r="J56" s="5" t="n">
-        <v>-950725.1051708291</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>-66411.29678975639</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>-66164.73119121032</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>-66275.44720763927</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>-66492.97502697771</v>
-      </c>
-      <c r="O56" s="5" t="n">
-        <v>-65460.02888349108</v>
-      </c>
-      <c r="P56" s="5" t="n">
-        <v>-51529.21320142846</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="B58" s="4" t="n"/>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E58" s="5" t="n">
-        <v>-1333058.797471332</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <v>-1236532.629287737</v>
-      </c>
-      <c r="H58" s="5" t="n">
-        <v>-1333058.797471332</v>
-      </c>
-      <c r="J58" s="5" t="n">
-        <v>-950725.1051708291</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>-1017136.401960585</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>-1083301.133151796</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>-1149576.580359435</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>-1216069.555386413</v>
-      </c>
-      <c r="O58" s="5" t="n">
-        <v>-1281529.584269904</v>
-      </c>
-      <c r="P58" s="5" t="n">
-        <v>-1333058.797471332</v>
+      <c r="E40" s="5" t="n">
+        <v>-516759.0466281542</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>-516759.0466281542</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>-481499.5719838322</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>-516759.0466281542</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL40"/>
+  <dimension ref="A2:ALL65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2555,16 +2555,16 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-46099.04662815423</v>
+        <v>-104083.3692777002</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-46099.04662815423</v>
+        <v>-104083.3692777002</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-10839.57198383216</v>
+        <v>-24352.09983906771</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-35259.47464432208</v>
+        <v>-79731.26943863247</v>
       </c>
     </row>
     <row r="8">
@@ -2593,20 +2593,20 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>-13323.41384049809</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>-13323.41384049809</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>-3120.443189186215</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>-10202.97065131188</v>
+          <t>demand2_op_cost</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2614,20 +2614,20 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>2.481348460037224e-16</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>2.481348460037224e-16</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>7.66053886991358e-17</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>1.715294573045867e-16</v>
+          <t>net1_sell_electric</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>-61.36</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>-61.36</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>-8.000000000000002</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>-53.36</v>
       </c>
     </row>
     <row r="11">
@@ -2635,20 +2635,20 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-9431.460347389404</v>
+        <v>-1968.273025754147</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-9431.460347389404</v>
+        <v>-1968.273025754147</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>-2263.015544120154</v>
+        <v>-772.1782408429685</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-7168.44480326925</v>
+        <v>-1196.094784911179</v>
       </c>
     </row>
     <row r="12">
@@ -2656,20 +2656,20 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
+          <t>net1_sell_thermal</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>-165.6737455424455</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>-165.6737455424455</v>
       </c>
       <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>-165.6737455424455</v>
       </c>
     </row>
     <row r="13">
@@ -2677,20 +2677,20 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-2.034246575342466</v>
+        <v>-138.5789505067541</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-2.034246575342466</v>
+        <v>-138.5789505067541</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-33.45485353005242</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-1.561643835616438</v>
+        <v>-105.1240969767017</v>
       </c>
     </row>
     <row r="14">
@@ -2698,7 +2698,7 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
+          <t>net2_sell_thermal</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
@@ -2719,20 +2719,20 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>-940.2277500000004</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>-940.2277500000004</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>-721.7910000000003</v>
+          <t>net2_sell_electric</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2740,20 +2740,20 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
+          <t>net2_buy_thermal</t>
         </is>
       </c>
       <c r="E16" s="8" t="n">
-        <v>-5.933219178082192</v>
+        <v>-14210.04965941171</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>-5.933219178082192</v>
+        <v>-14210.04965941171</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>-1.378424657534247</v>
+        <v>-3296.067492844606</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>-4.554794520547945</v>
+        <v>-10913.98216656711</v>
       </c>
     </row>
     <row r="17">
@@ -2761,20 +2761,20 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>net2_buy_electric</t>
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>-7.204623287671232</v>
+        <v>-31846.20022145083</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>-7.204623287671232</v>
+        <v>-31846.20022145083</v>
       </c>
       <c r="I17" s="8" t="n">
-        <v>-1.673801369863013</v>
+        <v>-7218.009657243128</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>-5.530821917808218</v>
+        <v>-24628.1905642077</v>
       </c>
     </row>
     <row r="18">
@@ -2782,20 +2782,20 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>1517.6181</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>1517.6181</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>416.8311</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <v>1100.787</v>
+          <t>pv1_op_cost</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>-2.034246575342466</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>-2.034246575342466</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>-1.561643835616438</v>
       </c>
     </row>
     <row r="19">
@@ -2803,20 +2803,20 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_op_cost</t>
+          <t>pv2_op_cost</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-7.684931506849313</v>
+        <v>-10.17123287671232</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-7.684931506849313</v>
+        <v>-10.17123287671232</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>-1.785388127853881</v>
+        <v>-2.363013698630136</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>-5.899543378995433</v>
+        <v>-7.808219178082187</v>
       </c>
     </row>
     <row r="20">
@@ -2824,20 +2824,20 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>-99</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>-99</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>-76</v>
+          <t>bat1_op_cost</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2845,20 +2845,20 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_cost</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>-1044.831581831291</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>-1044.831581831291</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>-802.0929315068495</v>
+          <t>bat2_op_cost</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2866,20 +2866,20 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>total_buy</t>
+          <t>CHP1_op_cost</t>
         </is>
       </c>
       <c r="E22" s="8" t="n">
-        <v>-22754.8741878875</v>
+        <v>-2350.569375000001</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>-22754.8741878875</v>
+        <v>-2350.569375000001</v>
       </c>
       <c r="I22" s="8" t="n">
-        <v>-5383.458733306369</v>
+        <v>-546.0918750000002</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>-17371.41545458113</v>
+        <v>-1804.477500000001</v>
       </c>
     </row>
     <row r="23">
@@ -2887,41 +2887,62 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>2.481348460037224e-16</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>2.481348460037224e-16</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>7.66053886991358e-17</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>1.715294573045867e-16</v>
+          <t>CHP2_op_cost</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>-940.2277500000002</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>-940.2277500000002</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>-721.7910000000002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_op_cost</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>-23.73287671232877</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>-23.73287671232877</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>-5.513698630136987</v>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v>-18.21917808219178</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>-470660</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>-470660</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>-470660</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>0</v>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_op_cost</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>-5.933219178082192</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-5.933219178082192</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>-4.554794520547945</v>
       </c>
     </row>
     <row r="26">
@@ -2929,20 +2950,20 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>0</v>
+          <t>pvt1_op_cost</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>-7.204623287671232</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>-7.204623287671232</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>-5.530821917808218</v>
       </c>
     </row>
     <row r="27">
@@ -2950,20 +2971,20 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="n">
-        <v>0</v>
+          <t>pvt2_op_cost</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>-7.204623287671232</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>-7.204623287671232</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>-5.530821917808218</v>
       </c>
     </row>
     <row r="28">
@@ -2971,20 +2992,20 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
+          <t>charging_station1_op_cost</t>
         </is>
       </c>
       <c r="E28" s="8" t="n">
-        <v>-12000</v>
+        <v>-27.49999999999999</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>-12000</v>
+        <v>-27.49999999999999</v>
       </c>
       <c r="I28" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="J28" s="7" t="n">
-        <v>0</v>
+        <v>-6.388888888888887</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>-21.1111111111111</v>
       </c>
     </row>
     <row r="29">
@@ -2992,20 +3013,20 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_cost</t>
+          <t>charging_station2_op_cost</t>
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>-65000</v>
+        <v>-27.49999999999999</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>-65000</v>
+        <v>-27.49999999999999</v>
       </c>
       <c r="I29" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <v>0</v>
+        <v>-6.388888888888887</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>-21.1111111111111</v>
       </c>
     </row>
     <row r="30">
@@ -3013,20 +3034,20 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>CHP1_inv_cost</t>
+          <t>heat_pump1_op_cost</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-34000</v>
+        <v>-19.21232876712329</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-34000</v>
+        <v>-19.21232876712329</v>
       </c>
       <c r="I30" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v>0</v>
+        <v>-4.463470319634704</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>-14.74885844748859</v>
       </c>
     </row>
     <row r="31">
@@ -3034,20 +3055,20 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_inv_cost</t>
+          <t>heat_pump2_op_cost</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-35000</v>
+        <v>-26.89726027397259</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-35000</v>
+        <v>-26.89726027397259</v>
       </c>
       <c r="I31" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="J31" s="7" t="n">
-        <v>0</v>
+        <v>-6.248858447488582</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>-20.64840182648401</v>
       </c>
     </row>
     <row r="32">
@@ -3055,20 +3076,20 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>pvt1_inv_cost</t>
+          <t>bat_with_aging1_op_cost</t>
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-42500</v>
+        <v>-99</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>-42500</v>
+        <v>-99</v>
       </c>
       <c r="I32" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v>0</v>
+        <v>-23</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>-76</v>
       </c>
     </row>
     <row r="33">
@@ -3076,20 +3097,20 @@
       <c r="B33" s="6" t="n"/>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_inv_cost</t>
+          <t>bat_with_aging2_op_cost</t>
         </is>
       </c>
       <c r="E33" s="8" t="n">
-        <v>-200000</v>
+        <v>-99</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>-200000</v>
+        <v>-99</v>
       </c>
       <c r="I33" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="J33" s="7" t="n">
-        <v>0</v>
+        <v>-23</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>-76</v>
       </c>
     </row>
     <row r="34">
@@ -3097,20 +3118,20 @@
       <c r="B34" s="6" t="n"/>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_inv_cost</t>
+          <t>gas_boiler1_op_cost</t>
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>-14660</v>
+        <v>-2612.078954578226</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>-14660</v>
+        <v>-2612.078954578226</v>
       </c>
       <c r="I34" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>0</v>
+        <v>-606.8466258111031</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>-2005.232328767123</v>
       </c>
     </row>
     <row r="35">
@@ -3118,20 +3139,20 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_inv_cost</t>
+          <t>gas_boiler2_op_cost</t>
         </is>
       </c>
       <c r="E35" s="8" t="n">
-        <v>-65000</v>
+        <v>-1044.831581831291</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>-65000</v>
+        <v>-1044.831581831291</v>
       </c>
       <c r="I35" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J35" s="7" t="n">
-        <v>0</v>
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>-802.0929315068495</v>
       </c>
     </row>
     <row r="36">
@@ -3139,62 +3160,566 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
+          <t>total_sell</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>-227.0337455424455</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>-227.0337455424455</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>-8.000000000000002</v>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>-219.0337455424455</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>total_buy</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>-48163.10185712345</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>-48163.10185712345</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>-11319.71024446076</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>-36843.39161266269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>-1792710</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>-1792710</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>-1792710</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>demand1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>demand2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>net1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>net2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>pv1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="J44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>pv2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="J45" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>bat1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>-650000</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>-650000</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>-650000</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>bat2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>-85000</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>-85000</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>-85000</v>
+      </c>
+      <c r="J48" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>CHP2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="J49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>-140000</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>-140000</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>-140000</v>
+      </c>
+      <c r="J50" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="J51" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="J52" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="J53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="J54" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="I55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="J55" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>-36650</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>-36650</v>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v>-36650</v>
+      </c>
+      <c r="J56" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>-51310</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>-51310</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>-51310</v>
+      </c>
+      <c r="J57" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_inv_cost</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J58" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J59" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
           <t>gas_boiler1_inv_cost</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n">
+      <c r="E60" s="8" t="n">
+        <v>-6250</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>-6250</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>-6250</v>
+      </c>
+      <c r="J60" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_inv_cost</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G61" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I61" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="J36" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="J61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E38" s="5" t="n">
-        <v>-516759.0466281542</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>-516759.0466281542</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>-481499.5719838322</v>
-      </c>
-      <c r="J38" s="5" t="n">
-        <v>-35259.47464432208</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="n"/>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="E63" s="5" t="n">
+        <v>-1896793.3692777</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>-1896793.3692777</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>-1817062.099839068</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>-79731.26943863247</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E40" s="5" t="n">
-        <v>-516759.0466281542</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>-516759.0466281542</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>-481499.5719838322</v>
-      </c>
-      <c r="J40" s="5" t="n">
-        <v>-516759.0466281542</v>
+      <c r="E65" s="5" t="n">
+        <v>-1896793.3692777</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>-1896793.3692777</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>-1817062.099839068</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>-1896793.3692777</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL65"/>
+  <dimension ref="A2:ALL67"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -511,6 +511,7 @@
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2544,6 +2545,11 @@
           <t>2023 - wk 40</t>
         </is>
       </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 41</t>
+        </is>
+      </c>
     </row>
     <row r="6"/>
     <row r="7">
@@ -2555,16 +2561,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-104083.3692777002</v>
+        <v>-332143.9734024594</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-104083.3692777002</v>
+        <v>-332143.9734024594</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-24352.09983906771</v>
+        <v>-39098.22892212441</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-79731.26943863247</v>
+        <v>-282306.0650725265</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-10739.67940780851</v>
       </c>
     </row>
     <row r="8">
@@ -2572,7 +2581,7 @@
       <c r="B8" s="6" t="n"/>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>demand1_op_cost</t>
+          <t>demand1_op_costs</t>
         </is>
       </c>
       <c r="E8" s="7" t="n">
@@ -2585,6 +2594,9 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2593,7 +2605,7 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>demand2_op_cost</t>
+          <t>demand2_op_costs</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
@@ -2606,6 +2618,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2614,20 +2629,23 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>-61.36</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>-61.36</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>-8.000000000000002</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>-53.36</v>
+          <t>net1_sell_thermal</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2635,20 +2653,23 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-1968.273025754147</v>
+        <v>-22141.90616331087</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-1968.273025754147</v>
+        <v>-22141.90616331087</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>-772.1782408429685</v>
+        <v>-2603.270269699128</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-1196.094784911179</v>
+        <v>-18809.73280577987</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-728.9030878318722</v>
       </c>
     </row>
     <row r="12">
@@ -2656,20 +2677,23 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E12" s="8" t="n">
-        <v>-165.6737455424455</v>
+        <v>-31389.15814560552</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>-165.6737455424455</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>-0</v>
+        <v>-31389.15814560552</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>-3513.07319388601</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>-165.6737455424455</v>
+        <v>-27064.13898038673</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>-811.9459713327809</v>
       </c>
     </row>
     <row r="13">
@@ -2677,20 +2701,23 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_op_costs</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-138.5789505067541</v>
+        <v>-53531.06430891639</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-138.5789505067541</v>
+        <v>-53531.06430891639</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>-33.45485353005242</v>
+        <v>-6116.343463585137</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-105.1240969767017</v>
+        <v>-45873.87178616659</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>-1540.849059164653</v>
       </c>
     </row>
     <row r="14">
@@ -2698,7 +2725,7 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_thermal</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
       <c r="E14" s="7" t="n">
@@ -2711,6 +2738,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2749,7 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_electric</t>
+          <t>net2_sell_thermal</t>
         </is>
       </c>
       <c r="E15" s="7" t="n">
@@ -2732,6 +2762,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2740,20 +2773,23 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_thermal</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>-14210.04965941171</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>-14210.04965941171</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>-3296.067492844606</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>-10913.98216656711</v>
+          <t>net2_sell_electric</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2761,20 +2797,23 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_electric</t>
+          <t>net2_buy_thermal</t>
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>-31846.20022145083</v>
+        <v>-22141.90616331087</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>-31846.20022145083</v>
+        <v>-22141.90616331087</v>
       </c>
       <c r="I17" s="8" t="n">
-        <v>-7218.009657243128</v>
+        <v>-2603.270269699128</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>-24628.1905642077</v>
+        <v>-18809.73280577987</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-728.9030878318722</v>
       </c>
     </row>
     <row r="18">
@@ -2782,20 +2821,23 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>net2_buy_electric</t>
         </is>
       </c>
       <c r="E18" s="8" t="n">
-        <v>-2.034246575342466</v>
+        <v>-32181.42568466346</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>-2.034246575342466</v>
+        <v>-32181.42568466346</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-3982.546236684997</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>-1.561643835616438</v>
+        <v>-27003.72385175958</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-1195.155596218879</v>
       </c>
     </row>
     <row r="19">
@@ -2803,20 +2845,23 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
+          <t>net2_op_costs</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-10.17123287671232</v>
+        <v>-54323.33184797432</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-10.17123287671232</v>
+        <v>-54323.33184797432</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>-2.363013698630136</v>
+        <v>-6585.816506384125</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>-7.808219178082187</v>
+        <v>-45813.45665753945</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-1924.058684050751</v>
       </c>
     </row>
     <row r="20">
@@ -2824,20 +2869,23 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_cost</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>0</v>
+          <t>pv1_op_costs</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-0.1643835616438356</v>
       </c>
     </row>
     <row r="21">
@@ -2845,20 +2893,23 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_cost</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>0</v>
+          <t>pv2_op_costs</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-0.1643835616438356</v>
       </c>
     </row>
     <row r="22">
@@ -2866,20 +2917,23 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_cost</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>-2350.569375000001</v>
-      </c>
-      <c r="G22" s="8" t="n">
-        <v>-2350.569375000001</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>-546.0918750000002</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>-1804.477500000001</v>
+          <t>bat1_op_costs</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2887,20 +2941,23 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>-940.2277500000002</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>-940.2277500000002</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>-721.7910000000002</v>
+          <t>bat2_op_costs</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2908,20 +2965,23 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_cost</t>
+          <t>CHP1_op_costs</t>
         </is>
       </c>
       <c r="E24" s="8" t="n">
-        <v>-23.73287671232877</v>
+        <v>-1889.952750000001</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>-23.73287671232877</v>
+        <v>-1889.952750000001</v>
       </c>
       <c r="I24" s="8" t="n">
-        <v>-5.513698630136987</v>
+        <v>-218.4367500000001</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>-18.21917808219178</v>
+        <v>-1595.538</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-75.97800000000002</v>
       </c>
     </row>
     <row r="25">
@@ -2929,20 +2989,23 @@
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_op_cost</t>
+          <t>CHP2_op_costs</t>
         </is>
       </c>
       <c r="E25" s="8" t="n">
-        <v>-5.933219178082192</v>
+        <v>-1889.952750000001</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>-5.933219178082192</v>
+        <v>-1889.952750000001</v>
       </c>
       <c r="I25" s="8" t="n">
-        <v>-1.378424657534247</v>
+        <v>-218.4367500000001</v>
       </c>
       <c r="J25" s="8" t="n">
-        <v>-4.554794520547945</v>
+        <v>-1595.538</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-75.97800000000002</v>
       </c>
     </row>
     <row r="26">
@@ -2950,20 +3013,23 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_cost</t>
+          <t>solar_th1_op_costs</t>
         </is>
       </c>
       <c r="E26" s="8" t="n">
-        <v>-7.204623287671232</v>
+        <v>-11.9263698630137</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>-7.204623287671232</v>
+        <v>-11.9263698630137</v>
       </c>
       <c r="I26" s="8" t="n">
-        <v>-1.673801369863013</v>
+        <v>-1.378424657534247</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>-5.530821917808218</v>
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-0.4794520547945206</v>
       </c>
     </row>
     <row r="27">
@@ -2971,20 +3037,23 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>pvt2_op_cost</t>
+          <t>solar_th2_op_costs</t>
         </is>
       </c>
       <c r="E27" s="8" t="n">
-        <v>-7.204623287671232</v>
+        <v>-11.9263698630137</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>-7.204623287671232</v>
+        <v>-11.9263698630137</v>
       </c>
       <c r="I27" s="8" t="n">
-        <v>-1.673801369863013</v>
+        <v>-1.378424657534247</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>-5.530821917808218</v>
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-0.4794520547945206</v>
       </c>
     </row>
     <row r="28">
@@ -2992,20 +3061,23 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_cost</t>
+          <t>pvt1_op_costs</t>
         </is>
       </c>
       <c r="E28" s="8" t="n">
-        <v>-27.49999999999999</v>
+        <v>-14.4820205479452</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>-27.49999999999999</v>
+        <v>-14.4820205479452</v>
       </c>
       <c r="I28" s="8" t="n">
-        <v>-6.388888888888887</v>
+        <v>-1.673801369863013</v>
       </c>
       <c r="J28" s="8" t="n">
-        <v>-21.1111111111111</v>
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-0.5821917808219177</v>
       </c>
     </row>
     <row r="29">
@@ -3013,20 +3085,23 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_op_cost</t>
+          <t>pvt2_op_costs</t>
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>-27.49999999999999</v>
+        <v>-14.4820205479452</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>-27.49999999999999</v>
+        <v>-14.4820205479452</v>
       </c>
       <c r="I29" s="8" t="n">
-        <v>-6.388888888888887</v>
+        <v>-1.673801369863013</v>
       </c>
       <c r="J29" s="8" t="n">
-        <v>-21.1111111111111</v>
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-0.5821917808219177</v>
       </c>
     </row>
     <row r="30">
@@ -3034,20 +3109,23 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_op_cost</t>
+          <t>charging_station1_op_costs</t>
         </is>
       </c>
       <c r="E30" s="8" t="n">
-        <v>-19.21232876712329</v>
+        <v>-55.27777777777776</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-19.21232876712329</v>
+        <v>-55.27777777777776</v>
       </c>
       <c r="I30" s="8" t="n">
-        <v>-4.463470319634704</v>
+        <v>-6.388888888888887</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>-14.74885844748859</v>
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-2.222222222222221</v>
       </c>
     </row>
     <row r="31">
@@ -3055,20 +3133,23 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_op_cost</t>
+          <t>charging_station2_op_costs</t>
         </is>
       </c>
       <c r="E31" s="8" t="n">
-        <v>-26.89726027397259</v>
+        <v>-55.27777777777776</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-26.89726027397259</v>
+        <v>-55.27777777777776</v>
       </c>
       <c r="I31" s="8" t="n">
-        <v>-6.248858447488582</v>
+        <v>-6.388888888888887</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>-20.64840182648401</v>
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-2.222222222222221</v>
       </c>
     </row>
     <row r="32">
@@ -3076,20 +3157,23 @@
       <c r="B32" s="6" t="n"/>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_cost</t>
+          <t>heat_pump1_op_costs</t>
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>-99</v>
+        <v>-15.44748858447488</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>-99</v>
+        <v>-15.44748858447488</v>
       </c>
       <c r="I32" s="8" t="n">
-        <v>-23</v>
+        <v>-1.785388127853881</v>
       </c>
       <c r="J32" s="8" t="n">
-        <v>-76</v>
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.6210045662100455</v>
       </c>
     </row>
     <row r="33">
@@ -3097,20 +3181,23 @@
       <c r="B33" s="6" t="n"/>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_op_cost</t>
+          <t>heat_pump2_op_costs</t>
         </is>
       </c>
       <c r="E33" s="8" t="n">
-        <v>-99</v>
+        <v>-15.44748858447488</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>-99</v>
+        <v>-15.44748858447488</v>
       </c>
       <c r="I33" s="8" t="n">
-        <v>-23</v>
+        <v>-1.785388127853881</v>
       </c>
       <c r="J33" s="8" t="n">
-        <v>-76</v>
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-0.6210045662100455</v>
       </c>
     </row>
     <row r="34">
@@ -3118,20 +3205,23 @@
       <c r="B34" s="6" t="n"/>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_cost</t>
+          <t>bat_with_aging1_op_costs</t>
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>-2612.078954578226</v>
+        <v>-199</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>-2612.078954578226</v>
+        <v>-199</v>
       </c>
       <c r="I34" s="8" t="n">
-        <v>-606.8466258111031</v>
+        <v>-23</v>
       </c>
       <c r="J34" s="8" t="n">
-        <v>-2005.232328767123</v>
+        <v>-168</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="35">
@@ -3139,20 +3229,23 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler2_op_cost</t>
+          <t>bat_with_aging2_op_costs</t>
         </is>
       </c>
       <c r="E35" s="8" t="n">
-        <v>-1044.831581831291</v>
+        <v>-199</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>-1044.831581831291</v>
+        <v>-199</v>
       </c>
       <c r="I35" s="8" t="n">
-        <v>-242.7386503244413</v>
+        <v>-23</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>-802.0929315068495</v>
+        <v>-168</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="36">
@@ -3160,20 +3253,23 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>total_sell</t>
+          <t>gas_boiler1_op_costs</t>
         </is>
       </c>
       <c r="E36" s="8" t="n">
-        <v>-227.0337455424455</v>
+        <v>-2100.217018024513</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>-227.0337455424455</v>
+        <v>-2100.217018024513</v>
       </c>
       <c r="I36" s="8" t="n">
-        <v>-8.000000000000002</v>
+        <v>-242.7386503244413</v>
       </c>
       <c r="J36" s="8" t="n">
-        <v>-219.0337455424455</v>
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>-84.43083489545783</v>
       </c>
     </row>
     <row r="37">
@@ -3181,82 +3277,94 @@
       <c r="B37" s="6" t="n"/>
       <c r="C37" s="6" t="inlineStr">
         <is>
+          <t>gas_boiler2_op_costs</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>-2100.217018024513</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>-2100.217018024513</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-84.43083489545783</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>total_sell</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
           <t>total_buy</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n">
-        <v>-48163.10185712345</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>-48163.10185712345</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>-11319.71024446076</v>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v>-36843.39161266269</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="E39" s="8" t="n">
+        <v>-107854.3961568907</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>-107854.3961568907</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>-12702.15996996926</v>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>-91687.32844370605</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>-3464.907743215404</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>2 - Investment Costs</t>
         </is>
       </c>
-      <c r="E39" s="5" t="n">
-        <v>-1792710</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>-1792710</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <v>-1792710</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>demand1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>demand2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="n">
+      <c r="E41" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3265,7 +3373,7 @@
       <c r="B42" s="6" t="n"/>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_cost</t>
+          <t>demand1_inv_costs</t>
         </is>
       </c>
       <c r="E42" s="7" t="n">
@@ -3278,6 +3386,9 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3286,7 +3397,7 @@
       <c r="B43" s="6" t="n"/>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>net2_inv_cost</t>
+          <t>demand2_inv_costs</t>
         </is>
       </c>
       <c r="E43" s="7" t="n">
@@ -3299,6 +3410,9 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3307,19 +3421,22 @@
       <c r="B44" s="6" t="n"/>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v>-12000</v>
+          <t>net1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3328,19 +3445,22 @@
       <c r="B45" s="6" t="n"/>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>pv2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>-60000</v>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v>-60000</v>
-      </c>
-      <c r="I45" s="8" t="n">
-        <v>-60000</v>
+          <t>net2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,19 +3469,22 @@
       <c r="B46" s="6" t="n"/>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_cost</t>
+          <t>pv1_inv_costs</t>
         </is>
       </c>
       <c r="E46" s="8" t="n">
-        <v>-650000</v>
+        <v>-12000</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>-650000</v>
+        <v>-12000</v>
       </c>
       <c r="I46" s="8" t="n">
-        <v>-650000</v>
+        <v>-12000</v>
       </c>
       <c r="J46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3370,19 +3493,22 @@
       <c r="B47" s="6" t="n"/>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>bat2_inv_cost</t>
+          <t>pv2_inv_costs</t>
         </is>
       </c>
       <c r="E47" s="8" t="n">
-        <v>-65000</v>
+        <v>-12000</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>-65000</v>
+        <v>-12000</v>
       </c>
       <c r="I47" s="8" t="n">
-        <v>-65000</v>
+        <v>-12000</v>
       </c>
       <c r="J47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3391,19 +3517,22 @@
       <c r="B48" s="6" t="n"/>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>CHP1_inv_cost</t>
+          <t>bat1_inv_costs</t>
         </is>
       </c>
       <c r="E48" s="8" t="n">
-        <v>-85000</v>
+        <v>-65000</v>
       </c>
       <c r="G48" s="8" t="n">
-        <v>-85000</v>
+        <v>-65000</v>
       </c>
       <c r="I48" s="8" t="n">
-        <v>-85000</v>
+        <v>-65000</v>
       </c>
       <c r="J48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3412,19 +3541,22 @@
       <c r="B49" s="6" t="n"/>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>CHP2_inv_cost</t>
+          <t>bat2_inv_costs</t>
         </is>
       </c>
       <c r="E49" s="8" t="n">
-        <v>-34000</v>
+        <v>-65000</v>
       </c>
       <c r="G49" s="8" t="n">
-        <v>-34000</v>
+        <v>-65000</v>
       </c>
       <c r="I49" s="8" t="n">
-        <v>-34000</v>
+        <v>-65000</v>
       </c>
       <c r="J49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,19 +3565,22 @@
       <c r="B50" s="6" t="n"/>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_inv_cost</t>
+          <t>CHP1_inv_costs</t>
         </is>
       </c>
       <c r="E50" s="8" t="n">
-        <v>-140000</v>
+        <v>-34000</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>-140000</v>
+        <v>-34000</v>
       </c>
       <c r="I50" s="8" t="n">
-        <v>-140000</v>
+        <v>-34000</v>
       </c>
       <c r="J50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,19 +3589,22 @@
       <c r="B51" s="6" t="n"/>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_inv_cost</t>
+          <t>CHP2_inv_costs</t>
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>-35000</v>
+        <v>-34000</v>
       </c>
       <c r="G51" s="8" t="n">
-        <v>-35000</v>
+        <v>-34000</v>
       </c>
       <c r="I51" s="8" t="n">
-        <v>-35000</v>
+        <v>-34000</v>
       </c>
       <c r="J51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3475,19 +3613,22 @@
       <c r="B52" s="6" t="n"/>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>pvt1_inv_cost</t>
+          <t>solar_th1_inv_costs</t>
         </is>
       </c>
       <c r="E52" s="8" t="n">
-        <v>-42500</v>
+        <v>-35000</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>-42500</v>
+        <v>-35000</v>
       </c>
       <c r="I52" s="8" t="n">
-        <v>-42500</v>
+        <v>-35000</v>
       </c>
       <c r="J52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3496,19 +3637,22 @@
       <c r="B53" s="6" t="n"/>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>pvt2_inv_cost</t>
+          <t>solar_th2_inv_costs</t>
         </is>
       </c>
       <c r="E53" s="8" t="n">
-        <v>-42500</v>
+        <v>-35000</v>
       </c>
       <c r="G53" s="8" t="n">
-        <v>-42500</v>
+        <v>-35000</v>
       </c>
       <c r="I53" s="8" t="n">
-        <v>-42500</v>
+        <v>-35000</v>
       </c>
       <c r="J53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3517,19 +3661,22 @@
       <c r="B54" s="6" t="n"/>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_inv_cost</t>
+          <t>pvt1_inv_costs</t>
         </is>
       </c>
       <c r="E54" s="8" t="n">
-        <v>-200000</v>
+        <v>-42500</v>
       </c>
       <c r="G54" s="8" t="n">
-        <v>-200000</v>
+        <v>-42500</v>
       </c>
       <c r="I54" s="8" t="n">
-        <v>-200000</v>
+        <v>-42500</v>
       </c>
       <c r="J54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,19 +3685,22 @@
       <c r="B55" s="6" t="n"/>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_inv_cost</t>
+          <t>pvt2_inv_costs</t>
         </is>
       </c>
       <c r="E55" s="8" t="n">
-        <v>-200000</v>
+        <v>-42500</v>
       </c>
       <c r="G55" s="8" t="n">
-        <v>-200000</v>
+        <v>-42500</v>
       </c>
       <c r="I55" s="8" t="n">
-        <v>-200000</v>
+        <v>-42500</v>
       </c>
       <c r="J55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3559,19 +3709,22 @@
       <c r="B56" s="6" t="n"/>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_inv_cost</t>
+          <t>charging_station1_inv_costs</t>
         </is>
       </c>
       <c r="E56" s="8" t="n">
-        <v>-36650</v>
+        <v>-200000</v>
       </c>
       <c r="G56" s="8" t="n">
-        <v>-36650</v>
+        <v>-200000</v>
       </c>
       <c r="I56" s="8" t="n">
-        <v>-36650</v>
+        <v>-200000</v>
       </c>
       <c r="J56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,19 +3733,22 @@
       <c r="B57" s="6" t="n"/>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_inv_cost</t>
+          <t>charging_station2_inv_costs</t>
         </is>
       </c>
       <c r="E57" s="8" t="n">
-        <v>-51310</v>
+        <v>-200000</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>-51310</v>
+        <v>-200000</v>
       </c>
       <c r="I57" s="8" t="n">
-        <v>-51310</v>
+        <v>-200000</v>
       </c>
       <c r="J57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3601,19 +3757,22 @@
       <c r="B58" s="6" t="n"/>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_inv_cost</t>
+          <t>heat_pump1_inv_costs</t>
         </is>
       </c>
       <c r="E58" s="8" t="n">
-        <v>-65000</v>
+        <v>-14660</v>
       </c>
       <c r="G58" s="8" t="n">
-        <v>-65000</v>
+        <v>-14660</v>
       </c>
       <c r="I58" s="8" t="n">
-        <v>-65000</v>
+        <v>-14660</v>
       </c>
       <c r="J58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3622,19 +3781,22 @@
       <c r="B59" s="6" t="n"/>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_inv_cost</t>
+          <t>heat_pump2_inv_costs</t>
         </is>
       </c>
       <c r="E59" s="8" t="n">
-        <v>-65000</v>
+        <v>-14660</v>
       </c>
       <c r="G59" s="8" t="n">
-        <v>-65000</v>
+        <v>-14660</v>
       </c>
       <c r="I59" s="8" t="n">
-        <v>-65000</v>
+        <v>-14660</v>
       </c>
       <c r="J59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3643,19 +3805,22 @@
       <c r="B60" s="6" t="n"/>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_inv_cost</t>
+          <t>bat_with_aging1_inv_costs</t>
         </is>
       </c>
       <c r="E60" s="8" t="n">
-        <v>-6250</v>
+        <v>-65000</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>-6250</v>
+        <v>-65000</v>
       </c>
       <c r="I60" s="8" t="n">
-        <v>-6250</v>
+        <v>-65000</v>
       </c>
       <c r="J60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3664,41 +3829,71 @@
       <c r="B61" s="6" t="n"/>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler2_inv_cost</t>
+          <t>bat_with_aging2_inv_costs</t>
         </is>
       </c>
       <c r="E61" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="G61" s="8" t="n">
+      <c r="G62" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="I61" s="8" t="n">
+      <c r="I62" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="J61" s="7" t="n">
+      <c r="J62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n"/>
-      <c r="B63" s="4" t="n"/>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>3 - Result</t>
-        </is>
-      </c>
-      <c r="E63" s="5" t="n">
-        <v>-1896793.3692777</v>
-      </c>
-      <c r="G63" s="5" t="n">
-        <v>-1896793.3692777</v>
-      </c>
-      <c r="I63" s="5" t="n">
-        <v>-1817062.099839068</v>
-      </c>
-      <c r="J63" s="5" t="n">
-        <v>-79731.26943863247</v>
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="J63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3706,20 +3901,47 @@
       <c r="B65" s="4" t="n"/>
       <c r="C65" s="4" t="inlineStr">
         <is>
+          <t>3 - Result</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>-1273463.973402459</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>-1273463.973402459</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>-980418.2289221244</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>-282306.0650725265</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>-10739.67940780851</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E65" s="5" t="n">
-        <v>-1896793.3692777</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <v>-1896793.3692777</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>-1817062.099839068</v>
-      </c>
-      <c r="J65" s="5" t="n">
-        <v>-1896793.3692777</v>
+      <c r="E67" s="5" t="n">
+        <v>-1273463.973402459</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>-1273463.973402459</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>-980418.2289221244</v>
+      </c>
+      <c r="J67" s="5" t="n">
+        <v>-1262724.293994651</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>-1273463.973402459</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL67"/>
+  <dimension ref="A2:ALL25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2561,19 +2561,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-332143.9734024594</v>
+        <v>-102955.8102988759</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-332143.9734024594</v>
+        <v>-102955.8102988759</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-39098.22892212441</v>
+        <v>-12499.79505658519</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-282306.0650725265</v>
+        <v>-88397.25057609244</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-10739.67940780851</v>
+        <v>-2058.764666198222</v>
       </c>
     </row>
     <row r="8">
@@ -2605,7 +2605,7 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>demand2_op_costs</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
@@ -2629,23 +2629,23 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
+      <c r="E10" s="8" t="n">
+        <v>-23799.71052027488</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>-23799.71052027488</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>-2829.650497583215</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>-20518.59637447413</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-451.4636482175389</v>
       </c>
     </row>
     <row r="11">
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-22141.90616331087</v>
+        <v>-27599.98641272115</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-22141.90616331087</v>
+        <v>-27599.98641272115</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>-2603.270269699128</v>
+        <v>-3410.973468593154</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-18809.73280577987</v>
+        <v>-23613.67064280807</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-728.9030878318722</v>
+        <v>-575.3423013199283</v>
       </c>
     </row>
     <row r="12">
@@ -2677,23 +2677,23 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
+          <t>net1_op_costs</t>
         </is>
       </c>
       <c r="E12" s="8" t="n">
-        <v>-31389.15814560552</v>
+        <v>-51399.69693299604</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>-31389.15814560552</v>
+        <v>-51399.69693299604</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>-3513.07319388601</v>
+        <v>-6240.623966176369</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>-27064.13898038673</v>
+        <v>-44132.2670172822</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-811.9459713327809</v>
+        <v>-1026.805949537467</v>
       </c>
     </row>
     <row r="13">
@@ -2701,23 +2701,23 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>net1_op_costs</t>
+          <t>net1_sell_electric</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-53531.06430891639</v>
+        <v>-148.238350692</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-53531.06430891639</v>
+        <v>-148.238350692</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>-6116.343463585137</v>
+        <v>-17.601918753</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-45873.87178616659</v>
+        <v>-125.812431939</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-1540.849059164653</v>
+        <v>-4.824</v>
       </c>
     </row>
     <row r="14">
@@ -2725,23 +2725,23 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>pv1_op_costs</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>0</v>
+      <c r="E14" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>-0.1643835616438356</v>
       </c>
     </row>
     <row r="15">
@@ -2749,71 +2749,47 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_thermal</t>
+          <t>pv2_op_costs</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>net2_sell_electric</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
+      <c r="E15" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>-4.089041095890411</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-0.1643835616438356</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>net2_buy_thermal</t>
+          <t>2 - Investment Costs</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n">
-        <v>-22141.90616331087</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>-22141.90616331087</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>-2603.270269699128</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>-18809.73280577987</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-728.9030878318722</v>
+      <c r="E17" s="5" t="n">
+        <v>-24000</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-24000</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-24000</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2821,23 +2797,23 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_electric</t>
+          <t>demand1_inv_costs</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n">
-        <v>-32181.42568466346</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>-32181.42568466346</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>-3982.546236684997</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>-27003.72385175958</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-1195.155596218879</v>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2845,23 +2821,23 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>net2_op_costs</t>
+          <t>net1_inv_costs</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>-54323.33184797432</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>-54323.33184797432</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>-6585.816506384125</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>-45813.45665753945</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-1924.058684050751</v>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2869,23 +2845,23 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_costs</t>
+          <t>pv1_inv_costs</t>
         </is>
       </c>
       <c r="E20" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-12000</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-12000</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>-0.4726027397260274</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-0.1643835616438356</v>
+        <v>-12000</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2893,1055 +2869,71 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_costs</t>
+          <t>pv2_inv_costs</t>
         </is>
       </c>
       <c r="E21" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-12000</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-12000</v>
       </c>
       <c r="I21" s="8" t="n">
-        <v>-0.4726027397260274</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>-0.1643835616438356</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>bat1_op_costs</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="J21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
+      <c r="K21" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>bat2_op_costs</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_op_costs</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>-1889.952750000001</v>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>-1889.952750000001</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-75.97800000000002</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>CHP2_op_costs</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>-1889.952750000001</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>-1889.952750000001</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>-218.4367500000001</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>-1595.538</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>-75.97800000000002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_op_costs</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>-11.9263698630137</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>-11.9263698630137</v>
-      </c>
-      <c r="I26" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>-0.4794520547945206</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>solar_th2_op_costs</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>-11.9263698630137</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>-11.9263698630137</v>
-      </c>
-      <c r="I27" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="J27" s="8" t="n">
-        <v>-10.06849315068493</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>-0.4794520547945206</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_op_costs</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="I28" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-0.5821917808219177</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="n"/>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>pvt2_op_costs</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="I29" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>-0.5821917808219177</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_op_costs</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="G30" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="I30" s="8" t="n">
-        <v>-6.388888888888887</v>
-      </c>
-      <c r="J30" s="8" t="n">
-        <v>-46.66666666666665</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-2.222222222222221</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="n"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_op_costs</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="I31" s="8" t="n">
-        <v>-6.388888888888887</v>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>-46.66666666666665</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-2.222222222222221</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_costs</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="I32" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-0.6210045662100455</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_op_costs</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="J33" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-0.6210045662100455</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_op_costs</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="n">
-        <v>-199</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>-199</v>
-      </c>
-      <c r="I34" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J34" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_op_costs</t>
-        </is>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>-199</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>-199</v>
-      </c>
-      <c r="I35" s="8" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J35" s="8" t="n">
-        <v>-168</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_op_costs</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="I36" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="J36" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>-84.43083489545783</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_op_costs</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>-84.43083489545783</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>total_sell</t>
-        </is>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="6" t="inlineStr">
-        <is>
-          <t>total_buy</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="n">
-        <v>-107854.3961568907</v>
-      </c>
-      <c r="G39" s="8" t="n">
-        <v>-107854.3961568907</v>
-      </c>
-      <c r="I39" s="8" t="n">
-        <v>-12702.15996996926</v>
-      </c>
-      <c r="J39" s="8" t="n">
-        <v>-91687.32844370605</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>-3464.907743215404</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="n"/>
-      <c r="B41" s="4" t="n"/>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="G41" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="I41" s="5" t="n">
-        <v>-941320</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>demand1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>demand2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="6" t="inlineStr">
-        <is>
-          <t>net1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="6" t="n"/>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>net2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="6" t="n"/>
-      <c r="C46" s="6" t="inlineStr">
-        <is>
-          <t>pv1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="I46" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="J46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="6" t="inlineStr">
-        <is>
-          <t>pv2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E47" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="I47" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="J47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="6" t="n"/>
-      <c r="C48" s="6" t="inlineStr">
-        <is>
-          <t>bat1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E48" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G48" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I48" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>bat2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G49" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I49" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n"/>
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>CHP1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E50" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G50" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="I50" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="J50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>CHP2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E51" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="G51" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="I51" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="J51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>solar_th1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G52" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="I52" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="J52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>solar_th2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E53" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="I53" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="J53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>pvt1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="I54" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="J54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>pvt2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="I55" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="J55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="n"/>
-      <c r="B56" s="6" t="n"/>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E56" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G56" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="I56" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="J56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="6" t="n"/>
-      <c r="B57" s="6" t="n"/>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E57" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G57" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="I57" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="J57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="6" t="n"/>
-      <c r="B58" s="6" t="n"/>
-      <c r="C58" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E58" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G58" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="I58" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="J58" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="G59" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="I59" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="J59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G60" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I60" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="inlineStr">
-        <is>
-          <t>bat_with_aging2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G61" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I61" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="6" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E62" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G62" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="I62" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="J62" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="inlineStr">
-        <is>
-          <t>gas_boiler2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E63" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="G63" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="I63" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="J63" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="n"/>
-      <c r="B65" s="4" t="n"/>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E65" s="5" t="n">
-        <v>-1273463.973402459</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <v>-1273463.973402459</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>-980418.2289221244</v>
-      </c>
-      <c r="J65" s="5" t="n">
-        <v>-282306.0650725265</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>-10739.67940780851</v>
+      <c r="E23" s="5" t="n">
+        <v>-126955.8102988759</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-126955.8102988759</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-36499.79505658519</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-88397.25057609244</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-2058.764666198222</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="B67" s="4" t="n"/>
-      <c r="C67" s="4" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E67" s="5" t="n">
-        <v>-1273463.973402459</v>
-      </c>
-      <c r="G67" s="5" t="n">
-        <v>-1273463.973402459</v>
-      </c>
-      <c r="I67" s="5" t="n">
-        <v>-980418.2289221244</v>
-      </c>
-      <c r="J67" s="5" t="n">
-        <v>-1262724.293994651</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>-1273463.973402459</v>
+      <c r="E25" s="5" t="n">
+        <v>-126955.8102988759</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>-126955.8102988759</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>-36499.79505658519</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>-124897.0456326776</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>-126955.8102988759</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL25"/>
+  <dimension ref="A2:ALL65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -2561,19 +2561,19 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-102955.8102988759</v>
+        <v>-261321.1480021277</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-102955.8102988759</v>
+        <v>-261321.1480021277</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-12499.79505658519</v>
+        <v>-30716.41893233248</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-88397.25057609244</v>
+        <v>-222119.5876881602</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-2058.764666198222</v>
+        <v>-8485.141381635014</v>
       </c>
     </row>
     <row r="8">
@@ -2605,7 +2605,7 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
+          <t>demand2_op_costs</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
@@ -2629,23 +2629,23 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
+          <t>net1_op_costs</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-23799.71052027488</v>
+        <v>-72495.84273495676</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-23799.71052027488</v>
+        <v>-72495.84273495676</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>-2829.650497583215</v>
+        <v>-8235.401397128207</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>-20518.59637447413</v>
+        <v>-62148.18752099178</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-451.4636482175389</v>
+        <v>-2112.253816836776</v>
       </c>
     </row>
     <row r="11">
@@ -2653,23 +2653,23 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>net1_buy_electric</t>
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-27599.98641272115</v>
+        <v>-34634.88190627069</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-27599.98641272115</v>
+        <v>-34634.88190627069</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>-3410.973468593154</v>
+        <v>-3706.366625068131</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-23613.67064280807</v>
+        <v>-30126.75861502574</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-575.3423013199283</v>
+        <v>-801.7566661768114</v>
       </c>
     </row>
     <row r="12">
@@ -2677,23 +2677,23 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_op_costs</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>-51399.69693299604</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>-51399.69693299604</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>-6240.623966176369</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>-44132.2670172822</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>-1026.805949537467</v>
+          <t>net1_sell_electric</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>1.019280889849991e-13</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>1.019280889849991e-13</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>8.811146257059478e-15</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>8.471366465455178e-14</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>8.40327807338781e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2701,23 +2701,23 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
+          <t>net1_buy_thermal</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-148.238350692</v>
+        <v>-37860.96082868607</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-148.238350692</v>
+        <v>-37860.96082868607</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>-17.601918753</v>
+        <v>-4529.034772060077</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-125.812431939</v>
+        <v>-32021.42890596604</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-4.824</v>
+        <v>-1310.497150659964</v>
       </c>
     </row>
     <row r="14">
@@ -2725,23 +2725,23 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_costs</t>
+          <t>net1_sell_thermal</t>
         </is>
       </c>
       <c r="E14" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-2.220024164500955e-13</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-2.220024164500955e-13</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-2.482680727666776e-14</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>-3.452054794520548</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>-0.1643835616438356</v>
+        <v>-1.972022545260188e-13</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>2.664535259100319e-17</v>
       </c>
     </row>
     <row r="15">
@@ -2749,47 +2749,71 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_costs</t>
+          <t>net2_buy_thermal</t>
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-21743.90616331086</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>-4.089041095890411</v>
+        <v>-21743.90616331086</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>-0.4726027397260274</v>
+        <v>-2557.270269699128</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>-3.452054794520548</v>
+        <v>-18473.73280577987</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-0.1643835616438356</v>
+        <v>-712.9030878318722</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>net2_op_costs</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>-53387.53896887784</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>-53387.53896887784</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>-6570.670265840683</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>-44878.59976060333</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-1938.268942433825</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>-24000</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>net2_buy_electric</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>-31643.63280556697</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>-31643.63280556697</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>-4013.399996141555</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>-26404.86695482346</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-1225.365854601953</v>
       </c>
     </row>
     <row r="18">
@@ -2797,23 +2821,23 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_costs</t>
+          <t>net2_sell_electric</t>
         </is>
       </c>
       <c r="E18" s="7" t="n">
-        <v>0</v>
+        <v>8.988772028293924e-14</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>0</v>
+        <v>8.988772028293924e-14</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>0</v>
+        <v>7.35453364875127e-15</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0</v>
+        <v>7.503918121796817e-14</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>0</v>
+        <v>7.494005416219805e-15</v>
       </c>
     </row>
     <row r="19">
@@ -2821,23 +2845,23 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>0</v>
+          <t>net2_sell_thermal</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>-1.709132835259198e-13</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>-1.709132835259198e-13</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>-1.839917107560041e-14</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>-1.526029302922893e-13</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>0</v>
+        <v>8.881784197001142e-17</v>
       </c>
     </row>
     <row r="20">
@@ -2845,23 +2869,23 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_costs</t>
+          <t>pv1_op_costs</t>
         </is>
       </c>
       <c r="E20" s="8" t="n">
-        <v>-12000</v>
+        <v>-16.35616438356164</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>-12000</v>
+        <v>-16.35616438356164</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0</v>
+        <v>-1.890410958904109</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>-13.80821917808219</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-0.6575342465753423</v>
       </c>
     </row>
     <row r="21">
@@ -2869,71 +2893,1007 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
+          <t>pv2_op_costs</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>-20.44520547945204</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>-20.44520547945204</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>-2.363013698630136</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>-17.26027397260273</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-0.8219178082191776</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>bat1_op_costs</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>bat2_op_costs</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_op_costs</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>-1889.952750000001</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>-1889.952750000001</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-75.97800000000002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>CHP2_op_costs</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>-2834.929125000002</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>-2834.929125000002</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>-327.6551250000002</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>-2393.307000000002</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-113.9670000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_op_costs</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>-11.9263698630137</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>-11.9263698630137</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-0.4794520547945206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_op_costs</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>-11.9263698630137</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>-11.9263698630137</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-0.4794520547945206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_op_costs</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>-14.4820205479452</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>-14.4820205479452</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-0.5821917808219177</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_op_costs</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>-14.4820205479452</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>-14.4820205479452</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-0.5821917808219177</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_op_costs</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>-55.27777777777776</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>-55.27777777777776</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>-6.388888888888887</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-2.222222222222221</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_op_costs</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>-55.27777777777776</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>-55.27777777777776</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>-6.388888888888887</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-2.222222222222221</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_op_costs</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>-15.44748858447488</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>-15.44748858447488</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.6210045662100455</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_op_costs</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>-15.44748858447488</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>-15.44748858447488</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-0.6210045662100455</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_op_costs</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>-199</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>-199</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_op_costs</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>-199</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>-199</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_op_costs</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>-2100.217018024513</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>-2100.217018024513</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>-84.43083489545783</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_op_costs</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>-2100.217018024513</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>-2100.217018024513</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-84.43083489545783</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>2 - Investment Costs</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>-1042320</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>-1042320</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>-1042320</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>demand1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>demand2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>net1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>net2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>pv1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>-48000</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>-48000</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>-48000</v>
+      </c>
+      <c r="J44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
           <t>pv2_inv_costs</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="E45" s="8" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="J45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>bat1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>bat2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="J48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>CHP2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>-51000</v>
+      </c>
+      <c r="J49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="J50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="J51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="J52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="J53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="J54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="I55" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="J55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="J56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="J57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="J59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="J60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="J61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>3 - Result</t>
         </is>
       </c>
-      <c r="E23" s="5" t="n">
-        <v>-126955.8102988759</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>-126955.8102988759</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>-36499.79505658519</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>-88397.25057609244</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>-2058.764666198222</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="E63" s="5" t="n">
+        <v>-1303641.148002128</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>-1303641.148002128</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>-1073036.418932332</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>-222119.5876881602</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>-8485.141381635014</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>4 - Result accumulated</t>
         </is>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>-126955.8102988759</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>-126955.8102988759</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>-36499.79505658519</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>-124897.0456326776</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>-126955.8102988759</v>
+      <c r="E65" s="5" t="n">
+        <v>-1303641.148002128</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>-1303641.148002128</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>-1073036.418932332</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>-1295156.006620493</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>-1303641.148002128</v>
       </c>
     </row>
   </sheetData>

--- a/output/financial_analysis.xlsx
+++ b/output/financial_analysis.xlsx
@@ -118,13 +118,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:ALL65"/>
+  <dimension ref="A2:ALL105"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
@@ -508,10 +508,14 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2535,19 +2539,44 @@
           <t>2023-10</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 39</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 40</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>2023 - wk 41</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 42</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 43</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 44</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>2023 - wk 45</t>
         </is>
       </c>
     </row>
@@ -2557,23 +2586,38 @@
       <c r="B7" s="4" t="n"/>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>1 - Operation Costs</t>
+          <t>1 - Revenue</t>
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-261321.1480021277</v>
+        <v>24846.22700000001</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-261321.1480021277</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>-30716.41893233248</v>
+        <v>18495.9101</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6350.316900000003</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>-222119.5876881602</v>
+        <v>710.5474000000002</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-8485.141381635014</v>
+        <v>4504.482100000001</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>3956.852900000002</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>4088.482500000002</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>4060.712400000002</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>4214.063100000001</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>3311.086600000001</v>
       </c>
     </row>
     <row r="8">
@@ -2581,23 +2625,38 @@
       <c r="B8" s="6" t="n"/>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>demand1_op_costs</t>
+          <t>charging_station1_revenue</t>
         </is>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>15023.1343</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
+        <v>11147.4896</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>3875.644700000001</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0</v>
+        <v>443.8021000000001</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>0</v>
+        <v>2726.0348</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>2384.493100000001</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>2552.719100000001</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>2395.846500000001</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>2475.681700000001</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>2044.557</v>
       </c>
     </row>
     <row r="9">
@@ -2605,23 +2664,38 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>demand2_op_costs</t>
+          <t>charging_station2_revenue</t>
         </is>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>9823.092700000001</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
+        <v>7348.420500000001</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>2474.6722</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0</v>
+        <v>266.7453</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0</v>
+        <v>1778.4473</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>1572.3598</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>1535.7634</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>1664.8659</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>1738.3814</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>1266.5296</v>
       </c>
     </row>
     <row r="10">
@@ -2629,23 +2703,38 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>net1_op_costs</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>-72495.84273495676</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>-72495.84273495676</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>-8235.401397128207</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>-62148.18752099178</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>-2112.253816836776</v>
+          <t>net1_revenue</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>1.502040191960657e-12</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1.094436162067207e-12</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>4.076040298934507e-13</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>3.729461184320827e-14</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>2.060086823352236e-13</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>2.630217340223358e-13</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>2.464864423679103e-13</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>2.473900713913698e-13</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>2.985162910513444e-13</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>2.03322358949265e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2653,23 +2742,38 @@
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_electric</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>-34634.88190627069</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>-34634.88190627069</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>-3706.366625068131</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>-30126.75861502574</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>-801.7566661768114</v>
+          <t>net2_revenue</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1.099149276886263e-12</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>8.046586545222094e-13</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>2.944906223640536e-13</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>2.792210906932269e-14</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>1.554742445897262e-13</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>1.929502853788752e-13</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>1.83217330196328e-13</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>1.745733187637673e-13</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>2.250961322098582e-13</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>1.399158566783854e-13</v>
       </c>
     </row>
     <row r="12">
@@ -2677,23 +2781,38 @@
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_electric</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>1.019280889849991e-13</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>1.019280889849991e-13</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>8.811146257059478e-15</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>8.471366465455178e-14</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>8.40327807338781e-15</v>
+          <t>rev_P_CHP1</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>-8.424900988486462e-14</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>-5.48509386059474e-14</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>-2.939807127891722e-14</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>-8.615330671091214e-16</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>-8.71525074330748e-15</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>-1.221467371692597e-14</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>-1.708189145688266e-14</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>-1.409465137195791e-14</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>-1.810044178033162e-14</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>-1.318056774834986e-14</v>
       </c>
     </row>
     <row r="13">
@@ -2701,23 +2820,38 @@
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>net1_buy_thermal</t>
+          <t>rev_P_CHP2</t>
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>-37860.96082868607</v>
+        <v>-9.108861812971251e-14</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>-37860.96082868607</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>-4529.034772060077</v>
+        <v>-6.131687750136431e-14</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>-2.97717406283482e-14</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-32021.42890596604</v>
+        <v>-1.865174681370263e-15</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-1310.497150659964</v>
+        <v>-1.667999072196835e-14</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>-1.429671196243968e-14</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>-1.20614629395277e-14</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>-1.458388965147606e-14</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>-1.666222715357435e-14</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>-1.493916101935611e-14</v>
       </c>
     </row>
     <row r="14">
@@ -2725,23 +2859,38 @@
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>net1_sell_thermal</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>-2.220024164500955e-13</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>-2.220024164500955e-13</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>-2.482680727666776e-14</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>-1.972022545260188e-13</v>
+          <t>rev_P_bat1</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>2.664535259100319e-17</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2749,23 +2898,38 @@
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_thermal</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>-21743.90616331086</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>-21743.90616331086</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>-2557.270269699128</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>-18473.73280577987</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-712.9030878318722</v>
+          <t>rev_P_bat2</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2773,23 +2937,38 @@
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>net2_op_costs</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>-53387.53896887784</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>-53387.53896887784</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>-6570.670265840683</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>-44878.59976060333</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-1938.268942433825</v>
+          <t>rev_P_bat_with_aging1</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2797,23 +2976,38 @@
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>net2_buy_electric</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>-31643.63280556697</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>-31643.63280556697</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>-4013.399996141555</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>-26404.86695482346</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-1225.365854601953</v>
+          <t>rev_P_bat_with_aging2</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2821,23 +3015,38 @@
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_electric</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>8.988772028293924e-14</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>8.988772028293924e-14</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>7.35453364875127e-15</v>
+          <t>rev_P_pv1</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>-5.329070518200752e-16</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>-2.331468351712829e-16</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>-2.997602166487923e-16</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>7.503918121796817e-14</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>7.494005416219805e-15</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-4.996003610813204e-17</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>-4.996003610813205e-17</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>-3.33066907387547e-17</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <v>-6.661338147750939e-17</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>-1.665334536937735e-16</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>-1.665334536937735e-16</v>
       </c>
     </row>
     <row r="19">
@@ -2845,23 +3054,38 @@
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>net2_sell_thermal</t>
+          <t>rev_P_pv2</t>
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-1.709132835259198e-13</v>
+        <v>-2.731148640577884e-15</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>-1.709132835259198e-13</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>-1.839917107560041e-14</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>-1.526029302922893e-13</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>8.881784197001142e-17</v>
+        <v>-2.065014825802791e-15</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>-6.661338147750937e-16</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-5.32907051820075e-16</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>-2.997602166487922e-16</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <v>-5.662137425588297e-16</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <v>-5.995204332975844e-16</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <v>-3.330669073875469e-16</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <v>-3.996802888650563e-16</v>
       </c>
     </row>
     <row r="20">
@@ -2869,23 +3093,38 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>pv1_op_costs</t>
+          <t>rev_P_pvt1</t>
         </is>
       </c>
       <c r="E20" s="8" t="n">
-        <v>-16.35616438356164</v>
+        <v>-1.151023720780131e-15</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>-16.35616438356164</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>-1.890410958904109</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>-13.80821917808219</v>
+        <v>-6.208922265216188e-16</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>-5.301314942585123e-16</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-0.6575342465753423</v>
+        <v>-1.537658889105842e-16</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>-2.339795024397517e-16</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>-1.909583602355269e-16</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>-4.218847493575595e-17</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>-1.287858708565182e-16</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>-4.013456234019942e-16</v>
       </c>
     </row>
     <row r="21">
@@ -2893,23 +3132,38 @@
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>pv2_op_costs</t>
+          <t>rev_P_pvt2</t>
         </is>
       </c>
       <c r="E21" s="8" t="n">
-        <v>-20.44520547945204</v>
+        <v>-8.426592756904939e-16</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>-20.44520547945204</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>-2.363013698630136</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>-17.26027397260273</v>
+        <v>-6.961098364399732e-16</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>-1.465494392505207e-16</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-0.8219178082191776</v>
+        <v>-1.465494392505207e-16</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>-2.19824158875781e-16</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v>-1.831867990631508e-16</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>-1.465494392505207e-16</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>-7.327471962526034e-17</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>-7.327471962526034e-17</v>
       </c>
     </row>
     <row r="22">
@@ -2917,23 +3171,38 @@
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>bat1_op_costs</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>0</v>
+          <t>rev_Q_CHP1</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>-8.185452315956353e-14</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>-5.577760475716785e-14</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>-2.607691840239567e-14</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>-1.13686837721616e-15</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-1.072919530997751e-14</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>-1.485034317738609e-14</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>-1.428190898877801e-14</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>-1.222133505507372e-14</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>-1.655564574321033e-14</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>-1.20792265079217e-14</v>
       </c>
     </row>
     <row r="23">
@@ -2941,23 +3210,38 @@
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>bat2_op_costs</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>0</v>
+          <t>rev_Q_CHP2</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>-2.728484105318784e-14</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>-2.1316282072803e-14</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>-5.96855898038484e-15</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>-1.13686837721616e-15</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-3.33955085807247e-15</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>-2.55795384873636e-15</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>-1.13686837721616e-15</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>-1.094235813070554e-14</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>-4.618527782440651e-15</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>-3.5527136788005e-15</v>
       </c>
     </row>
     <row r="24">
@@ -2965,23 +3249,38 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>CHP1_op_costs</t>
+          <t>rev_Q_gas_boiler1</t>
         </is>
       </c>
       <c r="E24" s="8" t="n">
-        <v>-1889.952750000001</v>
+        <v>-2.238209617644316e-15</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>-1889.952750000001</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>-218.4367500000001</v>
+        <v>-1.900701818158268e-15</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>-3.375077994860476e-16</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>-1595.538</v>
+        <v>-3.375077994860476e-16</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-75.97800000000002</v>
+        <v>-4.973799150320702e-16</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>-2.486899575160351e-16</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>-2.842170943040401e-16</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>-8.704148513061228e-16</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2989,23 +3288,38 @@
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>CHP2_op_costs</t>
+          <t>rev_Q_gas_boiler2</t>
         </is>
       </c>
       <c r="E25" s="8" t="n">
-        <v>-2834.929125000002</v>
+        <v>-1.261213355974178e-15</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>-2834.929125000002</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>-327.6551250000002</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>-2393.307000000002</v>
+        <v>-1.261213355974178e-15</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-113.9670000000001</v>
+        <v>-3.375077994860476e-16</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>-3.375077994860476e-16</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8" t="n">
+        <v>-5.861977570020827e-16</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3013,23 +3327,38 @@
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_op_costs</t>
+          <t>rev_Q_heat_pump1</t>
         </is>
       </c>
       <c r="E26" s="8" t="n">
-        <v>-11.9263698630137</v>
+        <v>-1.249844672202016e-13</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>-11.9263698630137</v>
-      </c>
-      <c r="I26" s="8" t="n">
-        <v>-1.378424657534247</v>
+        <v>-9.102052445086884e-14</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>-3.396394276933279e-14</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-2.273736754432321e-15</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-0.4794520547945206</v>
+        <v>-2.152944489353104e-14</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>-1.818989403545857e-14</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <v>-2.863487225113204e-14</v>
+      </c>
+      <c r="N26" s="8" t="n">
+        <v>-1.300293206440984e-14</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>-2.259525899717119e-14</v>
+      </c>
+      <c r="P26" s="8" t="n">
+        <v>-1.875832822406665e-14</v>
       </c>
     </row>
     <row r="27">
@@ -3037,23 +3366,38 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_op_costs</t>
+          <t>rev_Q_heat_pump2</t>
         </is>
       </c>
       <c r="E27" s="8" t="n">
-        <v>-11.9263698630137</v>
+        <v>-7.382539024547441e-14</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>-11.9263698630137</v>
-      </c>
-      <c r="I27" s="8" t="n">
-        <v>-1.378424657534247</v>
-      </c>
-      <c r="J27" s="8" t="n">
-        <v>-10.06849315068493</v>
+        <v>-5.492495347425575e-14</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>-1.890043677121867e-14</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-0.4794520547945206</v>
+        <v>-6.679101716144943e-15</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>-1.513456027169014e-14</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <v>-2.174260771425907e-14</v>
+      </c>
+      <c r="N27" s="8" t="n">
+        <v>-1.13686837721616e-14</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>-1.165290086646564e-14</v>
+      </c>
+      <c r="P27" s="8" t="n">
+        <v>-7.247535904753022e-15</v>
       </c>
     </row>
     <row r="28">
@@ -3061,23 +3405,38 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>pvt1_op_costs</t>
+          <t>rev_Q_pvt1</t>
         </is>
       </c>
       <c r="E28" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="I28" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-0.5821917808219177</v>
+        <v>-1.207367539279858e-16</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>8.049116928532411e-18</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>-1.287858708565182e-16</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>8.770761894538737e-17</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>-7.327471962526034e-17</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>2.498001805406611e-18</v>
+      </c>
+      <c r="N28" s="7" t="n">
+        <v>9.992007221626418e-18</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>-8.104628079763644e-17</v>
+      </c>
+      <c r="P28" s="8" t="n">
+        <v>-6.661338147750938e-17</v>
       </c>
     </row>
     <row r="29">
@@ -3085,23 +3444,38 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>pvt2_op_costs</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>-14.4820205479452</v>
-      </c>
-      <c r="I29" s="8" t="n">
-        <v>-1.673801369863013</v>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>-12.22602739726027</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>-0.5821917808219177</v>
+          <t>rev_Q_pvt2</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3109,23 +3483,38 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>charging_station1_op_costs</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="n">
-        <v>-55.27777777777776</v>
+          <t>rev_Q_solar_th1</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>1.205979760499076e-16</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="I30" s="8" t="n">
-        <v>-6.388888888888887</v>
+        <v>-1.040834085586084e-17</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>1.310063169057685e-16</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>-46.66666666666665</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-2.222222222222221</v>
+        <v>-1.332267629550188e-17</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>1.512678871051776e-17</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>1.221245327087672e-17</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v>-5.162537064506978e-17</v>
+      </c>
+      <c r="N30" s="7" t="n">
+        <v>2.720046410331633e-17</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>-4.329869796038112e-17</v>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>1.743050148661496e-16</v>
       </c>
     </row>
     <row r="31">
@@ -3133,71 +3522,77 @@
       <c r="B31" s="6" t="n"/>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>charging_station2_op_costs</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>-55.27777777777776</v>
-      </c>
-      <c r="I31" s="8" t="n">
-        <v>-6.388888888888887</v>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>-46.66666666666665</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-2.222222222222221</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_costs</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="I32" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-0.6210045662100455</v>
+          <t>rev_Q_solar_th2</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>1.994699960761181e-12</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>1.440898511617661e-12</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>5.538014491435206e-13</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <v>4.492406446843233e-14</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>2.754196870569104e-13</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <v>3.415490112956832e-13</v>
+      </c>
+      <c r="M31" s="7" t="n">
+        <v>3.428191064358544e-13</v>
+      </c>
+      <c r="N31" s="7" t="n">
+        <v>3.248379343290253e-13</v>
+      </c>
+      <c r="O31" s="7" t="n">
+        <v>3.910582968558174e-13</v>
+      </c>
+      <c r="P31" s="7" t="n">
+        <v>2.740918603194587e-13</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>heat_pump2_op_costs</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>-15.44748858447488</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>-1.785388127853881</v>
-      </c>
-      <c r="J33" s="8" t="n">
-        <v>-13.04109589041096</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-0.6210045662100455</v>
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>2 - Revenue (compensation)</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>1.26584038665518e-14</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.269353449511672e-14</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>-3.513062856493592e-17</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>9.536815781530091e-16</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>2.072832646267859e-15</v>
+      </c>
+      <c r="L33" s="5" t="n">
+        <v>4.275993139815322e-15</v>
+      </c>
+      <c r="M33" s="5" t="n">
+        <v>3.467689098831289e-15</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <v>-1.831436237233052e-15</v>
+      </c>
+      <c r="O33" s="5" t="n">
+        <v>3.820118824445932e-15</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <v>-1.004751837285768e-16</v>
       </c>
     </row>
     <row r="34">
@@ -3205,23 +3600,38 @@
       <c r="B34" s="6" t="n"/>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_op_costs</t>
+          <t>comp_Q_gas_boiler2</t>
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>-199</v>
+        <v>-7.105427357601004e-17</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>-199</v>
-      </c>
-      <c r="I34" s="8" t="n">
-        <v>-23</v>
+        <v>-1.62400956879891e-14</v>
+      </c>
+      <c r="H34" s="8" t="n">
+        <v>-8.72318090776909e-15</v>
       </c>
       <c r="J34" s="8" t="n">
-        <v>-168</v>
+        <v>-2.664535259100377e-16</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-8</v>
+        <v>-2.657133772269543e-15</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <v>-3.630429290524263e-15</v>
+      </c>
+      <c r="M34" s="8" t="n">
+        <v>-4.966397663489869e-15</v>
+      </c>
+      <c r="N34" s="8" t="n">
+        <v>-4.186774383975314e-15</v>
+      </c>
+      <c r="O34" s="8" t="n">
+        <v>-5.348102912908613e-15</v>
+      </c>
+      <c r="P34" s="8" t="n">
+        <v>-3.907985046680552e-15</v>
       </c>
     </row>
     <row r="35">
@@ -3229,23 +3639,38 @@
       <c r="B35" s="6" t="n"/>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_op_costs</t>
+          <t>comp_P_pvt2</t>
         </is>
       </c>
       <c r="E35" s="8" t="n">
-        <v>-199</v>
+        <v>-2.553512956637861e-17</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>-199</v>
-      </c>
-      <c r="I35" s="8" t="n">
-        <v>-23</v>
+        <v>-1.787212353418808e-14</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <v>-8.881784197001255e-15</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>-168</v>
+        <v>-5.329070518200753e-16</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>-8</v>
+        <v>-4.796163466380678e-15</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>-4.194175870806149e-15</v>
+      </c>
+      <c r="M35" s="8" t="n">
+        <v>-3.552713678800503e-15</v>
+      </c>
+      <c r="N35" s="8" t="n">
+        <v>-4.263256414560603e-15</v>
+      </c>
+      <c r="O35" s="8" t="n">
+        <v>-4.973799150320703e-15</v>
+      </c>
+      <c r="P35" s="8" t="n">
+        <v>-4.440892098500628e-15</v>
       </c>
     </row>
     <row r="36">
@@ -3253,23 +3678,38 @@
       <c r="B36" s="6" t="n"/>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_op_costs</t>
+          <t>comp_Q_pvt1</t>
         </is>
       </c>
       <c r="E36" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="I36" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="J36" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>-84.43083489545783</v>
+        <v>-1.249000902703301e-17</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3277,46 +3717,115 @@
       <c r="B37" s="6" t="n"/>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler2_op_costs</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>-2100.217018024513</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>-242.7386503244413</v>
-      </c>
-      <c r="J37" s="8" t="n">
-        <v>-1773.047532804615</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>-84.43083489545783</v>
+          <t>comp_P_bat_with_aging2</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>comp_P_pvt1</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>-3.386180225106728e-17</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="n"/>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>2 - Investment Costs</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>-1042320</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>-1042320</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <v>-1042320</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="n">
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>comp_Q_pvt2</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3325,23 +3834,38 @@
       <c r="B40" s="6" t="n"/>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>demand1_inv_costs</t>
+          <t>comp_P_bat2</t>
         </is>
       </c>
       <c r="E40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>0</v>
+      <c r="G40" s="8" t="n">
+        <v>-7.771561172376097e-18</v>
+      </c>
+      <c r="H40" s="8" t="n">
+        <v>-9.992007221626408e-18</v>
       </c>
       <c r="J40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="7" t="n">
-        <v>0</v>
+      <c r="K40" s="8" t="n">
+        <v>-1.665334536937735e-18</v>
+      </c>
+      <c r="L40" s="8" t="n">
+        <v>-1.665334536937735e-18</v>
+      </c>
+      <c r="M40" s="8" t="n">
+        <v>-1.110223024625157e-18</v>
+      </c>
+      <c r="N40" s="8" t="n">
+        <v>-2.220446049250313e-18</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <v>-5.551115123125783e-18</v>
+      </c>
+      <c r="P40" s="8" t="n">
+        <v>-5.551115123125783e-18</v>
       </c>
     </row>
     <row r="41">
@@ -3349,23 +3873,38 @@
       <c r="B41" s="6" t="n"/>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>demand2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="n">
-        <v>0</v>
+          <t>comp_Q_CHP2</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>-1.705302565824241e-14</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>-6.883382752675973e-17</v>
+      </c>
+      <c r="H41" s="8" t="n">
+        <v>-2.220446049250314e-17</v>
       </c>
       <c r="J41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="7" t="n">
-        <v>0</v>
+      <c r="K41" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="L41" s="8" t="n">
+        <v>-9.992007221626413e-18</v>
+      </c>
+      <c r="M41" s="8" t="n">
+        <v>-1.887379141862767e-17</v>
+      </c>
+      <c r="N41" s="8" t="n">
+        <v>-1.998401444325283e-17</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <v>-1.110223024625157e-17</v>
+      </c>
+      <c r="P41" s="8" t="n">
+        <v>-1.332267629550188e-17</v>
       </c>
     </row>
     <row r="42">
@@ -3373,23 +3912,38 @@
       <c r="B42" s="6" t="n"/>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>net1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>0</v>
+          <t>comp_P_CHP1</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>-2.496327659575819e-14</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="H42" s="8" t="n">
+        <v>-1.609823385706477e-17</v>
       </c>
       <c r="J42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K42" s="7" t="n">
-        <v>0</v>
+      <c r="K42" s="8" t="n">
+        <v>-4.163336342344338e-18</v>
+      </c>
+      <c r="L42" s="8" t="n">
+        <v>-6.93889390390723e-18</v>
+      </c>
+      <c r="M42" s="8" t="n">
+        <v>-5.551115123125784e-18</v>
+      </c>
+      <c r="N42" s="8" t="n">
+        <v>-1.110223024625157e-18</v>
+      </c>
+      <c r="O42" s="8" t="n">
+        <v>-4.440892098500626e-18</v>
+      </c>
+      <c r="P42" s="8" t="n">
+        <v>-1.165734175856414e-17</v>
       </c>
     </row>
     <row r="43">
@@ -3397,23 +3951,38 @@
       <c r="B43" s="6" t="n"/>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>net2_inv_costs</t>
+          <t>comp_P_bat1</t>
         </is>
       </c>
       <c r="E43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>0</v>
+      <c r="G43" s="8" t="n">
+        <v>-2.109423746787798e-17</v>
+      </c>
+      <c r="H43" s="8" t="n">
+        <v>-4.440892098500628e-18</v>
       </c>
       <c r="J43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K43" s="7" t="n">
-        <v>0</v>
+      <c r="K43" s="8" t="n">
+        <v>-4.440892098500628e-18</v>
+      </c>
+      <c r="L43" s="8" t="n">
+        <v>-6.661338147750942e-18</v>
+      </c>
+      <c r="M43" s="8" t="n">
+        <v>-5.551115123125785e-18</v>
+      </c>
+      <c r="N43" s="8" t="n">
+        <v>-4.440892098500628e-18</v>
+      </c>
+      <c r="O43" s="8" t="n">
+        <v>-2.220446049250314e-18</v>
+      </c>
+      <c r="P43" s="8" t="n">
+        <v>-2.220446049250314e-18</v>
       </c>
     </row>
     <row r="44">
@@ -3421,23 +3990,38 @@
       <c r="B44" s="6" t="n"/>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>pv1_inv_costs</t>
+          <t>comp_Q_CHP1</t>
         </is>
       </c>
       <c r="E44" s="8" t="n">
-        <v>-48000</v>
+        <v>-5.115907697472721e-14</v>
       </c>
       <c r="G44" s="8" t="n">
-        <v>-48000</v>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v>-48000</v>
-      </c>
-      <c r="J44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
+      </c>
+      <c r="H44" s="8" t="n">
+        <v>-1.563194018672221e-14</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>-7.105427357601002e-16</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-7.105427357601002e-15</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <v>-9.237055564881303e-15</v>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v>-9.237055564881303e-15</v>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>-7.815970093361103e-15</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v>-9.947598300641404e-15</v>
+      </c>
+      <c r="P44" s="8" t="n">
+        <v>-7.105427357601002e-15</v>
       </c>
     </row>
     <row r="45">
@@ -3445,23 +4029,38 @@
       <c r="B45" s="6" t="n"/>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>pv2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>-60000</v>
+          <t>comp_Q_solar_th2</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>1.457656217951353e-13</v>
       </c>
       <c r="G45" s="8" t="n">
-        <v>-60000</v>
-      </c>
-      <c r="I45" s="8" t="n">
-        <v>-60000</v>
-      </c>
-      <c r="J45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7" t="n">
-        <v>0</v>
+        <v>-1.35003119794419e-14</v>
+      </c>
+      <c r="H45" s="8" t="n">
+        <v>-3.552713678800501e-15</v>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>-7.105427357601002e-16</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-2.131628207280301e-15</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v>-1.4210854715202e-15</v>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v>-7.105427357601002e-16</v>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>-7.105427357601002e-15</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>-2.842170943040401e-15</v>
+      </c>
+      <c r="P45" s="8" t="n">
+        <v>-2.131628207280301e-15</v>
       </c>
     </row>
     <row r="46">
@@ -3469,22 +4068,37 @@
       <c r="B46" s="6" t="n"/>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>bat1_inv_costs</t>
+          <t>comp_P_pv1</t>
         </is>
       </c>
       <c r="E46" s="8" t="n">
-        <v>-65000</v>
+        <v>-1.776356839400251e-17</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I46" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="J46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7" t="n">
+        <v>-1.243449787580176e-16</v>
+      </c>
+      <c r="H46" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>-3.552713678800502e-17</v>
+      </c>
+      <c r="L46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="N46" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <v>-5.329070518200754e-17</v>
+      </c>
+      <c r="P46" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3493,22 +4107,37 @@
       <c r="B47" s="6" t="n"/>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>bat2_inv_costs</t>
+          <t>comp_Q_heat_pump2</t>
         </is>
       </c>
       <c r="E47" s="8" t="n">
-        <v>-65000</v>
+        <v>-4.61852778244065e-15</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I47" s="8" t="n">
-        <v>-65000</v>
+        <v>-7.105427357601004e-17</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J47" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="K47" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <v>-1.776356839400251e-17</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8" t="n">
+        <v>-3.552713678800502e-17</v>
+      </c>
+      <c r="P47" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3517,23 +4146,38 @@
       <c r="B48" s="6" t="n"/>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>CHP1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E48" s="8" t="n">
-        <v>-34000</v>
+          <t>comp_Q_solar_th1</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>5.689893001203925e-18</v>
       </c>
       <c r="G48" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="I48" s="8" t="n">
-        <v>-34000</v>
-      </c>
-      <c r="J48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <v>0</v>
+        <v>-6.03961325396085e-15</v>
+      </c>
+      <c r="H48" s="8" t="n">
+        <v>-2.1316282072803e-15</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>-1.4210854715202e-16</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>-1.49213974509621e-15</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <v>-1.13686837721616e-15</v>
+      </c>
+      <c r="M48" s="8" t="n">
+        <v>-1.91846538655227e-15</v>
+      </c>
+      <c r="N48" s="8" t="n">
+        <v>-9.237055564881299e-16</v>
+      </c>
+      <c r="O48" s="8" t="n">
+        <v>-1.4210854715202e-15</v>
+      </c>
+      <c r="P48" s="8" t="n">
+        <v>-1.13686837721616e-15</v>
       </c>
     </row>
     <row r="49">
@@ -3541,23 +4185,38 @@
       <c r="B49" s="6" t="n"/>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>CHP2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>-51000</v>
+          <t>comp_P_bat_with_aging1</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="G49" s="8" t="n">
-        <v>-51000</v>
-      </c>
-      <c r="I49" s="8" t="n">
-        <v>-51000</v>
+        <v>-3.48165940522449e-15</v>
+      </c>
+      <c r="H49" s="8" t="n">
+        <v>-1.13686837721616e-15</v>
       </c>
       <c r="J49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="7" t="n">
-        <v>0</v>
+      <c r="K49" s="8" t="n">
+        <v>-4.2632564145606e-16</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>-9.237055564881299e-16</v>
+      </c>
+      <c r="M49" s="8" t="n">
+        <v>-1.4210854715202e-15</v>
+      </c>
+      <c r="N49" s="8" t="n">
+        <v>-7.105427357600999e-16</v>
+      </c>
+      <c r="O49" s="8" t="n">
+        <v>-7.105427357600999e-16</v>
+      </c>
+      <c r="P49" s="8" t="n">
+        <v>-4.2632564145606e-16</v>
       </c>
     </row>
     <row r="50">
@@ -3565,23 +4224,38 @@
       <c r="B50" s="6" t="n"/>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>solar_th1_inv_costs</t>
+          <t>comp_Q_heat_pump1</t>
         </is>
       </c>
       <c r="E50" s="8" t="n">
-        <v>-35000</v>
+        <v>-8.17124146124115e-15</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="I50" s="8" t="n">
-        <v>-35000</v>
+        <v>-1.387778780781446e-18</v>
+      </c>
+      <c r="H50" s="8" t="n">
+        <v>-1.110223024625157e-17</v>
       </c>
       <c r="J50" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K50" s="7" t="n">
-        <v>0</v>
+        <v>5.551115123125782e-18</v>
+      </c>
+      <c r="L50" s="8" t="n">
+        <v>-6.661338147750939e-18</v>
+      </c>
+      <c r="M50" s="8" t="n">
+        <v>-2.77555756156289e-19</v>
+      </c>
+      <c r="N50" s="7" t="n">
+        <v>1.110223024625158e-18</v>
+      </c>
+      <c r="O50" s="8" t="n">
+        <v>-5.551115123125782e-18</v>
+      </c>
+      <c r="P50" s="8" t="n">
+        <v>-6.661338147750939e-18</v>
       </c>
     </row>
     <row r="51">
@@ -3589,22 +4263,37 @@
       <c r="B51" s="6" t="n"/>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>solar_th2_inv_costs</t>
+          <t>comp_P_CHP2</t>
         </is>
       </c>
       <c r="E51" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="G51" s="8" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="I51" s="8" t="n">
-        <v>-35000</v>
+        <v>-2.675390773118934e-14</v>
+      </c>
+      <c r="G51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J51" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3613,23 +4302,38 @@
       <c r="B52" s="6" t="n"/>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>pvt1_inv_costs</t>
+          <t>comp_Q_gas_boiler1</t>
         </is>
       </c>
       <c r="E52" s="8" t="n">
-        <v>-42500</v>
+        <v>-1.421085471520201e-16</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="I52" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="J52" s="7" t="n">
-        <v>0</v>
+        <v>-2.081668171172169e-18</v>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>7.771561172376093e-18</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>-1.110223024625157e-18</v>
       </c>
       <c r="K52" s="7" t="n">
-        <v>0</v>
+        <v>6.938893903907229e-19</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v>-2.888894916580854e-34</v>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v>-3.33066907387547e-18</v>
+      </c>
+      <c r="N52" s="7" t="n">
+        <v>1.665334536937735e-18</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>-2.220446049250314e-18</v>
+      </c>
+      <c r="P52" s="7" t="n">
+        <v>9.992007221626408e-18</v>
       </c>
     </row>
     <row r="53">
@@ -3637,71 +4341,77 @@
       <c r="B53" s="6" t="n"/>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>pvt2_inv_costs</t>
+          <t>comp_P_pv2</t>
         </is>
       </c>
       <c r="E53" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v>-42500</v>
-      </c>
-      <c r="I53" s="8" t="n">
-        <v>-42500</v>
+        <v>-9.103828801926287e-17</v>
+      </c>
+      <c r="G53" s="7" t="n">
+        <v>1.056688070377732e-13</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>4.009681475736216e-14</v>
       </c>
       <c r="J53" s="7" t="n">
-        <v>0</v>
+        <v>3.335109965973971e-15</v>
       </c>
       <c r="K53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>charging_station1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="I54" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="J54" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <v>0</v>
+        <v>2.075672966839193e-14</v>
+      </c>
+      <c r="L53" s="7" t="n">
+        <v>2.486899575160351e-14</v>
+      </c>
+      <c r="M53" s="7" t="n">
+        <v>2.532640763774907e-14</v>
+      </c>
+      <c r="N53" s="7" t="n">
+        <v>2.321698389096127e-14</v>
+      </c>
+      <c r="O53" s="7" t="n">
+        <v>2.918332242529687e-14</v>
+      </c>
+      <c r="P53" s="7" t="n">
+        <v>1.907807245515869e-14</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="I55" s="8" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="J55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="7" t="n">
-        <v>0</v>
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>3 - Operational costs</t>
+        </is>
+      </c>
+      <c r="E55" s="9" t="n">
+        <v>-692475.4689448242</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>-516730.0611240375</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <v>-175745.4078207865</v>
+      </c>
+      <c r="J55" s="9" t="n">
+        <v>-16292.12442764912</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>-116799.4427680661</v>
+      </c>
+      <c r="L55" s="9" t="n">
+        <v>-116292.5639708596</v>
+      </c>
+      <c r="M55" s="9" t="n">
+        <v>-116657.0761931441</v>
+      </c>
+      <c r="N55" s="9" t="n">
+        <v>-116802.6163906475</v>
+      </c>
+      <c r="O55" s="9" t="n">
+        <v>-116144.1293735674</v>
+      </c>
+      <c r="P55" s="9" t="n">
+        <v>-93487.51582089017</v>
       </c>
     </row>
     <row r="56">
@@ -3709,23 +4419,38 @@
       <c r="B56" s="6" t="n"/>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>heat_pump1_inv_costs</t>
+          <t>CHP1_op_costs</t>
         </is>
       </c>
       <c r="E56" s="8" t="n">
-        <v>-14660</v>
+        <v>-9487.752750000003</v>
       </c>
       <c r="G56" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="I56" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="J56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="7" t="n">
-        <v>0</v>
+        <v>-7056.456750000002</v>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v>-2431.296000000001</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="L56" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="N56" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="O56" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="P56" s="8" t="n">
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="57">
@@ -3733,23 +4458,38 @@
       <c r="B57" s="6" t="n"/>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>heat_pump2_inv_costs</t>
+          <t>CHP2_op_costs</t>
         </is>
       </c>
       <c r="E57" s="8" t="n">
-        <v>-14660</v>
+        <v>-9487.752750000003</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="I57" s="8" t="n">
-        <v>-14660</v>
-      </c>
-      <c r="J57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="7" t="n">
-        <v>0</v>
+        <v>-7056.456750000002</v>
+      </c>
+      <c r="H57" s="8" t="n">
+        <v>-2431.296000000001</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>-218.4367500000001</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="L57" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="M57" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="N57" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="O57" s="8" t="n">
+        <v>-1595.538</v>
+      </c>
+      <c r="P57" s="8" t="n">
+        <v>-1291.626</v>
       </c>
     </row>
     <row r="58">
@@ -3757,22 +4497,37 @@
       <c r="B58" s="6" t="n"/>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging1_inv_costs</t>
-        </is>
-      </c>
-      <c r="E58" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G58" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I58" s="8" t="n">
-        <v>-65000</v>
+          <t>bat1_op_costs</t>
+        </is>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3781,22 +4536,37 @@
       <c r="B59" s="6" t="n"/>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>bat_with_aging2_inv_costs</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="G59" s="8" t="n">
-        <v>-65000</v>
-      </c>
-      <c r="I59" s="8" t="n">
-        <v>-65000</v>
+          <t>bat2_op_costs</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3805,23 +4575,38 @@
       <c r="B60" s="6" t="n"/>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>gas_boiler1_inv_costs</t>
+          <t>bat_with_aging1_op_costs</t>
         </is>
       </c>
       <c r="E60" s="8" t="n">
-        <v>-2500</v>
+        <v>-999</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="I60" s="8" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="J60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="7" t="n">
-        <v>0</v>
+        <v>-743</v>
+      </c>
+      <c r="H60" s="8" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J60" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L60" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M60" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N60" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O60" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P60" s="8" t="n">
+        <v>-136</v>
       </c>
     </row>
     <row r="61">
@@ -3829,71 +4614,1637 @@
       <c r="B61" s="6" t="n"/>
       <c r="C61" s="6" t="inlineStr">
         <is>
+          <t>bat_with_aging2_op_costs</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>-999</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>-743</v>
+      </c>
+      <c r="H61" s="8" t="n">
+        <v>-256</v>
+      </c>
+      <c r="J61" s="8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="L61" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="M61" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="N61" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="O61" s="8" t="n">
+        <v>-168</v>
+      </c>
+      <c r="P61" s="8" t="n">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_op_costs</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>-277.4999999999999</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>-206.3888888888888</v>
+      </c>
+      <c r="H62" s="8" t="n">
+        <v>-71.11111111111109</v>
+      </c>
+      <c r="J62" s="8" t="n">
+        <v>-6.388888888888887</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="L62" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="M62" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="N62" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="O62" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="P62" s="8" t="n">
+        <v>-37.77777777777776</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_op_costs</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>-277.4999999999999</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>-206.3888888888888</v>
+      </c>
+      <c r="H63" s="8" t="n">
+        <v>-71.11111111111109</v>
+      </c>
+      <c r="J63" s="8" t="n">
+        <v>-6.388888888888887</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="L63" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="M63" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="N63" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="O63" s="8" t="n">
+        <v>-46.66666666666665</v>
+      </c>
+      <c r="P63" s="8" t="n">
+        <v>-37.77777777777776</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>demand1_op_costs</t>
+        </is>
+      </c>
+      <c r="E64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>demand2_op_costs</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_op_costs</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>-10543.3005075703</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>-7841.513790915646</v>
+      </c>
+      <c r="H66" s="8" t="n">
+        <v>-2701.786716654651</v>
+      </c>
+      <c r="J66" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="L66" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="M66" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="N66" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="O66" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="P66" s="8" t="n">
+        <v>-1435.324193222783</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler2_op_costs</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>-10543.3005075703</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>-7841.513790915646</v>
+      </c>
+      <c r="H67" s="8" t="n">
+        <v>-2701.786716654651</v>
+      </c>
+      <c r="J67" s="8" t="n">
+        <v>-242.7386503244413</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="L67" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="M67" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="N67" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="O67" s="8" t="n">
+        <v>-1773.047532804615</v>
+      </c>
+      <c r="P67" s="8" t="n">
+        <v>-1435.324193222783</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_op_costs</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="n">
+        <v>-77.54794520547944</v>
+      </c>
+      <c r="G68" s="8" t="n">
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H68" s="8" t="n">
+        <v>-19.87214611872146</v>
+      </c>
+      <c r="J68" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L68" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M68" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N68" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O68" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P68" s="8" t="n">
+        <v>-10.55707762557077</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_op_costs</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>-77.54794520547944</v>
+      </c>
+      <c r="G69" s="8" t="n">
+        <v>-57.67579908675798</v>
+      </c>
+      <c r="H69" s="8" t="n">
+        <v>-19.87214611872146</v>
+      </c>
+      <c r="J69" s="8" t="n">
+        <v>-1.785388127853881</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="L69" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="M69" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="N69" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="O69" s="8" t="n">
+        <v>-13.04109589041096</v>
+      </c>
+      <c r="P69" s="8" t="n">
+        <v>-10.55707762557077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>net1_op_costs</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v>-378254.0639292458</v>
+      </c>
+      <c r="G70" s="8" t="n">
+        <v>-283064.7835507581</v>
+      </c>
+      <c r="H70" s="8" t="n">
+        <v>-95189.28037848772</v>
+      </c>
+      <c r="J70" s="8" t="n">
+        <v>-9359.394919840495</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>-63620.41753773614</v>
+      </c>
+      <c r="L70" s="8" t="n">
+        <v>-62835.46882875654</v>
+      </c>
+      <c r="M70" s="8" t="n">
+        <v>-64406.33411695863</v>
+      </c>
+      <c r="N70" s="8" t="n">
+        <v>-64379.37242069545</v>
+      </c>
+      <c r="O70" s="8" t="n">
+        <v>-62221.23572934814</v>
+      </c>
+      <c r="P70" s="8" t="n">
+        <v>-51431.84037591041</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>net2_op_costs</t>
+        </is>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>-271145.0022675609</v>
+      </c>
+      <c r="G71" s="8" t="n">
+        <v>-201627.4725264557</v>
+      </c>
+      <c r="H71" s="8" t="n">
+        <v>-69517.52974110517</v>
+      </c>
+      <c r="J71" s="8" t="n">
+        <v>-5940.98049559201</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>-45934.94548892167</v>
+      </c>
+      <c r="L71" s="8" t="n">
+        <v>-46213.01540069472</v>
+      </c>
+      <c r="M71" s="8" t="n">
+        <v>-45006.66233477717</v>
+      </c>
+      <c r="N71" s="8" t="n">
+        <v>-45179.1642285437</v>
+      </c>
+      <c r="O71" s="8" t="n">
+        <v>-46678.81390281094</v>
+      </c>
+      <c r="P71" s="8" t="n">
+        <v>-36191.42041622066</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>pv1_op_costs</t>
+        </is>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v>-20.52739726027397</v>
+      </c>
+      <c r="G72" s="8" t="n">
+        <v>-15.26712328767123</v>
+      </c>
+      <c r="H72" s="8" t="n">
+        <v>-5.260273972602739</v>
+      </c>
+      <c r="J72" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="L72" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="M72" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="N72" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="O72" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="P72" s="8" t="n">
+        <v>-2.794520547945205</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>pv2_op_costs</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="n">
+        <v>-20.52739726027397</v>
+      </c>
+      <c r="G73" s="8" t="n">
+        <v>-15.26712328767123</v>
+      </c>
+      <c r="H73" s="8" t="n">
+        <v>-5.260273972602739</v>
+      </c>
+      <c r="J73" s="8" t="n">
+        <v>-0.4726027397260274</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="L73" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="M73" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="N73" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="O73" s="8" t="n">
+        <v>-3.452054794520548</v>
+      </c>
+      <c r="P73" s="8" t="n">
+        <v>-2.794520547945205</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_op_costs</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>-72.70119863013697</v>
+      </c>
+      <c r="G74" s="8" t="n">
+        <v>-54.07106164383561</v>
+      </c>
+      <c r="H74" s="8" t="n">
+        <v>-18.63013698630137</v>
+      </c>
+      <c r="J74" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="L74" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="M74" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="N74" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="O74" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="P74" s="8" t="n">
+        <v>-9.8972602739726</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_op_costs</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>-72.70119863013697</v>
+      </c>
+      <c r="G75" s="8" t="n">
+        <v>-54.07106164383561</v>
+      </c>
+      <c r="H75" s="8" t="n">
+        <v>-18.63013698630137</v>
+      </c>
+      <c r="J75" s="8" t="n">
+        <v>-1.673801369863013</v>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="L75" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="M75" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="N75" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="O75" s="8" t="n">
+        <v>-12.22602739726027</v>
+      </c>
+      <c r="P75" s="8" t="n">
+        <v>-9.8972602739726</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_op_costs</t>
+        </is>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>-59.87157534246575</v>
+      </c>
+      <c r="G76" s="8" t="n">
+        <v>-44.5291095890411</v>
+      </c>
+      <c r="H76" s="8" t="n">
+        <v>-15.34246575342466</v>
+      </c>
+      <c r="J76" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="L76" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="M76" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="N76" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="O76" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="P76" s="8" t="n">
+        <v>-8.15068493150685</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n"/>
+      <c r="B77" s="6" t="n"/>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_op_costs</t>
+        </is>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>-59.87157534246575</v>
+      </c>
+      <c r="G77" s="8" t="n">
+        <v>-44.5291095890411</v>
+      </c>
+      <c r="H77" s="8" t="n">
+        <v>-15.34246575342466</v>
+      </c>
+      <c r="J77" s="8" t="n">
+        <v>-1.378424657534247</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="L77" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="M77" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="N77" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="O77" s="8" t="n">
+        <v>-10.06849315068493</v>
+      </c>
+      <c r="P77" s="8" t="n">
+        <v>-8.15068493150685</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>4 - Investment costs</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="9" t="n">
+        <v>-941320</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>CHP1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G80" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="H80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n"/>
+      <c r="B81" s="6" t="n"/>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>CHP2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="G81" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="H81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8" t="n">
+        <v>-34000</v>
+      </c>
+      <c r="K81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>bat1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G82" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n"/>
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>bat2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G83" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G84" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n"/>
+      <c r="B85" s="6" t="n"/>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>bat_with_aging2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="G85" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="H85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8" t="n">
+        <v>-65000</v>
+      </c>
+      <c r="K85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>charging_station1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G86" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n"/>
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>charging_station2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G87" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="H87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="K87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>demand1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n"/>
+      <c r="B89" s="6" t="n"/>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>demand2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>gas_boiler1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E90" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G90" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="H90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="K90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n"/>
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
           <t>gas_boiler2_inv_costs</t>
         </is>
       </c>
-      <c r="E61" s="8" t="n">
+      <c r="E91" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="G61" s="8" t="n">
+      <c r="G91" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="I61" s="8" t="n">
+      <c r="H91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8" t="n">
         <v>-2500</v>
       </c>
-      <c r="J61" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="n"/>
-      <c r="B63" s="4" t="n"/>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>3 - Result</t>
-        </is>
-      </c>
-      <c r="E63" s="5" t="n">
-        <v>-1303641.148002128</v>
-      </c>
-      <c r="G63" s="5" t="n">
-        <v>-1303641.148002128</v>
-      </c>
-      <c r="I63" s="5" t="n">
-        <v>-1073036.418932332</v>
-      </c>
-      <c r="J63" s="5" t="n">
-        <v>-222119.5876881602</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>-8485.141381635014</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="n"/>
-      <c r="B65" s="4" t="n"/>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>4 - Result accumulated</t>
-        </is>
-      </c>
-      <c r="E65" s="5" t="n">
-        <v>-1303641.148002128</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <v>-1303641.148002128</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>-1073036.418932332</v>
-      </c>
-      <c r="J65" s="5" t="n">
-        <v>-1295156.006620493</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>-1303641.148002128</v>
+      <c r="K91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G92" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n"/>
+      <c r="B93" s="6" t="n"/>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>heat_pump2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E93" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="G93" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="H93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8" t="n">
+        <v>-14660</v>
+      </c>
+      <c r="K93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>net1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>net2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>pv1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E96" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G96" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="H96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="K96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>pv2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E97" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="G97" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="H97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="K97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>pvt1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E98" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G98" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="H98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="K98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>pvt2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E99" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="G99" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="H99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="8" t="n">
+        <v>-42500</v>
+      </c>
+      <c r="K99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>solar_th1_inv_costs</t>
+        </is>
+      </c>
+      <c r="E100" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G100" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="H100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="K100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n"/>
+      <c r="B101" s="6" t="n"/>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>solar_th2_inv_costs</t>
+        </is>
+      </c>
+      <c r="E101" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="G101" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="H101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8" t="n">
+        <v>-35000</v>
+      </c>
+      <c r="K101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="n"/>
+      <c r="B103" s="4" t="n"/>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>5 - Result</t>
+        </is>
+      </c>
+      <c r="E103" s="9" t="n">
+        <v>-1608949.241944824</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>-1439554.151024038</v>
+      </c>
+      <c r="H103" s="9" t="n">
+        <v>-169395.0909207865</v>
+      </c>
+      <c r="J103" s="9" t="n">
+        <v>-956901.5770276492</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>-112294.9606680661</v>
+      </c>
+      <c r="L103" s="9" t="n">
+        <v>-112335.7110708596</v>
+      </c>
+      <c r="M103" s="9" t="n">
+        <v>-112568.5936931441</v>
+      </c>
+      <c r="N103" s="9" t="n">
+        <v>-112741.9039906474</v>
+      </c>
+      <c r="O103" s="9" t="n">
+        <v>-111930.0662735674</v>
+      </c>
+      <c r="P103" s="9" t="n">
+        <v>-90176.42922089018</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n"/>
+      <c r="B105" s="4" t="n"/>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>6 - Result accumulated</t>
+        </is>
+      </c>
+      <c r="E105" s="9" t="n">
+        <v>-1608949.241944824</v>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>-1439554.151024038</v>
+      </c>
+      <c r="H105" s="9" t="n">
+        <v>-1608949.241944824</v>
+      </c>
+      <c r="J105" s="9" t="n">
+        <v>-956901.5770276492</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>-1069196.537695715</v>
+      </c>
+      <c r="L105" s="9" t="n">
+        <v>-1181532.248766575</v>
+      </c>
+      <c r="M105" s="9" t="n">
+        <v>-1294100.842459719</v>
+      </c>
+      <c r="N105" s="9" t="n">
+        <v>-1406842.746450366</v>
+      </c>
+      <c r="O105" s="9" t="n">
+        <v>-1518772.812723934</v>
+      </c>
+      <c r="P105" s="9" t="n">
+        <v>-1608949.241944824</v>
       </c>
     </row>
   </sheetData>
